--- a/Estacionalidad/outputs/datossss.xlsx
+++ b/Estacionalidad/outputs/datossss.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="33">
   <si>
     <t>Mes_num</t>
   </si>
@@ -470,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U132"/>
+  <dimension ref="A1:U133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,10 +600,10 @@
         <v>4674.897526518182</v>
       </c>
       <c r="T2">
-        <v>10074.30896</v>
+        <v>295.926052</v>
       </c>
       <c r="U2">
-        <v>9320.065165506363</v>
+        <v>-29.72988752999998</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -665,10 +665,10 @@
         <v>4674.897526518182</v>
       </c>
       <c r="T3">
-        <v>10763.014058</v>
+        <v>35.540378</v>
       </c>
       <c r="U3">
-        <v>9320.065165506363</v>
+        <v>-29.72988752999998</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -730,10 +730,10 @@
         <v>4674.897526518182</v>
       </c>
       <c r="T4">
-        <v>10741.239329</v>
+        <v>24.816333</v>
       </c>
       <c r="U4">
-        <v>9320.065165506363</v>
+        <v>-29.72988752999998</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -795,10 +795,10 @@
         <v>4674.897526518182</v>
       </c>
       <c r="T5">
-        <v>9923.910085</v>
+        <v>-1373.317885</v>
       </c>
       <c r="U5">
-        <v>9320.065165506363</v>
+        <v>-29.72988752999998</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -860,10 +860,10 @@
         <v>4674.897526518182</v>
       </c>
       <c r="T6">
-        <v>8158.670578</v>
+        <v>-566.71255</v>
       </c>
       <c r="U6">
-        <v>9320.065165506363</v>
+        <v>-29.72988752999998</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -925,10 +925,10 @@
         <v>4674.897526518182</v>
       </c>
       <c r="T7">
-        <v>8004.148869</v>
+        <v>-242.369417</v>
       </c>
       <c r="U7">
-        <v>9320.065165506363</v>
+        <v>-29.72988752999998</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -990,10 +990,10 @@
         <v>4674.897526518182</v>
       </c>
       <c r="T8">
-        <v>8634.871404040001</v>
+        <v>-53.36128815999999</v>
       </c>
       <c r="U8">
-        <v>9320.065165506363</v>
+        <v>-29.72988752999998</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -1055,10 +1055,10 @@
         <v>4674.897526518182</v>
       </c>
       <c r="T9">
-        <v>10553.5043025</v>
+        <v>-933.02353878</v>
       </c>
       <c r="U9">
-        <v>9320.065165506363</v>
+        <v>-29.72988752999998</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1120,10 +1120,10 @@
         <v>4674.897526518182</v>
       </c>
       <c r="T10">
-        <v>8796.59928495</v>
+        <v>372.98567283</v>
       </c>
       <c r="U10">
-        <v>9320.065165506363</v>
+        <v>-29.72988752999998</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1185,10 +1185,10 @@
         <v>4674.897526518182</v>
       </c>
       <c r="T11">
-        <v>8114.902665109999</v>
+        <v>1044.03497147</v>
       </c>
       <c r="U11">
-        <v>9320.065165506363</v>
+        <v>-29.72988752999998</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1250,10 +1250,10 @@
         <v>4674.897526518182</v>
       </c>
       <c r="T12">
-        <v>8755.54728497</v>
+        <v>1068.45250881</v>
       </c>
       <c r="U12">
-        <v>9320.065165506363</v>
+        <v>-29.72988752999998</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1315,10 +1315,10 @@
         <v>4417.916156005454</v>
       </c>
       <c r="T13">
-        <v>10162.295412</v>
+        <v>633.739044</v>
       </c>
       <c r="U13">
-        <v>9033.638398951818</v>
+        <v>197.8060869409091</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1380,10 +1380,10 @@
         <v>4417.916156005454</v>
       </c>
       <c r="T14">
-        <v>10729.493607</v>
+        <v>1279.552631</v>
       </c>
       <c r="U14">
-        <v>9033.638398951818</v>
+        <v>197.8060869409091</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1445,10 +1445,10 @@
         <v>4417.916156005454</v>
       </c>
       <c r="T15">
-        <v>10080.603395</v>
+        <v>-268.866931</v>
       </c>
       <c r="U15">
-        <v>9033.638398951818</v>
+        <v>197.8060869409091</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1510,10 +1510,10 @@
         <v>4417.916156005454</v>
       </c>
       <c r="T16">
-        <v>10185.168357</v>
+        <v>-889.714355</v>
       </c>
       <c r="U16">
-        <v>9033.638398951818</v>
+        <v>197.8060869409091</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1575,10 +1575,10 @@
         <v>4417.916156005454</v>
       </c>
       <c r="T17">
-        <v>7956.200829</v>
+        <v>-212.776157</v>
       </c>
       <c r="U17">
-        <v>9033.638398951818</v>
+        <v>197.8060869409091</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1640,10 +1640,10 @@
         <v>4417.916156005454</v>
       </c>
       <c r="T18">
-        <v>8237.073343</v>
+        <v>44.719567</v>
       </c>
       <c r="U18">
-        <v>9033.638398951818</v>
+        <v>197.8060869409091</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1705,10 +1705,10 @@
         <v>4417.916156005454</v>
       </c>
       <c r="T19">
-        <v>8016.51639449</v>
+        <v>-217.82092465</v>
       </c>
       <c r="U19">
-        <v>9033.638398951818</v>
+        <v>197.8060869409091</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1770,10 +1770,10 @@
         <v>4417.916156005454</v>
       </c>
       <c r="T20">
-        <v>9500.194216129999</v>
+        <v>-891.76621721</v>
       </c>
       <c r="U20">
-        <v>9033.638398951818</v>
+        <v>197.8060869409091</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1835,10 +1835,10 @@
         <v>4417.916156005454</v>
       </c>
       <c r="T21">
-        <v>8445.590784850001</v>
+        <v>449.71589261</v>
       </c>
       <c r="U21">
-        <v>9033.638398951818</v>
+        <v>197.8060869409091</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -1900,10 +1900,10 @@
         <v>4417.916156005454</v>
       </c>
       <c r="T22">
-        <v>7569.21046097</v>
+        <v>1186.76200589</v>
       </c>
       <c r="U22">
-        <v>9033.638398951818</v>
+        <v>197.8060869409091</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -1965,10 +1965,10 @@
         <v>4417.916156005454</v>
       </c>
       <c r="T23">
-        <v>8487.675589029999</v>
+        <v>1062.32240071</v>
       </c>
       <c r="U23">
-        <v>9033.638398951818</v>
+        <v>197.8060869409091</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2030,10 +2030,10 @@
         <v>5026.986619191818</v>
       </c>
       <c r="T24">
-        <v>11739.679625</v>
+        <v>456.524457</v>
       </c>
       <c r="U24">
-        <v>10244.64484361273</v>
+        <v>190.6716052290909</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2095,10 +2095,10 @@
         <v>5026.986619191818</v>
       </c>
       <c r="T25">
-        <v>11346.462122</v>
+        <v>1053.469376</v>
       </c>
       <c r="U25">
-        <v>10244.64484361273</v>
+        <v>190.6716052290909</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -2160,10 +2160,10 @@
         <v>5026.986619191818</v>
       </c>
       <c r="T26">
-        <v>11779.110597</v>
+        <v>540.779253</v>
       </c>
       <c r="U26">
-        <v>10244.64484361273</v>
+        <v>190.6716052290909</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -2225,10 +2225,10 @@
         <v>5026.986619191818</v>
       </c>
       <c r="T27">
-        <v>10302.830162</v>
+        <v>-476.926572</v>
       </c>
       <c r="U27">
-        <v>10244.64484361273</v>
+        <v>190.6716052290909</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -2290,10 +2290,10 @@
         <v>5026.986619191818</v>
       </c>
       <c r="T28">
-        <v>9440.263077</v>
+        <v>-677.352243</v>
       </c>
       <c r="U28">
-        <v>10244.64484361273</v>
+        <v>190.6716052290909</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -2355,10 +2355,10 @@
         <v>5026.986619191818</v>
       </c>
       <c r="T29">
-        <v>8977.166373</v>
+        <v>-135.477555</v>
       </c>
       <c r="U29">
-        <v>10244.64484361273</v>
+        <v>190.6716052290909</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -2420,10 +2420,10 @@
         <v>5026.986619191818</v>
       </c>
       <c r="T30">
-        <v>10039.65441606</v>
+        <v>-910.31219326</v>
       </c>
       <c r="U30">
-        <v>10244.64484361273</v>
+        <v>190.6716052290909</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -2485,10 +2485,10 @@
         <v>5026.986619191818</v>
       </c>
       <c r="T31">
-        <v>11395.61447384</v>
+        <v>-562.2848089600001</v>
       </c>
       <c r="U31">
-        <v>10244.64484361273</v>
+        <v>190.6716052290909</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -2550,10 +2550,10 @@
         <v>5026.986619191818</v>
       </c>
       <c r="T32">
-        <v>9093.28474347</v>
+        <v>1180.65928273</v>
       </c>
       <c r="U32">
-        <v>10244.64484361273</v>
+        <v>190.6716052290909</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -2615,10 +2615,10 @@
         <v>5026.986619191818</v>
       </c>
       <c r="T33">
-        <v>7536.85732592</v>
+        <v>1228.48143192</v>
       </c>
       <c r="U33">
-        <v>10244.64484361273</v>
+        <v>190.6716052290909</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -2680,10 +2680,10 @@
         <v>5026.986619191818</v>
       </c>
       <c r="T34">
-        <v>11040.17036445</v>
+        <v>399.8272290899999</v>
       </c>
       <c r="U34">
-        <v>10244.64484361273</v>
+        <v>190.6716052290909</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -2745,10 +2745,10 @@
         <v>4938.730177490909</v>
       </c>
       <c r="T35">
-        <v>12575.753152</v>
+        <v>1509.978876</v>
       </c>
       <c r="U35">
-        <v>10660.45371784</v>
+        <v>782.9933628581817</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -2810,10 +2810,10 @@
         <v>4938.730177490909</v>
       </c>
       <c r="T36">
-        <v>11484.751018</v>
+        <v>1945.149404</v>
       </c>
       <c r="U36">
-        <v>10660.45371784</v>
+        <v>782.9933628581817</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -2875,10 +2875,10 @@
         <v>4938.730177490909</v>
       </c>
       <c r="T37">
-        <v>13088.82901</v>
+        <v>701.94122</v>
       </c>
       <c r="U37">
-        <v>10660.45371784</v>
+        <v>782.9933628581817</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -2940,10 +2940,10 @@
         <v>4938.730177490909</v>
       </c>
       <c r="T38">
-        <v>12134.643422</v>
+        <v>822.39112</v>
       </c>
       <c r="U38">
-        <v>10660.45371784</v>
+        <v>782.9933628581817</v>
       </c>
     </row>
     <row r="39" spans="1:21">
@@ -3005,10 +3005,10 @@
         <v>4938.730177490909</v>
       </c>
       <c r="T39">
-        <v>10088.202538</v>
+        <v>222.33081</v>
       </c>
       <c r="U39">
-        <v>10660.45371784</v>
+        <v>782.9933628581817</v>
       </c>
     </row>
     <row r="40" spans="1:21">
@@ -3070,10 +3070,10 @@
         <v>4938.730177490909</v>
       </c>
       <c r="T40">
-        <v>9162.19491</v>
+        <v>316.909954</v>
       </c>
       <c r="U40">
-        <v>10660.45371784</v>
+        <v>782.9933628581817</v>
       </c>
     </row>
     <row r="41" spans="1:21">
@@ -3135,10 +3135,10 @@
         <v>4938.730177490909</v>
       </c>
       <c r="T41">
-        <v>9839.73226805</v>
+        <v>-106.47264349</v>
       </c>
       <c r="U41">
-        <v>10660.45371784</v>
+        <v>782.9933628581817</v>
       </c>
     </row>
     <row r="42" spans="1:21">
@@ -3200,10 +3200,10 @@
         <v>4938.730177490909</v>
       </c>
       <c r="T42">
-        <v>11321.91600667</v>
+        <v>-889.25412339</v>
       </c>
       <c r="U42">
-        <v>10660.45371784</v>
+        <v>782.9933628581817</v>
       </c>
     </row>
     <row r="43" spans="1:21">
@@ -3265,10 +3265,10 @@
         <v>4938.730177490909</v>
       </c>
       <c r="T43">
-        <v>9509.45708115</v>
+        <v>1164.89381463</v>
       </c>
       <c r="U43">
-        <v>10660.45371784</v>
+        <v>782.9933628581817</v>
       </c>
     </row>
     <row r="44" spans="1:21">
@@ -3330,10 +3330,10 @@
         <v>4938.730177490909</v>
       </c>
       <c r="T44">
-        <v>7243.70565972</v>
+        <v>1454.86699044</v>
       </c>
       <c r="U44">
-        <v>10660.45371784</v>
+        <v>782.9933628581817</v>
       </c>
     </row>
     <row r="45" spans="1:21">
@@ -3395,10 +3395,10 @@
         <v>4938.730177490909</v>
       </c>
       <c r="T45">
-        <v>10815.80583065</v>
+        <v>1470.19156925</v>
       </c>
       <c r="U45">
-        <v>10660.45371784</v>
+        <v>782.9933628581817</v>
       </c>
     </row>
     <row r="46" spans="1:21">
@@ -3460,10 +3460,10 @@
         <v>5511.125900494546</v>
       </c>
       <c r="T46">
-        <v>14422.691015</v>
+        <v>1443.051581</v>
       </c>
       <c r="U46">
-        <v>11853.37480181</v>
+        <v>831.1230008209092</v>
       </c>
     </row>
     <row r="47" spans="1:21">
@@ -3525,10 +3525,10 @@
         <v>5511.125900494546</v>
       </c>
       <c r="T47">
-        <v>13067.90971</v>
+        <v>1093.734298</v>
       </c>
       <c r="U47">
-        <v>11853.37480181</v>
+        <v>831.1230008209092</v>
       </c>
     </row>
     <row r="48" spans="1:21">
@@ -3590,10 +3590,10 @@
         <v>5511.125900494546</v>
       </c>
       <c r="T48">
-        <v>15421.314263</v>
+        <v>1365.164707</v>
       </c>
       <c r="U48">
-        <v>11853.37480181</v>
+        <v>831.1230008209092</v>
       </c>
     </row>
     <row r="49" spans="1:21">
@@ -3655,10 +3655,10 @@
         <v>5511.125900494546</v>
       </c>
       <c r="T49">
-        <v>12955.418161</v>
+        <v>1401.606939</v>
       </c>
       <c r="U49">
-        <v>11853.37480181</v>
+        <v>831.1230008209092</v>
       </c>
     </row>
     <row r="50" spans="1:21">
@@ -3720,10 +3720,10 @@
         <v>5511.125900494546</v>
       </c>
       <c r="T50">
-        <v>10208.389334</v>
+        <v>202.609028</v>
       </c>
       <c r="U50">
-        <v>11853.37480181</v>
+        <v>831.1230008209092</v>
       </c>
     </row>
     <row r="51" spans="1:21">
@@ -3785,10 +3785,10 @@
         <v>5511.125900494546</v>
       </c>
       <c r="T51">
-        <v>10256.993675</v>
+        <v>509.859325</v>
       </c>
       <c r="U51">
-        <v>11853.37480181</v>
+        <v>831.1230008209092</v>
       </c>
     </row>
     <row r="52" spans="1:21">
@@ -3850,10 +3850,10 @@
         <v>5511.125900494546</v>
       </c>
       <c r="T52">
-        <v>11557.50222713</v>
+        <v>-571.1389577699999</v>
       </c>
       <c r="U52">
-        <v>11853.37480181</v>
+        <v>831.1230008209092</v>
       </c>
     </row>
     <row r="53" spans="1:21">
@@ -3915,10 +3915,10 @@
         <v>5511.125900494546</v>
       </c>
       <c r="T53">
-        <v>11611.05576323</v>
+        <v>-1284.94533607</v>
       </c>
       <c r="U53">
-        <v>11853.37480181</v>
+        <v>831.1230008209092</v>
       </c>
     </row>
     <row r="54" spans="1:21">
@@ -3980,10 +3980,10 @@
         <v>5511.125900494546</v>
       </c>
       <c r="T54">
-        <v>10688.47862992</v>
+        <v>1398.90118706</v>
       </c>
       <c r="U54">
-        <v>11853.37480181</v>
+        <v>831.1230008209092</v>
       </c>
     </row>
     <row r="55" spans="1:21">
@@ -4045,10 +4045,10 @@
         <v>5511.125900494546</v>
       </c>
       <c r="T55">
-        <v>8243.677177080001</v>
+        <v>1911.82067988</v>
       </c>
       <c r="U55">
-        <v>11853.37480181</v>
+        <v>831.1230008209092</v>
       </c>
     </row>
     <row r="56" spans="1:21">
@@ -4110,10 +4110,10 @@
         <v>5511.125900494546</v>
       </c>
       <c r="T56">
-        <v>11953.69286455</v>
+        <v>1671.68955793</v>
       </c>
       <c r="U56">
-        <v>11853.37480181</v>
+        <v>831.1230008209092</v>
       </c>
     </row>
     <row r="57" spans="1:21">
@@ -4175,10 +4175,10 @@
         <v>5520.058835477273</v>
       </c>
       <c r="T57">
-        <v>14521.504263</v>
+        <v>1112.434651</v>
       </c>
       <c r="U57">
-        <v>11702.28440521818</v>
+        <v>662.1667342636364</v>
       </c>
     </row>
     <row r="58" spans="1:21">
@@ -4240,10 +4240,10 @@
         <v>5520.058835477273</v>
       </c>
       <c r="T58">
-        <v>12855.656127</v>
+        <v>788.673489</v>
       </c>
       <c r="U58">
-        <v>11702.28440521818</v>
+        <v>662.1667342636364</v>
       </c>
     </row>
     <row r="59" spans="1:21">
@@ -4305,10 +4305,10 @@
         <v>5520.058835477273</v>
       </c>
       <c r="T59">
-        <v>14126.179833</v>
+        <v>840.595273</v>
       </c>
       <c r="U59">
-        <v>11702.28440521818</v>
+        <v>662.1667342636364</v>
       </c>
     </row>
     <row r="60" spans="1:21">
@@ -4370,10 +4370,10 @@
         <v>5520.058835477273</v>
       </c>
       <c r="T60">
-        <v>13051.47131</v>
+        <v>1355.931494</v>
       </c>
       <c r="U60">
-        <v>11702.28440521818</v>
+        <v>662.1667342636364</v>
       </c>
     </row>
     <row r="61" spans="1:21">
@@ -4435,10 +4435,10 @@
         <v>5520.058835477273</v>
       </c>
       <c r="T61">
-        <v>11753.520875</v>
+        <v>339.416761</v>
       </c>
       <c r="U61">
-        <v>11702.28440521818</v>
+        <v>662.1667342636364</v>
       </c>
     </row>
     <row r="62" spans="1:21">
@@ -4500,10 +4500,10 @@
         <v>5520.058835477273</v>
       </c>
       <c r="T62">
-        <v>10351.289939</v>
+        <v>258.571999</v>
       </c>
       <c r="U62">
-        <v>11702.28440521818</v>
+        <v>662.1667342636364</v>
       </c>
     </row>
     <row r="63" spans="1:21">
@@ -4565,10 +4565,10 @@
         <v>5520.058835477273</v>
       </c>
       <c r="T63">
-        <v>11056.63501634</v>
+        <v>-739.66141304</v>
       </c>
       <c r="U63">
-        <v>11702.28440521818</v>
+        <v>662.1667342636364</v>
       </c>
     </row>
     <row r="64" spans="1:21">
@@ -4630,10 +4630,10 @@
         <v>5520.058835477273</v>
       </c>
       <c r="T64">
-        <v>10594.44543924</v>
+        <v>-327.59327862</v>
       </c>
       <c r="U64">
-        <v>11702.28440521818</v>
+        <v>662.1667342636364</v>
       </c>
     </row>
     <row r="65" spans="1:21">
@@ -4695,10 +4695,10 @@
         <v>5520.058835477273</v>
       </c>
       <c r="T65">
-        <v>9410.536738569999</v>
+        <v>1067.75312755</v>
       </c>
       <c r="U65">
-        <v>11702.28440521818</v>
+        <v>662.1667342636364</v>
       </c>
     </row>
     <row r="66" spans="1:21">
@@ -4760,10 +4760,10 @@
         <v>5520.058835477273</v>
       </c>
       <c r="T66">
-        <v>8085.253705810001</v>
+        <v>1486.63970807</v>
       </c>
       <c r="U66">
-        <v>11702.28440521818</v>
+        <v>662.1667342636364</v>
       </c>
     </row>
     <row r="67" spans="1:21">
@@ -4825,10 +4825,10 @@
         <v>5520.058835477273</v>
       </c>
       <c r="T67">
-        <v>12918.63521044</v>
+        <v>1101.07226594</v>
       </c>
       <c r="U67">
-        <v>11702.28440521818</v>
+        <v>662.1667342636364</v>
       </c>
     </row>
     <row r="68" spans="1:21">
@@ -4890,10 +4890,10 @@
         <v>5741.041278345455</v>
       </c>
       <c r="T68">
-        <v>14084.127172</v>
+        <v>367.068636</v>
       </c>
       <c r="U68">
-        <v>11882.52766401</v>
+        <v>400.4451073190909</v>
       </c>
     </row>
     <row r="69" spans="1:21">
@@ -4955,10 +4955,10 @@
         <v>5741.041278345455</v>
       </c>
       <c r="T69">
-        <v>13999.972101</v>
+        <v>1310.245357</v>
       </c>
       <c r="U69">
-        <v>11882.52766401</v>
+        <v>400.4451073190909</v>
       </c>
     </row>
     <row r="70" spans="1:21">
@@ -5020,10 +5020,10 @@
         <v>5741.041278345455</v>
       </c>
       <c r="T70">
-        <v>13918.792099</v>
+        <v>-57.489841</v>
       </c>
       <c r="U70">
-        <v>11882.52766401</v>
+        <v>400.4451073190909</v>
       </c>
     </row>
     <row r="71" spans="1:21">
@@ -5085,10 +5085,10 @@
         <v>5741.041278345455</v>
       </c>
       <c r="T71">
-        <v>12561.980209</v>
+        <v>271.836663</v>
       </c>
       <c r="U71">
-        <v>11882.52766401</v>
+        <v>400.4451073190909</v>
       </c>
     </row>
     <row r="72" spans="1:21">
@@ -5150,10 +5150,10 @@
         <v>5741.041278345455</v>
       </c>
       <c r="T72">
-        <v>11369.451414</v>
+        <v>-231.674068</v>
       </c>
       <c r="U72">
-        <v>11882.52766401</v>
+        <v>400.4451073190909</v>
       </c>
     </row>
     <row r="73" spans="1:21">
@@ -5215,10 +5215,10 @@
         <v>5741.041278345455</v>
       </c>
       <c r="T73">
-        <v>9719.225692</v>
+        <v>283.97967</v>
       </c>
       <c r="U73">
-        <v>11882.52766401</v>
+        <v>400.4451073190909</v>
       </c>
     </row>
     <row r="74" spans="1:21">
@@ -5280,10 +5280,10 @@
         <v>5741.041278345455</v>
       </c>
       <c r="T74">
-        <v>11346.81979467</v>
+        <v>-738.65249357</v>
       </c>
       <c r="U74">
-        <v>11882.52766401</v>
+        <v>400.4451073190909</v>
       </c>
     </row>
     <row r="75" spans="1:21">
@@ -5345,10 +5345,10 @@
         <v>5741.041278345455</v>
       </c>
       <c r="T75">
-        <v>11597.2320744</v>
+        <v>-767.56997356</v>
       </c>
       <c r="U75">
-        <v>11882.52766401</v>
+        <v>400.4451073190909</v>
       </c>
     </row>
     <row r="76" spans="1:21">
@@ -5410,10 +5410,10 @@
         <v>5741.041278345455</v>
       </c>
       <c r="T76">
-        <v>10761.01430881</v>
+        <v>950.41862725</v>
       </c>
       <c r="U76">
-        <v>11882.52766401</v>
+        <v>400.4451073190909</v>
       </c>
     </row>
     <row r="77" spans="1:21">
@@ -5475,10 +5475,10 @@
         <v>5741.041278345455</v>
       </c>
       <c r="T77">
-        <v>8381.84412836</v>
+        <v>1480.2650479</v>
       </c>
       <c r="U77">
-        <v>11882.52766401</v>
+        <v>400.4451073190909</v>
       </c>
     </row>
     <row r="78" spans="1:21">
@@ -5540,10 +5540,10 @@
         <v>5741.041278345455</v>
       </c>
       <c r="T78">
-        <v>12967.34531087</v>
+        <v>1536.46855549</v>
       </c>
       <c r="U78">
-        <v>11882.52766401</v>
+        <v>400.4451073190909</v>
       </c>
     </row>
     <row r="79" spans="1:21">
@@ -5605,10 +5605,10 @@
         <v>5794.301558027273</v>
       </c>
       <c r="T79">
-        <v>15999.498435</v>
+        <v>657.410995</v>
       </c>
       <c r="U79">
-        <v>12102.86625686727</v>
+        <v>514.2631408127273</v>
       </c>
     </row>
     <row r="80" spans="1:21">
@@ -5670,10 +5670,10 @@
         <v>5794.301558027273</v>
       </c>
       <c r="T80">
-        <v>13727.515192</v>
+        <v>1174.678624</v>
       </c>
       <c r="U80">
-        <v>12102.86625686727</v>
+        <v>514.2631408127273</v>
       </c>
     </row>
     <row r="81" spans="1:21">
@@ -5735,10 +5735,10 @@
         <v>5794.301558027273</v>
       </c>
       <c r="T81">
-        <v>14273.415172</v>
+        <v>125.647118</v>
       </c>
       <c r="U81">
-        <v>12102.86625686727</v>
+        <v>514.2631408127273</v>
       </c>
     </row>
     <row r="82" spans="1:21">
@@ -5800,10 +5800,10 @@
         <v>5794.301558027273</v>
       </c>
       <c r="T82">
-        <v>12064.324689</v>
+        <v>775.575831</v>
       </c>
       <c r="U82">
-        <v>12102.86625686727</v>
+        <v>514.2631408127273</v>
       </c>
     </row>
     <row r="83" spans="1:21">
@@ -5865,10 +5865,10 @@
         <v>5794.301558027273</v>
       </c>
       <c r="T83">
-        <v>10740.652527</v>
+        <v>-469.213959</v>
       </c>
       <c r="U83">
-        <v>12102.86625686727</v>
+        <v>514.2631408127273</v>
       </c>
     </row>
     <row r="84" spans="1:21">
@@ -5930,10 +5930,10 @@
         <v>5794.301558027273</v>
       </c>
       <c r="T84">
-        <v>10937.443018</v>
+        <v>590.0863880000001</v>
       </c>
       <c r="U84">
-        <v>12102.86625686727</v>
+        <v>514.2631408127273</v>
       </c>
     </row>
     <row r="85" spans="1:21">
@@ -5995,10 +5995,10 @@
         <v>5794.301558027273</v>
       </c>
       <c r="T85">
-        <v>11589.10915705</v>
+        <v>-1044.35476557</v>
       </c>
       <c r="U85">
-        <v>12102.86625686727</v>
+        <v>514.2631408127273</v>
       </c>
     </row>
     <row r="86" spans="1:21">
@@ -6060,10 +6060,10 @@
         <v>5794.301558027273</v>
       </c>
       <c r="T86">
-        <v>11516.11117799</v>
+        <v>-1112.49082807</v>
       </c>
       <c r="U86">
-        <v>12102.86625686727</v>
+        <v>514.2631408127273</v>
       </c>
     </row>
     <row r="87" spans="1:21">
@@ -6125,10 +6125,10 @@
         <v>5794.301558027273</v>
       </c>
       <c r="T87">
-        <v>9968.129817120001</v>
+        <v>1167.9414548</v>
       </c>
       <c r="U87">
-        <v>12102.86625686727</v>
+        <v>514.2631408127273</v>
       </c>
     </row>
     <row r="88" spans="1:21">
@@ -6190,10 +6190,10 @@
         <v>5794.301558027273</v>
       </c>
       <c r="T88">
-        <v>8462.829420030001</v>
+        <v>1446.40144717</v>
       </c>
       <c r="U88">
-        <v>12102.86625686727</v>
+        <v>514.2631408127273</v>
       </c>
     </row>
     <row r="89" spans="1:21">
@@ -6255,10 +6255,10 @@
         <v>5794.301558027273</v>
       </c>
       <c r="T89">
-        <v>13852.50022035</v>
+        <v>2345.21224361</v>
       </c>
       <c r="U89">
-        <v>12102.86625686727</v>
+        <v>514.2631408127273</v>
       </c>
     </row>
     <row r="90" spans="1:21">
@@ -6320,10 +6320,10 @@
         <v>5393.591845370909</v>
       </c>
       <c r="T90">
-        <v>14606.688451</v>
+        <v>829.693903</v>
       </c>
       <c r="U90">
-        <v>11330.92436248636</v>
+        <v>543.7406717445455</v>
       </c>
     </row>
     <row r="91" spans="1:21">
@@ -6385,10 +6385,10 @@
         <v>5393.591845370909</v>
       </c>
       <c r="T91">
-        <v>12657.735242</v>
+        <v>948.508268</v>
       </c>
       <c r="U91">
-        <v>11330.92436248636</v>
+        <v>543.7406717445455</v>
       </c>
     </row>
     <row r="92" spans="1:21">
@@ -6450,10 +6450,10 @@
         <v>5393.591845370909</v>
       </c>
       <c r="T92">
-        <v>12573.719763</v>
+        <v>515.883809</v>
       </c>
       <c r="U92">
-        <v>11330.92436248636</v>
+        <v>543.7406717445455</v>
       </c>
     </row>
     <row r="93" spans="1:21">
@@ -6515,10 +6515,10 @@
         <v>5393.591845370909</v>
       </c>
       <c r="T93">
-        <v>11329.301244</v>
+        <v>41.152776</v>
       </c>
       <c r="U93">
-        <v>11330.92436248636</v>
+        <v>543.7406717445455</v>
       </c>
     </row>
     <row r="94" spans="1:21">
@@ -6580,10 +6580,10 @@
         <v>5393.591845370909</v>
       </c>
       <c r="T94">
-        <v>10649.072014</v>
+        <v>-325.077078</v>
       </c>
       <c r="U94">
-        <v>11330.92436248636</v>
+        <v>543.7406717445455</v>
       </c>
     </row>
     <row r="95" spans="1:21">
@@ -6645,10 +6645,10 @@
         <v>5393.591845370909</v>
       </c>
       <c r="T95">
-        <v>9790.958619999999</v>
+        <v>308.133574</v>
       </c>
       <c r="U95">
-        <v>11330.92436248636</v>
+        <v>543.7406717445455</v>
       </c>
     </row>
     <row r="96" spans="1:21">
@@ -6710,10 +6710,10 @@
         <v>5393.591845370909</v>
       </c>
       <c r="T96">
-        <v>11236.58452193</v>
+        <v>-700.1108071900001</v>
       </c>
       <c r="U96">
-        <v>11330.92436248636</v>
+        <v>543.7406717445455</v>
       </c>
     </row>
     <row r="97" spans="1:21">
@@ -6775,10 +6775,10 @@
         <v>5393.591845370909</v>
       </c>
       <c r="T97">
-        <v>9736.763026299999</v>
+        <v>336.85376734</v>
       </c>
       <c r="U97">
-        <v>11330.92436248636</v>
+        <v>543.7406717445455</v>
       </c>
     </row>
     <row r="98" spans="1:21">
@@ -6840,10 +6840,10 @@
         <v>5393.591845370909</v>
       </c>
       <c r="T98">
-        <v>9747.97882041</v>
+        <v>1744.09521031</v>
       </c>
       <c r="U98">
-        <v>11330.92436248636</v>
+        <v>543.7406717445455</v>
       </c>
     </row>
     <row r="99" spans="1:21">
@@ -6905,10 +6905,10 @@
         <v>5393.591845370909</v>
       </c>
       <c r="T99">
-        <v>8855.494942860001</v>
+        <v>597.5067277000001</v>
       </c>
       <c r="U99">
-        <v>11330.92436248636</v>
+        <v>543.7406717445455</v>
       </c>
     </row>
     <row r="100" spans="1:21">
@@ -6970,10 +6970,10 @@
         <v>5393.591845370909</v>
       </c>
       <c r="T100">
-        <v>13455.87134185</v>
+        <v>1684.50723903</v>
       </c>
       <c r="U100">
-        <v>11330.92436248636</v>
+        <v>543.7406717445455</v>
       </c>
     </row>
     <row r="101" spans="1:21">
@@ -7035,10 +7035,10 @@
         <v>5398.313126614546</v>
       </c>
       <c r="T101">
-        <v>13738.411494</v>
+        <v>1132.411662</v>
       </c>
       <c r="U101">
-        <v>11218.28270152546</v>
+        <v>421.6564482963637</v>
       </c>
     </row>
     <row r="102" spans="1:21">
@@ -7100,10 +7100,10 @@
         <v>5398.313126614546</v>
       </c>
       <c r="T102">
-        <v>13145.80064</v>
+        <v>632.6058860000001</v>
       </c>
       <c r="U102">
-        <v>11218.28270152546</v>
+        <v>421.6564482963637</v>
       </c>
     </row>
     <row r="103" spans="1:21">
@@ -7165,10 +7165,10 @@
         <v>5398.313126614546</v>
       </c>
       <c r="T103">
-        <v>12857.914525</v>
+        <v>-803.9730510000001</v>
       </c>
       <c r="U103">
-        <v>11218.28270152546</v>
+        <v>421.6564482963637</v>
       </c>
     </row>
     <row r="104" spans="1:21">
@@ -7230,10 +7230,10 @@
         <v>5398.313126614546</v>
       </c>
       <c r="T104">
-        <v>11288.297856</v>
+        <v>299.766384</v>
       </c>
       <c r="U104">
-        <v>11218.28270152546</v>
+        <v>421.6564482963637</v>
       </c>
     </row>
     <row r="105" spans="1:21">
@@ -7295,10 +7295,10 @@
         <v>5398.313126614546</v>
       </c>
       <c r="T105">
-        <v>10090.939058</v>
+        <v>-25.034368</v>
       </c>
       <c r="U105">
-        <v>11218.28270152546</v>
+        <v>421.6564482963637</v>
       </c>
     </row>
     <row r="106" spans="1:21">
@@ -7360,10 +7360,10 @@
         <v>5398.313126614546</v>
       </c>
       <c r="T106">
-        <v>9519.668879999999</v>
+        <v>-46.210702</v>
       </c>
       <c r="U106">
-        <v>11218.28270152546</v>
+        <v>421.6564482963637</v>
       </c>
     </row>
     <row r="107" spans="1:21">
@@ -7425,10 +7425,10 @@
         <v>5398.313126614546</v>
       </c>
       <c r="T107">
-        <v>11489.66733358</v>
+        <v>-928.60080272</v>
       </c>
       <c r="U107">
-        <v>11218.28270152546</v>
+        <v>421.6564482963637</v>
       </c>
     </row>
     <row r="108" spans="1:21">
@@ -7490,10 +7490,10 @@
         <v>5398.313126614546</v>
       </c>
       <c r="T108">
-        <v>10471.59927549</v>
+        <v>324.65191189</v>
       </c>
       <c r="U108">
-        <v>11218.28270152546</v>
+        <v>421.6564482963637</v>
       </c>
     </row>
     <row r="109" spans="1:21">
@@ -7555,10 +7555,10 @@
         <v>5398.313126614546</v>
       </c>
       <c r="T109">
-        <v>10010.52303408</v>
+        <v>1767.66255324</v>
       </c>
       <c r="U109">
-        <v>11218.28270152546</v>
+        <v>421.6564482963637</v>
       </c>
     </row>
     <row r="110" spans="1:21">
@@ -7620,10 +7620,10 @@
         <v>5398.313126614546</v>
       </c>
       <c r="T110">
-        <v>8678.4853871</v>
+        <v>669.60349684</v>
       </c>
       <c r="U110">
-        <v>11218.28270152546</v>
+        <v>421.6564482963637</v>
       </c>
     </row>
     <row r="111" spans="1:21">
@@ -7685,10 +7685,10 @@
         <v>5398.313126614546</v>
       </c>
       <c r="T111">
-        <v>12109.80223353</v>
+        <v>1615.33796101</v>
       </c>
       <c r="U111">
-        <v>11218.28270152546</v>
+        <v>421.6564482963637</v>
       </c>
     </row>
     <row r="112" spans="1:21">
@@ -7741,19 +7741,19 @@
         <v>6493.159464</v>
       </c>
       <c r="Q112">
-        <v>5321.098394290909</v>
+        <v>5323.552942100909</v>
       </c>
       <c r="R112">
         <v>6229.740888</v>
       </c>
       <c r="S112">
-        <v>5090.122174681818</v>
+        <v>5089.209807263636</v>
       </c>
       <c r="T112">
-        <v>12722.900352</v>
+        <v>263.418576</v>
       </c>
       <c r="U112">
-        <v>10411.22056897273</v>
+        <v>1281.070407564545</v>
       </c>
     </row>
     <row r="113" spans="1:21">
@@ -7806,19 +7806,19 @@
         <v>6649.420587</v>
       </c>
       <c r="Q113">
-        <v>5321.098394290909</v>
+        <v>5323.552942100909</v>
       </c>
       <c r="R113">
         <v>5779.456393</v>
       </c>
       <c r="S113">
-        <v>5090.122174681818</v>
+        <v>5089.209807263636</v>
       </c>
       <c r="T113">
-        <v>12428.87698</v>
+        <v>869.964194</v>
       </c>
       <c r="U113">
-        <v>10411.22056897273</v>
+        <v>1281.070407564545</v>
       </c>
     </row>
     <row r="114" spans="1:21">
@@ -7871,19 +7871,19 @@
         <v>5089.55788</v>
       </c>
       <c r="Q114">
-        <v>5321.098394290909</v>
+        <v>5323.552942100909</v>
       </c>
       <c r="R114">
         <v>6091.632138</v>
       </c>
       <c r="S114">
-        <v>5090.122174681818</v>
+        <v>5089.209807263636</v>
       </c>
       <c r="T114">
-        <v>11181.190018</v>
+        <v>-1002.074258</v>
       </c>
       <c r="U114">
-        <v>10411.22056897273</v>
+        <v>1281.070407564545</v>
       </c>
     </row>
     <row r="115" spans="1:21">
@@ -7936,19 +7936,19 @@
         <v>4889.18343</v>
       </c>
       <c r="Q115">
-        <v>5321.098394290909</v>
+        <v>5323.552942100909</v>
       </c>
       <c r="R115">
         <v>4650.975015</v>
       </c>
       <c r="S115">
-        <v>5090.122174681818</v>
+        <v>5089.209807263636</v>
       </c>
       <c r="T115">
-        <v>9540.158444999999</v>
+        <v>238.208415</v>
       </c>
       <c r="U115">
-        <v>10411.22056897273</v>
+        <v>1281.070407564545</v>
       </c>
     </row>
     <row r="116" spans="1:21">
@@ -8001,19 +8001,19 @@
         <v>3998.624197</v>
       </c>
       <c r="Q116">
-        <v>5321.098394290909</v>
+        <v>5323.552942100909</v>
       </c>
       <c r="R116">
         <v>4699.552101</v>
       </c>
       <c r="S116">
-        <v>5090.122174681818</v>
+        <v>5089.209807263636</v>
       </c>
       <c r="T116">
-        <v>8698.176298</v>
+        <v>-700.927904</v>
       </c>
       <c r="U116">
-        <v>10411.22056897273</v>
+        <v>1281.070407564545</v>
       </c>
     </row>
     <row r="117" spans="1:21">
@@ -8066,19 +8066,19 @@
         <v>4837.415762</v>
       </c>
       <c r="Q117">
-        <v>5321.098394290909</v>
+        <v>5323.552942100909</v>
       </c>
       <c r="R117">
         <v>4723.135796</v>
       </c>
       <c r="S117">
-        <v>5090.122174681818</v>
+        <v>5089.209807263636</v>
       </c>
       <c r="T117">
-        <v>9560.551557999999</v>
+        <v>114.279966</v>
       </c>
       <c r="U117">
-        <v>10411.22056897273</v>
+        <v>1281.070407564545</v>
       </c>
     </row>
     <row r="118" spans="1:21">
@@ -8131,19 +8131,19 @@
         <v>4668.00952733</v>
       </c>
       <c r="Q118">
-        <v>5321.098394290909</v>
+        <v>5323.552942100909</v>
       </c>
       <c r="R118">
         <v>6163.364678630001</v>
       </c>
       <c r="S118">
-        <v>5090.122174681818</v>
+        <v>5089.209807263636</v>
       </c>
       <c r="T118">
-        <v>10831.37420596</v>
+        <v>-1495.3551513</v>
       </c>
       <c r="U118">
-        <v>10411.22056897273</v>
+        <v>1281.070407564545</v>
       </c>
     </row>
     <row r="119" spans="1:21">
@@ -8196,19 +8196,19 @@
         <v>5349.607649340001</v>
       </c>
       <c r="Q119">
-        <v>5321.098394290909</v>
+        <v>5323.552942100909</v>
       </c>
       <c r="R119">
         <v>4363.012179560001</v>
       </c>
       <c r="S119">
-        <v>5090.122174681818</v>
+        <v>5089.209807263636</v>
       </c>
       <c r="T119">
-        <v>9712.6198289</v>
+        <v>986.5954697799999</v>
       </c>
       <c r="U119">
-        <v>10411.22056897273</v>
+        <v>1281.070407564545</v>
       </c>
     </row>
     <row r="120" spans="1:21">
@@ -8261,19 +8261,19 @@
         <v>5892.6712105</v>
       </c>
       <c r="Q120">
-        <v>5321.098394290909</v>
+        <v>5323.552942100909</v>
       </c>
       <c r="R120">
         <v>3408.68218244</v>
       </c>
       <c r="S120">
-        <v>5090.122174681818</v>
+        <v>5089.209807263636</v>
       </c>
       <c r="T120">
-        <v>9301.35339294</v>
+        <v>2483.98902806</v>
       </c>
       <c r="U120">
-        <v>10411.22056897273</v>
+        <v>1281.070407564545</v>
       </c>
     </row>
     <row r="121" spans="1:21">
@@ -8326,19 +8326,19 @@
         <v>4500.43265594</v>
       </c>
       <c r="Q121">
-        <v>5321.098394290909</v>
+        <v>5323.552942100909</v>
       </c>
       <c r="R121">
         <v>4114.75650827</v>
       </c>
       <c r="S121">
-        <v>5090.122174681818</v>
+        <v>5089.209807263636</v>
       </c>
       <c r="T121">
-        <v>8615.18916421</v>
+        <v>385.67614767</v>
       </c>
       <c r="U121">
-        <v>10411.22056897273</v>
+        <v>1281.070407564545</v>
       </c>
     </row>
     <row r="122" spans="1:21">
@@ -8388,22 +8388,22 @@
         <v>220.5339300775811</v>
       </c>
       <c r="P122">
-        <v>6163.99997409</v>
+        <v>6191</v>
       </c>
       <c r="Q122">
-        <v>5321.098394290909</v>
+        <v>5323.552942100909</v>
       </c>
       <c r="R122">
-        <v>5767.0360416</v>
+        <v>5757</v>
       </c>
       <c r="S122">
-        <v>5090.122174681818</v>
+        <v>5089.209807263636</v>
       </c>
       <c r="T122">
-        <v>11931.03601569</v>
+        <v>11948</v>
       </c>
       <c r="U122">
-        <v>10411.22056897273</v>
+        <v>1281.070407564545</v>
       </c>
     </row>
     <row r="123" spans="1:21">
@@ -8456,19 +8456,19 @@
         <v>6306.256318</v>
       </c>
       <c r="Q123">
-        <v>4898.377099109</v>
+        <v>5015.888271917273</v>
       </c>
       <c r="R123">
         <v>5987.389117</v>
       </c>
       <c r="S123">
-        <v>4645.848420576</v>
+        <v>4746.862200523637</v>
       </c>
       <c r="T123">
-        <v>12293.645435</v>
+        <v>318.867201</v>
       </c>
       <c r="U123">
-        <v>9544.225519685</v>
+        <v>1393.480616848182</v>
       </c>
     </row>
     <row r="124" spans="1:21">
@@ -8521,19 +8521,19 @@
         <v>6312.662723</v>
       </c>
       <c r="Q124">
-        <v>4898.377099109</v>
+        <v>5015.888271917273</v>
       </c>
       <c r="R124">
         <v>5436.515403</v>
       </c>
       <c r="S124">
-        <v>4645.848420576</v>
+        <v>4746.862200523637</v>
       </c>
       <c r="T124">
-        <v>11749.178126</v>
+        <v>876.14732</v>
       </c>
       <c r="U124">
-        <v>9544.225519685</v>
+        <v>1393.480616848182</v>
       </c>
     </row>
     <row r="125" spans="1:21">
@@ -8586,19 +8586,19 @@
         <v>4950.549545</v>
       </c>
       <c r="Q125">
-        <v>4898.377099109</v>
+        <v>5015.888271917273</v>
       </c>
       <c r="R125">
         <v>5411.689617</v>
       </c>
       <c r="S125">
-        <v>4645.848420576</v>
+        <v>4746.862200523637</v>
       </c>
       <c r="T125">
-        <v>10362.239162</v>
+        <v>-461.140072</v>
       </c>
       <c r="U125">
-        <v>9544.225519685</v>
+        <v>1393.480616848182</v>
       </c>
     </row>
     <row r="126" spans="1:21">
@@ -8651,19 +8651,19 @@
         <v>4502.277984</v>
       </c>
       <c r="Q126">
-        <v>4898.377099109</v>
+        <v>5015.888271917273</v>
       </c>
       <c r="R126">
         <v>4300.409404</v>
       </c>
       <c r="S126">
-        <v>4645.848420576</v>
+        <v>4746.862200523637</v>
       </c>
       <c r="T126">
-        <v>8802.687388</v>
+        <v>201.86858</v>
       </c>
       <c r="U126">
-        <v>9544.225519685</v>
+        <v>1393.480616848182</v>
       </c>
     </row>
     <row r="127" spans="1:21">
@@ -8716,19 +8716,19 @@
         <v>3429.332272</v>
       </c>
       <c r="Q127">
-        <v>4898.377099109</v>
+        <v>5015.888271917273</v>
       </c>
       <c r="R127">
         <v>4403.892992</v>
       </c>
       <c r="S127">
-        <v>4645.848420576</v>
+        <v>4746.862200523637</v>
       </c>
       <c r="T127">
-        <v>7833.225264</v>
+        <v>-974.5607199999999</v>
       </c>
       <c r="U127">
-        <v>9544.225519685</v>
+        <v>1393.480616848182</v>
       </c>
     </row>
     <row r="128" spans="1:21">
@@ -8781,19 +8781,19 @@
         <v>4649.443384</v>
       </c>
       <c r="Q128">
-        <v>4898.377099109</v>
+        <v>5015.888271917273</v>
       </c>
       <c r="R128">
         <v>4594.778166</v>
       </c>
       <c r="S128">
-        <v>4645.848420576</v>
+        <v>4746.862200523637</v>
       </c>
       <c r="T128">
-        <v>9244.22155</v>
+        <v>54.665218</v>
       </c>
       <c r="U128">
-        <v>9544.225519685</v>
+        <v>1393.480616848182</v>
       </c>
     </row>
     <row r="129" spans="1:21">
@@ -8846,19 +8846,19 @@
         <v>4578.420998699999</v>
       </c>
       <c r="Q129">
-        <v>4898.377099109</v>
+        <v>5015.888271917273</v>
       </c>
       <c r="R129">
         <v>5365.93059037</v>
       </c>
       <c r="S129">
-        <v>4645.848420576</v>
+        <v>4746.862200523637</v>
       </c>
       <c r="T129">
-        <v>9944.35158907</v>
+        <v>-787.50959167</v>
       </c>
       <c r="U129">
-        <v>9544.225519685</v>
+        <v>1393.480616848182</v>
       </c>
     </row>
     <row r="130" spans="1:21">
@@ -8911,19 +8911,19 @@
         <v>5336.41428693</v>
       </c>
       <c r="Q130">
-        <v>4898.377099109</v>
+        <v>5015.888271917273</v>
       </c>
       <c r="R130">
         <v>3916.87314604</v>
       </c>
       <c r="S130">
-        <v>4645.848420576</v>
+        <v>4746.862200523637</v>
       </c>
       <c r="T130">
-        <v>9253.287432969999</v>
+        <v>1419.54114089</v>
       </c>
       <c r="U130">
-        <v>9544.225519685</v>
+        <v>1393.480616848182</v>
       </c>
     </row>
     <row r="131" spans="1:21">
@@ -8976,19 +8976,19 @@
         <v>5374.34537988</v>
       </c>
       <c r="Q131">
-        <v>4898.377099109</v>
+        <v>5015.888271917273</v>
       </c>
       <c r="R131">
         <v>3133.06458335</v>
       </c>
       <c r="S131">
-        <v>4645.848420576</v>
+        <v>4746.862200523637</v>
       </c>
       <c r="T131">
-        <v>8507.40996323</v>
+        <v>2241.28079653</v>
       </c>
       <c r="U131">
-        <v>9544.225519685</v>
+        <v>1393.480616848182</v>
       </c>
     </row>
     <row r="132" spans="1:21">
@@ -9041,19 +9041,66 @@
         <v>3544.06809958</v>
       </c>
       <c r="Q132">
-        <v>4898.377099109</v>
+        <v>5015.888271917273</v>
       </c>
       <c r="R132">
         <v>3907.941187</v>
       </c>
       <c r="S132">
-        <v>4645.848420576</v>
+        <v>4746.862200523637</v>
       </c>
       <c r="T132">
-        <v>7452.00928658</v>
+        <v>-363.87308742</v>
       </c>
       <c r="U132">
-        <v>9544.225519685</v>
+        <v>1393.480616848182</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21">
+      <c r="A133">
+        <v>12</v>
+      </c>
+      <c r="B133" t="s">
+        <v>32</v>
+      </c>
+      <c r="C133">
+        <v>2021</v>
+      </c>
+      <c r="J133">
+        <v>170.00381704316</v>
+      </c>
+      <c r="K133">
+        <v>165.47068406624</v>
+      </c>
+      <c r="L133">
+        <v>102.3848577974986</v>
+      </c>
+      <c r="M133">
+        <v>248.38308174534</v>
+      </c>
+      <c r="N133">
+        <v>123.94421688775</v>
+      </c>
+      <c r="O133">
+        <v>199.6054751216285</v>
+      </c>
+      <c r="P133">
+        <v>6191</v>
+      </c>
+      <c r="Q133">
+        <v>5015.888271917273</v>
+      </c>
+      <c r="R133">
+        <v>5757</v>
+      </c>
+      <c r="S133">
+        <v>4746.862200523637</v>
+      </c>
+      <c r="T133">
+        <v>12803</v>
+      </c>
+      <c r="U133">
+        <v>1393.480616848182</v>
       </c>
     </row>
   </sheetData>

--- a/Estacionalidad/outputs/datossss.xlsx
+++ b/Estacionalidad/outputs/datossss.xlsx
@@ -8456,13 +8456,13 @@
         <v>6306.256318</v>
       </c>
       <c r="Q123">
-        <v>5015.888271917273</v>
+        <v>5051.888271917273</v>
       </c>
       <c r="R123">
         <v>5987.389117</v>
       </c>
       <c r="S123">
-        <v>4746.862200523637</v>
+        <v>4788.58947325091</v>
       </c>
       <c r="T123">
         <v>318.867201</v>
@@ -8521,13 +8521,13 @@
         <v>6312.662723</v>
       </c>
       <c r="Q124">
-        <v>5015.888271917273</v>
+        <v>5051.888271917273</v>
       </c>
       <c r="R124">
         <v>5436.515403</v>
       </c>
       <c r="S124">
-        <v>4746.862200523637</v>
+        <v>4788.58947325091</v>
       </c>
       <c r="T124">
         <v>876.14732</v>
@@ -8586,13 +8586,13 @@
         <v>4950.549545</v>
       </c>
       <c r="Q125">
-        <v>5015.888271917273</v>
+        <v>5051.888271917273</v>
       </c>
       <c r="R125">
         <v>5411.689617</v>
       </c>
       <c r="S125">
-        <v>4746.862200523637</v>
+        <v>4788.58947325091</v>
       </c>
       <c r="T125">
         <v>-461.140072</v>
@@ -8651,13 +8651,13 @@
         <v>4502.277984</v>
       </c>
       <c r="Q126">
-        <v>5015.888271917273</v>
+        <v>5051.888271917273</v>
       </c>
       <c r="R126">
         <v>4300.409404</v>
       </c>
       <c r="S126">
-        <v>4746.862200523637</v>
+        <v>4788.58947325091</v>
       </c>
       <c r="T126">
         <v>201.86858</v>
@@ -8716,13 +8716,13 @@
         <v>3429.332272</v>
       </c>
       <c r="Q127">
-        <v>5015.888271917273</v>
+        <v>5051.888271917273</v>
       </c>
       <c r="R127">
         <v>4403.892992</v>
       </c>
       <c r="S127">
-        <v>4746.862200523637</v>
+        <v>4788.58947325091</v>
       </c>
       <c r="T127">
         <v>-974.5607199999999</v>
@@ -8781,13 +8781,13 @@
         <v>4649.443384</v>
       </c>
       <c r="Q128">
-        <v>5015.888271917273</v>
+        <v>5051.888271917273</v>
       </c>
       <c r="R128">
         <v>4594.778166</v>
       </c>
       <c r="S128">
-        <v>4746.862200523637</v>
+        <v>4788.58947325091</v>
       </c>
       <c r="T128">
         <v>54.665218</v>
@@ -8846,13 +8846,13 @@
         <v>4578.420998699999</v>
       </c>
       <c r="Q129">
-        <v>5015.888271917273</v>
+        <v>5051.888271917273</v>
       </c>
       <c r="R129">
         <v>5365.93059037</v>
       </c>
       <c r="S129">
-        <v>4746.862200523637</v>
+        <v>4788.58947325091</v>
       </c>
       <c r="T129">
         <v>-787.50959167</v>
@@ -8911,13 +8911,13 @@
         <v>5336.41428693</v>
       </c>
       <c r="Q130">
-        <v>5015.888271917273</v>
+        <v>5051.888271917273</v>
       </c>
       <c r="R130">
         <v>3916.87314604</v>
       </c>
       <c r="S130">
-        <v>4746.862200523637</v>
+        <v>4788.58947325091</v>
       </c>
       <c r="T130">
         <v>1419.54114089</v>
@@ -8976,13 +8976,13 @@
         <v>5374.34537988</v>
       </c>
       <c r="Q131">
-        <v>5015.888271917273</v>
+        <v>5051.888271917273</v>
       </c>
       <c r="R131">
         <v>3133.06458335</v>
       </c>
       <c r="S131">
-        <v>4746.862200523637</v>
+        <v>4788.58947325091</v>
       </c>
       <c r="T131">
         <v>2241.28079653</v>
@@ -9041,13 +9041,13 @@
         <v>3544.06809958</v>
       </c>
       <c r="Q132">
-        <v>5015.888271917273</v>
+        <v>5051.888271917273</v>
       </c>
       <c r="R132">
         <v>3907.941187</v>
       </c>
       <c r="S132">
-        <v>4746.862200523637</v>
+        <v>4788.58947325091</v>
       </c>
       <c r="T132">
         <v>-363.87308742</v>
@@ -9085,16 +9085,16 @@
         <v>199.6054751216285</v>
       </c>
       <c r="P133">
-        <v>6191</v>
+        <v>6587</v>
       </c>
       <c r="Q133">
-        <v>5015.888271917273</v>
+        <v>5051.888271917273</v>
       </c>
       <c r="R133">
-        <v>5757</v>
+        <v>6216</v>
       </c>
       <c r="S133">
-        <v>4746.862200523637</v>
+        <v>4788.58947325091</v>
       </c>
       <c r="T133">
         <v>12803</v>

--- a/Estacionalidad/outputs/datossss.xlsx
+++ b/Estacionalidad/outputs/datossss.xlsx
@@ -10249,19 +10249,19 @@
         <v>6493.159464</v>
       </c>
       <c r="W112">
-        <v>5323.552942100909</v>
+        <v>5323.570049492728</v>
       </c>
       <c r="X112">
         <v>6229.740888</v>
       </c>
       <c r="Y112">
-        <v>5089.209807263636</v>
+        <v>5090.122174681818</v>
       </c>
       <c r="Z112">
         <v>263.418576</v>
       </c>
       <c r="AA112">
-        <v>1281.070407564545</v>
+        <v>233.4478748109091</v>
       </c>
       <c r="AB112">
         <v>0.09768459928049822</v>
@@ -10338,19 +10338,19 @@
         <v>6649.420587</v>
       </c>
       <c r="W113">
-        <v>5323.552942100909</v>
+        <v>5323.570049492728</v>
       </c>
       <c r="X113">
         <v>5779.456393</v>
       </c>
       <c r="Y113">
-        <v>5089.209807263636</v>
+        <v>5090.122174681818</v>
       </c>
       <c r="Z113">
         <v>869.964194</v>
       </c>
       <c r="AA113">
-        <v>1281.070407564545</v>
+        <v>233.4478748109091</v>
       </c>
       <c r="AB113">
         <v>0.02406549906349253</v>
@@ -10427,19 +10427,19 @@
         <v>5089.55788</v>
       </c>
       <c r="W114">
-        <v>5323.552942100909</v>
+        <v>5323.570049492728</v>
       </c>
       <c r="X114">
         <v>6091.632138</v>
       </c>
       <c r="Y114">
-        <v>5089.209807263636</v>
+        <v>5090.122174681818</v>
       </c>
       <c r="Z114">
         <v>-1002.074258</v>
       </c>
       <c r="AA114">
-        <v>1281.070407564545</v>
+        <v>233.4478748109091</v>
       </c>
       <c r="AB114">
         <v>-0.2345862600494276</v>
@@ -10516,19 +10516,19 @@
         <v>4889.18343</v>
       </c>
       <c r="W115">
-        <v>5323.552942100909</v>
+        <v>5323.570049492728</v>
       </c>
       <c r="X115">
         <v>4650.975015</v>
       </c>
       <c r="Y115">
-        <v>5089.209807263636</v>
+        <v>5090.122174681818</v>
       </c>
       <c r="Z115">
         <v>238.208415</v>
       </c>
       <c r="AA115">
-        <v>1281.070407564545</v>
+        <v>233.4478748109091</v>
       </c>
       <c r="AB115">
         <v>-0.03936971633378894</v>
@@ -10605,19 +10605,19 @@
         <v>3998.624197</v>
       </c>
       <c r="W116">
-        <v>5323.552942100909</v>
+        <v>5323.570049492728</v>
       </c>
       <c r="X116">
         <v>4699.552101</v>
       </c>
       <c r="Y116">
-        <v>5089.209807263636</v>
+        <v>5090.122174681818</v>
       </c>
       <c r="Z116">
         <v>-700.927904</v>
       </c>
       <c r="AA116">
-        <v>1281.070407564545</v>
+        <v>233.4478748109091</v>
       </c>
       <c r="AB116">
         <v>-0.1821488691824352</v>
@@ -10694,19 +10694,19 @@
         <v>4837.415762</v>
       </c>
       <c r="W117">
-        <v>5323.552942100909</v>
+        <v>5323.570049492728</v>
       </c>
       <c r="X117">
         <v>4723.135796</v>
       </c>
       <c r="Y117">
-        <v>5089.209807263636</v>
+        <v>5090.122174681818</v>
       </c>
       <c r="Z117">
         <v>114.279966</v>
       </c>
       <c r="AA117">
-        <v>1281.070407564545</v>
+        <v>233.4478748109091</v>
       </c>
       <c r="AB117">
         <v>0.2097700418132091</v>
@@ -10783,19 +10783,19 @@
         <v>4668.00952733</v>
       </c>
       <c r="W118">
-        <v>5323.552942100909</v>
+        <v>5323.570049492728</v>
       </c>
       <c r="X118">
         <v>6163.364678630001</v>
       </c>
       <c r="Y118">
-        <v>5089.209807263636</v>
+        <v>5090.122174681818</v>
       </c>
       <c r="Z118">
         <v>-1495.3551513</v>
       </c>
       <c r="AA118">
-        <v>1281.070407564545</v>
+        <v>233.4478748109091</v>
       </c>
       <c r="AB118">
         <v>-0.0350199864979065</v>
@@ -10872,19 +10872,19 @@
         <v>5349.607649340001</v>
       </c>
       <c r="W119">
-        <v>5323.552942100909</v>
+        <v>5323.570049492728</v>
       </c>
       <c r="X119">
         <v>4363.012179560001</v>
       </c>
       <c r="Y119">
-        <v>5089.209807263636</v>
+        <v>5090.122174681818</v>
       </c>
       <c r="Z119">
         <v>986.5954697799999</v>
       </c>
       <c r="AA119">
-        <v>1281.070407564545</v>
+        <v>233.4478748109091</v>
       </c>
       <c r="AB119">
         <v>0.146014723838805</v>
@@ -10961,19 +10961,19 @@
         <v>5892.6712105</v>
       </c>
       <c r="W120">
-        <v>5323.552942100909</v>
+        <v>5323.570049492728</v>
       </c>
       <c r="X120">
         <v>3408.68218244</v>
       </c>
       <c r="Y120">
-        <v>5089.209807263636</v>
+        <v>5090.122174681818</v>
       </c>
       <c r="Z120">
         <v>2483.98902806</v>
       </c>
       <c r="AA120">
-        <v>1281.070407564545</v>
+        <v>233.4478748109091</v>
       </c>
       <c r="AB120">
         <v>0.1015146524300712</v>
@@ -11050,19 +11050,19 @@
         <v>4500.43265594</v>
       </c>
       <c r="W121">
-        <v>5323.552942100909</v>
+        <v>5323.570049492728</v>
       </c>
       <c r="X121">
         <v>4114.75650827</v>
       </c>
       <c r="Y121">
-        <v>5089.209807263636</v>
+        <v>5090.122174681818</v>
       </c>
       <c r="Z121">
         <v>385.67614767</v>
       </c>
       <c r="AA121">
-        <v>1281.070407564545</v>
+        <v>233.4478748109091</v>
       </c>
       <c r="AB121">
         <v>-0.2362661185099223</v>
@@ -11136,28 +11136,28 @@
         <v>220.5339300775811</v>
       </c>
       <c r="V122">
-        <v>6191</v>
+        <v>6191.188181310001</v>
       </c>
       <c r="W122">
-        <v>5323.552942100909</v>
+        <v>5323.570049492728</v>
       </c>
       <c r="X122">
-        <v>5757</v>
+        <v>5767.0360416</v>
       </c>
       <c r="Y122">
-        <v>5089.209807263636</v>
+        <v>5090.122174681818</v>
       </c>
       <c r="Z122">
-        <v>11948</v>
+        <v>424.15213971</v>
       </c>
       <c r="AA122">
-        <v>1281.070407564545</v>
+        <v>233.4478748109091</v>
       </c>
       <c r="AB122">
-        <v>0.375645515288106</v>
+        <v>0.3756873293367513</v>
       </c>
       <c r="AC122">
-        <v>0.3991107343604303</v>
+        <v>0.4015497709303537</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11210,19 +11210,19 @@
         <v>6306.256318</v>
       </c>
       <c r="W123">
-        <v>5051.888271917273</v>
+        <v>5051.888272472727</v>
       </c>
       <c r="X123">
         <v>5987.389117</v>
       </c>
       <c r="Y123">
-        <v>4788.58947325091</v>
+        <v>4788.565382631818</v>
       </c>
       <c r="Z123">
         <v>318.867201</v>
       </c>
       <c r="AA123">
-        <v>1393.480616848182</v>
+        <v>263.3228898409092</v>
       </c>
       <c r="AB123">
         <v>0.1499318116784303</v>
@@ -11299,19 +11299,19 @@
         <v>6312.662723</v>
       </c>
       <c r="W124">
-        <v>5051.888271917273</v>
+        <v>5051.888272472727</v>
       </c>
       <c r="X124">
         <v>5436.515403</v>
       </c>
       <c r="Y124">
-        <v>4788.58947325091</v>
+        <v>4788.565382631818</v>
       </c>
       <c r="Z124">
         <v>876.14732</v>
       </c>
       <c r="AA124">
-        <v>1393.480616848182</v>
+        <v>263.3228898409092</v>
       </c>
       <c r="AB124">
         <v>0.001015880845457229</v>
@@ -11388,19 +11388,19 @@
         <v>4950.549545</v>
       </c>
       <c r="W125">
-        <v>5051.888271917273</v>
+        <v>5051.888272472727</v>
       </c>
       <c r="X125">
         <v>5411.689617</v>
       </c>
       <c r="Y125">
-        <v>4788.58947325091</v>
+        <v>4788.565382631818</v>
       </c>
       <c r="Z125">
         <v>-461.140072</v>
       </c>
       <c r="AA125">
-        <v>1393.480616848182</v>
+        <v>263.3228898409092</v>
       </c>
       <c r="AB125">
         <v>-0.2157747432057761</v>
@@ -11477,19 +11477,19 @@
         <v>4502.277984</v>
       </c>
       <c r="W126">
-        <v>5051.888271917273</v>
+        <v>5051.888272472727</v>
       </c>
       <c r="X126">
         <v>4300.409404</v>
       </c>
       <c r="Y126">
-        <v>4788.58947325091</v>
+        <v>4788.565382631818</v>
       </c>
       <c r="Z126">
         <v>201.86858</v>
       </c>
       <c r="AA126">
-        <v>1393.480616848182</v>
+        <v>263.3228898409092</v>
       </c>
       <c r="AB126">
         <v>-0.09054985854100772</v>
@@ -11566,19 +11566,19 @@
         <v>3429.332272</v>
       </c>
       <c r="W127">
-        <v>5051.888271917273</v>
+        <v>5051.888272472727</v>
       </c>
       <c r="X127">
         <v>4403.892992</v>
       </c>
       <c r="Y127">
-        <v>4788.58947325091</v>
+        <v>4788.565382631818</v>
       </c>
       <c r="Z127">
         <v>-974.5607199999999</v>
       </c>
       <c r="AA127">
-        <v>1393.480616848182</v>
+        <v>263.3228898409092</v>
       </c>
       <c r="AB127">
         <v>-0.2383117425918586</v>
@@ -11655,19 +11655,19 @@
         <v>4649.443384</v>
       </c>
       <c r="W128">
-        <v>5051.888271917273</v>
+        <v>5051.888272472727</v>
       </c>
       <c r="X128">
         <v>4594.778166</v>
       </c>
       <c r="Y128">
-        <v>4788.58947325091</v>
+        <v>4788.565382631818</v>
       </c>
       <c r="Z128">
         <v>54.665218</v>
       </c>
       <c r="AA128">
-        <v>1393.480616848182</v>
+        <v>263.3228898409092</v>
       </c>
       <c r="AB128">
         <v>0.3557867874052421</v>
@@ -11744,19 +11744,19 @@
         <v>4578.420998699999</v>
       </c>
       <c r="W129">
-        <v>5051.888271917273</v>
+        <v>5051.888272472727</v>
       </c>
       <c r="X129">
         <v>5365.93059037</v>
       </c>
       <c r="Y129">
-        <v>4788.58947325091</v>
+        <v>4788.565382631818</v>
       </c>
       <c r="Z129">
         <v>-787.50959167</v>
       </c>
       <c r="AA129">
-        <v>1393.480616848182</v>
+        <v>263.3228898409092</v>
       </c>
       <c r="AB129">
         <v>-0.0152754597559801</v>
@@ -11833,19 +11833,19 @@
         <v>5336.41428693</v>
       </c>
       <c r="W130">
-        <v>5051.888271917273</v>
+        <v>5051.888272472727</v>
       </c>
       <c r="X130">
         <v>3916.87314604</v>
       </c>
       <c r="Y130">
-        <v>4788.58947325091</v>
+        <v>4788.565382631818</v>
       </c>
       <c r="Z130">
         <v>1419.54114089</v>
       </c>
       <c r="AA130">
-        <v>1393.480616848182</v>
+        <v>263.3228898409092</v>
       </c>
       <c r="AB130">
         <v>0.1655577956778604</v>
@@ -11922,19 +11922,19 @@
         <v>5374.34537988</v>
       </c>
       <c r="W131">
-        <v>5051.888271917273</v>
+        <v>5051.888272472727</v>
       </c>
       <c r="X131">
         <v>3133.06458335</v>
       </c>
       <c r="Y131">
-        <v>4788.58947325091</v>
+        <v>4788.565382631818</v>
       </c>
       <c r="Z131">
         <v>2241.28079653</v>
       </c>
       <c r="AA131">
-        <v>1393.480616848182</v>
+        <v>263.3228898409092</v>
       </c>
       <c r="AB131">
         <v>0.007107973802352729</v>
@@ -12011,19 +12011,19 @@
         <v>3544.06809958</v>
       </c>
       <c r="W132">
-        <v>5051.888271917273</v>
+        <v>5051.888272472727</v>
       </c>
       <c r="X132">
         <v>3907.941187</v>
       </c>
       <c r="Y132">
-        <v>4788.58947325091</v>
+        <v>4788.565382631818</v>
       </c>
       <c r="Z132">
         <v>-363.87308742</v>
       </c>
       <c r="AA132">
-        <v>1393.480616848182</v>
+        <v>263.3228898409092</v>
       </c>
       <c r="AB132">
         <v>-0.3405581798207519</v>
@@ -12061,28 +12061,28 @@
         <v>199.6054751216285</v>
       </c>
       <c r="V133">
-        <v>6587</v>
+        <v>6587.00000611</v>
       </c>
       <c r="W133">
-        <v>5051.888271917273</v>
+        <v>5051.888272472727</v>
       </c>
       <c r="X133">
-        <v>6216</v>
+        <v>6215.73500319</v>
       </c>
       <c r="Y133">
-        <v>4788.58947325091</v>
+        <v>4788.565382631818</v>
       </c>
       <c r="Z133">
-        <v>12803</v>
+        <v>371.26500292</v>
       </c>
       <c r="AA133">
-        <v>1393.480616848182</v>
+        <v>263.3228898409092</v>
       </c>
       <c r="AB133">
-        <v>0.8585985976907757</v>
+        <v>0.8585985994147831</v>
       </c>
       <c r="AC133">
-        <v>0.5906073562923351</v>
+        <v>0.5905395464668235</v>
       </c>
     </row>
   </sheetData>

--- a/Estacionalidad/outputs/datossss.xlsx
+++ b/Estacionalidad/outputs/datossss.xlsx
@@ -28,19 +28,19 @@
     <t>iv_x</t>
   </si>
   <si>
-    <t>p_expo</t>
+    <t>ip_x</t>
   </si>
   <si>
-    <t>q_expo</t>
+    <t>iq_x</t>
   </si>
   <si>
     <t>iv_m</t>
   </si>
   <si>
-    <t>p_impo</t>
+    <t>ip_m</t>
   </si>
   <si>
-    <t>q_impo</t>
+    <t>iq_m</t>
   </si>
   <si>
     <t>iv_x_var</t>
@@ -61,22 +61,22 @@
     <t>iq_m_var</t>
   </si>
   <si>
-    <t>iv_expo_media</t>
+    <t>iv_x_media</t>
   </si>
   <si>
-    <t>p_expo_media</t>
+    <t>ip_x_media</t>
   </si>
   <si>
-    <t>q_expo_media</t>
+    <t>iq_x_media</t>
   </si>
   <si>
-    <t>iv_impo_media</t>
+    <t>iv_m_media</t>
   </si>
   <si>
-    <t>p_impo_media</t>
+    <t>p_m_media</t>
   </si>
   <si>
-    <t>q_impo_media</t>
+    <t>q_m_media</t>
   </si>
   <si>
     <t>v_expo</t>
@@ -97,10 +97,10 @@
     <t>v_ic_media</t>
   </si>
   <si>
-    <t>vX_var</t>
+    <t>v_expo_var</t>
   </si>
   <si>
-    <t>vM_var</t>
+    <t>v_impo_var</t>
   </si>
   <si>
     <t>ene</t>

--- a/Estacionalidad/outputs/datossss.xlsx
+++ b/Estacionalidad/outputs/datossss.xlsx
@@ -73,10 +73,10 @@
     <t>iv_m_media</t>
   </si>
   <si>
-    <t>p_m_media</t>
+    <t>ip_m_media</t>
   </si>
   <si>
-    <t>q_m_media</t>
+    <t>iq_m_media</t>
   </si>
   <si>
     <t>v_expo</t>

--- a/Estacionalidad/outputs/datossss.xlsx
+++ b/Estacionalidad/outputs/datossss.xlsx
@@ -621,19 +621,19 @@
         <v>161.2172432962091</v>
       </c>
       <c r="Q2">
-        <v>167.7641507343636</v>
+        <v>167.7185262723909</v>
       </c>
       <c r="R2">
-        <v>96.46351756058344</v>
+        <v>96.49568211021946</v>
       </c>
       <c r="S2">
         <v>249.9361112276182</v>
       </c>
       <c r="T2">
-        <v>121.7759955145</v>
+        <v>121.7247728544406</v>
       </c>
       <c r="U2">
-        <v>204.6035390293532</v>
+        <v>204.6992623364697</v>
       </c>
       <c r="V2">
         <v>5185.117506</v>
@@ -710,19 +710,19 @@
         <v>161.2172432962091</v>
       </c>
       <c r="Q3">
-        <v>167.7641507343636</v>
+        <v>167.7185262723909</v>
       </c>
       <c r="R3">
-        <v>96.46351756058344</v>
+        <v>96.49568211021946</v>
       </c>
       <c r="S3">
         <v>249.9361112276182</v>
       </c>
       <c r="T3">
-        <v>121.7759955145</v>
+        <v>121.7247728544406</v>
       </c>
       <c r="U3">
-        <v>204.6035390293532</v>
+        <v>204.6992623364697</v>
       </c>
       <c r="V3">
         <v>5399.277218</v>
@@ -799,19 +799,19 @@
         <v>161.2172432962091</v>
       </c>
       <c r="Q4">
-        <v>167.7641507343636</v>
+        <v>167.7185262723909</v>
       </c>
       <c r="R4">
-        <v>96.46351756058344</v>
+        <v>96.49568211021946</v>
       </c>
       <c r="S4">
         <v>249.9361112276182</v>
       </c>
       <c r="T4">
-        <v>121.7759955145</v>
+        <v>121.7247728544406</v>
       </c>
       <c r="U4">
-        <v>204.6035390293532</v>
+        <v>204.6992623364697</v>
       </c>
       <c r="V4">
         <v>5383.027831</v>
@@ -888,19 +888,19 @@
         <v>161.2172432962091</v>
       </c>
       <c r="Q5">
-        <v>167.7641507343636</v>
+        <v>167.7185262723909</v>
       </c>
       <c r="R5">
-        <v>96.46351756058344</v>
+        <v>96.49568211021946</v>
       </c>
       <c r="S5">
         <v>249.9361112276182</v>
       </c>
       <c r="T5">
-        <v>121.7759955145</v>
+        <v>121.7247728544406</v>
       </c>
       <c r="U5">
-        <v>204.6035390293532</v>
+        <v>204.6992623364697</v>
       </c>
       <c r="V5">
         <v>4275.2961</v>
@@ -977,19 +977,19 @@
         <v>161.2172432962091</v>
       </c>
       <c r="Q6">
-        <v>167.7641507343636</v>
+        <v>167.7185262723909</v>
       </c>
       <c r="R6">
-        <v>96.46351756058344</v>
+        <v>96.49568211021946</v>
       </c>
       <c r="S6">
         <v>249.9361112276182</v>
       </c>
       <c r="T6">
-        <v>121.7759955145</v>
+        <v>121.7247728544406</v>
       </c>
       <c r="U6">
-        <v>204.6035390293532</v>
+        <v>204.6992623364697</v>
       </c>
       <c r="V6">
         <v>3795.979014</v>
@@ -1066,19 +1066,19 @@
         <v>161.2172432962091</v>
       </c>
       <c r="Q7">
-        <v>167.7641507343636</v>
+        <v>167.7185262723909</v>
       </c>
       <c r="R7">
-        <v>96.46351756058344</v>
+        <v>96.49568211021946</v>
       </c>
       <c r="S7">
         <v>249.9361112276182</v>
       </c>
       <c r="T7">
-        <v>121.7759955145</v>
+        <v>121.7247728544406</v>
       </c>
       <c r="U7">
-        <v>204.6035390293532</v>
+        <v>204.6992623364697</v>
       </c>
       <c r="V7">
         <v>3880.889726</v>
@@ -1155,19 +1155,19 @@
         <v>161.2172432962091</v>
       </c>
       <c r="Q8">
-        <v>167.7641507343636</v>
+        <v>167.7185262723909</v>
       </c>
       <c r="R8">
-        <v>96.46351756058344</v>
+        <v>96.49568211021946</v>
       </c>
       <c r="S8">
         <v>249.9361112276182</v>
       </c>
       <c r="T8">
-        <v>121.7759955145</v>
+        <v>121.7247728544406</v>
       </c>
       <c r="U8">
-        <v>204.6035390293532</v>
+        <v>204.6992623364697</v>
       </c>
       <c r="V8">
         <v>4290.75505794</v>
@@ -1244,19 +1244,19 @@
         <v>161.2172432962091</v>
       </c>
       <c r="Q9">
-        <v>167.7641507343636</v>
+        <v>167.7185262723909</v>
       </c>
       <c r="R9">
-        <v>96.46351756058344</v>
+        <v>96.49568211021946</v>
       </c>
       <c r="S9">
         <v>249.9361112276182</v>
       </c>
       <c r="T9">
-        <v>121.7759955145</v>
+        <v>121.7247728544406</v>
       </c>
       <c r="U9">
-        <v>204.6035390293532</v>
+        <v>204.6992623364697</v>
       </c>
       <c r="V9">
         <v>4810.24038186</v>
@@ -1333,19 +1333,19 @@
         <v>161.2172432962091</v>
       </c>
       <c r="Q10">
-        <v>167.7641507343636</v>
+        <v>167.7185262723909</v>
       </c>
       <c r="R10">
-        <v>96.46351756058344</v>
+        <v>96.49568211021946</v>
       </c>
       <c r="S10">
         <v>249.9361112276182</v>
       </c>
       <c r="T10">
-        <v>121.7759955145</v>
+        <v>121.7247728544406</v>
       </c>
       <c r="U10">
-        <v>204.6035390293532</v>
+        <v>204.6992623364697</v>
       </c>
       <c r="V10">
         <v>4584.79247889</v>
@@ -1422,19 +1422,19 @@
         <v>161.2172432962091</v>
       </c>
       <c r="Q11">
-        <v>167.7641507343636</v>
+        <v>167.7185262723909</v>
       </c>
       <c r="R11">
-        <v>96.46351756058344</v>
+        <v>96.49568211021946</v>
       </c>
       <c r="S11">
         <v>249.9361112276182</v>
       </c>
       <c r="T11">
-        <v>121.7759955145</v>
+        <v>121.7247728544406</v>
       </c>
       <c r="U11">
-        <v>204.6035390293532</v>
+        <v>204.6992623364697</v>
       </c>
       <c r="V11">
         <v>4579.46881829</v>
@@ -1475,55 +1475,55 @@
         <v>170.4779406007</v>
       </c>
       <c r="E12">
-        <v>166.7841592282</v>
+        <v>166.2822901465</v>
       </c>
       <c r="F12">
-        <v>102.208644993471</v>
+        <v>102.562455039467</v>
       </c>
       <c r="G12">
         <v>205.4889303693</v>
       </c>
       <c r="H12">
-        <v>112.2763288119</v>
+        <v>111.712879551247</v>
       </c>
       <c r="I12">
-        <v>183.58193112424</v>
+        <v>184.634887502522</v>
       </c>
       <c r="J12">
         <v>0.07261346059904605</v>
       </c>
       <c r="K12">
-        <v>0.1127287080791559</v>
+        <v>0.109380403674894</v>
       </c>
       <c r="L12">
-        <v>-0.03419321288588706</v>
+        <v>-0.03084993263993596</v>
       </c>
       <c r="M12">
         <v>0.08715013619564527</v>
       </c>
       <c r="N12">
-        <v>0.02380870338433083</v>
+        <v>0.01867080599245541</v>
       </c>
       <c r="O12">
-        <v>0.06836431357775585</v>
+        <v>0.0744920463639922</v>
       </c>
       <c r="P12">
         <v>161.2172432962091</v>
       </c>
       <c r="Q12">
-        <v>167.7641507343636</v>
+        <v>167.7185262723909</v>
       </c>
       <c r="R12">
-        <v>96.46351756058344</v>
+        <v>96.49568211021946</v>
       </c>
       <c r="S12">
         <v>249.9361112276182</v>
       </c>
       <c r="T12">
-        <v>121.7759955145</v>
+        <v>121.7247728544406</v>
       </c>
       <c r="U12">
-        <v>204.6035390293532</v>
+        <v>204.6992623364697</v>
       </c>
       <c r="V12">
         <v>4911.99989689</v>
@@ -1582,19 +1582,19 @@
         <v>160.1952960508182</v>
       </c>
       <c r="Q13">
-        <v>168.4098471583</v>
+        <v>168.4007608032091</v>
       </c>
       <c r="R13">
-        <v>95.23927448729101</v>
+        <v>95.25000740068981</v>
       </c>
       <c r="S13">
         <v>236.1970041556546</v>
       </c>
       <c r="T13">
-        <v>124.6441909669909</v>
+        <v>124.6504123901626</v>
       </c>
       <c r="U13">
-        <v>188.9398326631116</v>
+        <v>188.9451871467163</v>
       </c>
       <c r="V13">
         <v>5398.017228</v>
@@ -1671,19 +1671,19 @@
         <v>160.1952960508182</v>
       </c>
       <c r="Q14">
-        <v>168.4098471583</v>
+        <v>168.4007608032091</v>
       </c>
       <c r="R14">
-        <v>95.23927448729101</v>
+        <v>95.25000740068981</v>
       </c>
       <c r="S14">
         <v>236.1970041556546</v>
       </c>
       <c r="T14">
-        <v>124.6441909669909</v>
+        <v>124.6504123901626</v>
       </c>
       <c r="U14">
-        <v>188.9398326631116</v>
+        <v>188.9451871467163</v>
       </c>
       <c r="V14">
         <v>6004.523119</v>
@@ -1760,19 +1760,19 @@
         <v>160.1952960508182</v>
       </c>
       <c r="Q15">
-        <v>168.4098471583</v>
+        <v>168.4007608032091</v>
       </c>
       <c r="R15">
-        <v>95.23927448729101</v>
+        <v>95.25000740068981</v>
       </c>
       <c r="S15">
         <v>236.1970041556546</v>
       </c>
       <c r="T15">
-        <v>124.6441909669909</v>
+        <v>124.6504123901626</v>
       </c>
       <c r="U15">
-        <v>188.9398326631116</v>
+        <v>188.9451871467163</v>
       </c>
       <c r="V15">
         <v>4905.868232</v>
@@ -1849,19 +1849,19 @@
         <v>160.1952960508182</v>
       </c>
       <c r="Q16">
-        <v>168.4098471583</v>
+        <v>168.4007608032091</v>
       </c>
       <c r="R16">
-        <v>95.23927448729101</v>
+        <v>95.25000740068981</v>
       </c>
       <c r="S16">
         <v>236.1970041556546</v>
       </c>
       <c r="T16">
-        <v>124.6441909669909</v>
+        <v>124.6504123901626</v>
       </c>
       <c r="U16">
-        <v>188.9398326631116</v>
+        <v>188.9451871467163</v>
       </c>
       <c r="V16">
         <v>4647.727001</v>
@@ -1938,19 +1938,19 @@
         <v>160.1952960508182</v>
       </c>
       <c r="Q17">
-        <v>168.4098471583</v>
+        <v>168.4007608032091</v>
       </c>
       <c r="R17">
-        <v>95.23927448729101</v>
+        <v>95.25000740068981</v>
       </c>
       <c r="S17">
         <v>236.1970041556546</v>
       </c>
       <c r="T17">
-        <v>124.6441909669909</v>
+        <v>124.6504123901626</v>
       </c>
       <c r="U17">
-        <v>188.9398326631116</v>
+        <v>188.9451871467163</v>
       </c>
       <c r="V17">
         <v>3871.712336</v>
@@ -2027,19 +2027,19 @@
         <v>160.1952960508182</v>
       </c>
       <c r="Q18">
-        <v>168.4098471583</v>
+        <v>168.4007608032091</v>
       </c>
       <c r="R18">
-        <v>95.23927448729101</v>
+        <v>95.25000740068981</v>
       </c>
       <c r="S18">
         <v>236.1970041556546</v>
       </c>
       <c r="T18">
-        <v>124.6441909669909</v>
+        <v>124.6504123901626</v>
       </c>
       <c r="U18">
-        <v>188.9398326631116</v>
+        <v>188.9451871467163</v>
       </c>
       <c r="V18">
         <v>4140.896455</v>
@@ -2116,19 +2116,19 @@
         <v>160.1952960508182</v>
       </c>
       <c r="Q19">
-        <v>168.4098471583</v>
+        <v>168.4007608032091</v>
       </c>
       <c r="R19">
-        <v>95.23927448729101</v>
+        <v>95.25000740068981</v>
       </c>
       <c r="S19">
         <v>236.1970041556546</v>
       </c>
       <c r="T19">
-        <v>124.6441909669909</v>
+        <v>124.6504123901626</v>
       </c>
       <c r="U19">
-        <v>188.9398326631116</v>
+        <v>188.9451871467163</v>
       </c>
       <c r="V19">
         <v>3899.34773492</v>
@@ -2205,19 +2205,19 @@
         <v>160.1952960508182</v>
       </c>
       <c r="Q20">
-        <v>168.4098471583</v>
+        <v>168.4007608032091</v>
       </c>
       <c r="R20">
-        <v>95.23927448729101</v>
+        <v>95.25000740068981</v>
       </c>
       <c r="S20">
         <v>236.1970041556546</v>
       </c>
       <c r="T20">
-        <v>124.6441909669909</v>
+        <v>124.6504123901626</v>
       </c>
       <c r="U20">
-        <v>188.9398326631116</v>
+        <v>188.9451871467163</v>
       </c>
       <c r="V20">
         <v>4304.21399946</v>
@@ -2294,19 +2294,19 @@
         <v>160.1952960508182</v>
       </c>
       <c r="Q21">
-        <v>168.4098471583</v>
+        <v>168.4007608032091</v>
       </c>
       <c r="R21">
-        <v>95.23927448729101</v>
+        <v>95.25000740068981</v>
       </c>
       <c r="S21">
         <v>236.1970041556546</v>
       </c>
       <c r="T21">
-        <v>124.6441909669909</v>
+        <v>124.6504123901626</v>
       </c>
       <c r="U21">
-        <v>188.9398326631116</v>
+        <v>188.9451871467163</v>
       </c>
       <c r="V21">
         <v>4447.65333873</v>
@@ -2383,19 +2383,19 @@
         <v>160.1952960508182</v>
       </c>
       <c r="Q22">
-        <v>168.4098471583</v>
+        <v>168.4007608032091</v>
       </c>
       <c r="R22">
-        <v>95.23927448729101</v>
+        <v>95.25000740068981</v>
       </c>
       <c r="S22">
         <v>236.1970041556546</v>
       </c>
       <c r="T22">
-        <v>124.6441909669909</v>
+        <v>124.6504123901626</v>
       </c>
       <c r="U22">
-        <v>188.9398326631116</v>
+        <v>188.9451871467163</v>
       </c>
       <c r="V22">
         <v>4377.986233430001</v>
@@ -2436,55 +2436,55 @@
         <v>165.7231294999</v>
       </c>
       <c r="E23">
-        <v>171.5790820741</v>
+        <v>171.4791321681</v>
       </c>
       <c r="F23">
-        <v>96.62373397112761</v>
+        <v>96.74179601851419</v>
       </c>
       <c r="G23">
         <v>198.4921389306</v>
       </c>
       <c r="H23">
-        <v>114.4748352519</v>
+        <v>114.543270906789</v>
       </c>
       <c r="I23">
-        <v>174.158484577337</v>
+        <v>174.217383896988</v>
       </c>
       <c r="J23">
         <v>0.09068387616414042</v>
       </c>
       <c r="K23">
-        <v>0.1406399134546801</v>
+        <v>0.1399754568627021</v>
       </c>
       <c r="L23">
-        <v>-0.04379042172137282</v>
+        <v>-0.04262205391045826</v>
       </c>
       <c r="M23">
         <v>0.1634019828878035</v>
       </c>
       <c r="N23">
-        <v>-0.01453278361054822</v>
+        <v>-0.01394364894023525</v>
       </c>
       <c r="O23">
-        <v>0.1888370346940842</v>
+        <v>0.1892390920080838</v>
       </c>
       <c r="P23">
         <v>160.1952960508182</v>
       </c>
       <c r="Q23">
-        <v>168.4098471583</v>
+        <v>168.4007608032091</v>
       </c>
       <c r="R23">
-        <v>95.23927448729101</v>
+        <v>95.25000740068981</v>
       </c>
       <c r="S23">
         <v>236.1970041556546</v>
       </c>
       <c r="T23">
-        <v>124.6441909669909</v>
+        <v>124.6504123901626</v>
       </c>
       <c r="U23">
-        <v>188.9398326631116</v>
+        <v>188.9451871467163</v>
       </c>
       <c r="V23">
         <v>4774.998994869999</v>
@@ -2543,19 +2543,19 @@
         <v>181.0863493187727</v>
       </c>
       <c r="Q24">
-        <v>169.9272295566636</v>
+        <v>169.9174392464454</v>
       </c>
       <c r="R24">
-        <v>106.4972079521255</v>
+        <v>106.5088559436361</v>
       </c>
       <c r="S24">
         <v>268.7599664162636</v>
       </c>
       <c r="T24">
-        <v>126.5566968747182</v>
+        <v>126.6564502436715</v>
       </c>
       <c r="U24">
-        <v>212.5384464893532</v>
+        <v>212.3555505168138</v>
       </c>
       <c r="V24">
         <v>6098.102041</v>
@@ -2632,19 +2632,19 @@
         <v>181.0863493187727</v>
       </c>
       <c r="Q25">
-        <v>169.9272295566636</v>
+        <v>169.9174392464454</v>
       </c>
       <c r="R25">
-        <v>106.4972079521255</v>
+        <v>106.5088559436361</v>
       </c>
       <c r="S25">
         <v>268.7599664162636</v>
       </c>
       <c r="T25">
-        <v>126.5566968747182</v>
+        <v>126.6564502436715</v>
       </c>
       <c r="U25">
-        <v>212.5384464893532</v>
+        <v>212.3555505168138</v>
       </c>
       <c r="V25">
         <v>6199.965749</v>
@@ -2721,19 +2721,19 @@
         <v>181.0863493187727</v>
       </c>
       <c r="Q26">
-        <v>169.9272295566636</v>
+        <v>169.9174392464454</v>
       </c>
       <c r="R26">
-        <v>106.4972079521255</v>
+        <v>106.5088559436361</v>
       </c>
       <c r="S26">
         <v>268.7599664162636</v>
       </c>
       <c r="T26">
-        <v>126.5566968747182</v>
+        <v>126.6564502436715</v>
       </c>
       <c r="U26">
-        <v>212.5384464893532</v>
+        <v>212.3555505168138</v>
       </c>
       <c r="V26">
         <v>6159.944925</v>
@@ -2810,19 +2810,19 @@
         <v>181.0863493187727</v>
       </c>
       <c r="Q27">
-        <v>169.9272295566636</v>
+        <v>169.9174392464454</v>
       </c>
       <c r="R27">
-        <v>106.4972079521255</v>
+        <v>106.5088559436361</v>
       </c>
       <c r="S27">
         <v>268.7599664162636</v>
       </c>
       <c r="T27">
-        <v>126.5566968747182</v>
+        <v>126.6564502436715</v>
       </c>
       <c r="U27">
-        <v>212.5384464893532</v>
+        <v>212.3555505168138</v>
       </c>
       <c r="V27">
         <v>4912.951795</v>
@@ -2899,19 +2899,19 @@
         <v>181.0863493187727</v>
       </c>
       <c r="Q28">
-        <v>169.9272295566636</v>
+        <v>169.9174392464454</v>
       </c>
       <c r="R28">
-        <v>106.4972079521255</v>
+        <v>106.5088559436361</v>
       </c>
       <c r="S28">
         <v>268.7599664162636</v>
       </c>
       <c r="T28">
-        <v>126.5566968747182</v>
+        <v>126.6564502436715</v>
       </c>
       <c r="U28">
-        <v>212.5384464893532</v>
+        <v>212.3555505168138</v>
       </c>
       <c r="V28">
         <v>4381.455417</v>
@@ -2988,19 +2988,19 @@
         <v>181.0863493187727</v>
       </c>
       <c r="Q29">
-        <v>169.9272295566636</v>
+        <v>169.9174392464454</v>
       </c>
       <c r="R29">
-        <v>106.4972079521255</v>
+        <v>106.5088559436361</v>
       </c>
       <c r="S29">
         <v>268.7599664162636</v>
       </c>
       <c r="T29">
-        <v>126.5566968747182</v>
+        <v>126.6564502436715</v>
       </c>
       <c r="U29">
-        <v>212.5384464893532</v>
+        <v>212.3555505168138</v>
       </c>
       <c r="V29">
         <v>4420.844409</v>
@@ -3077,19 +3077,19 @@
         <v>181.0863493187727</v>
       </c>
       <c r="Q30">
-        <v>169.9272295566636</v>
+        <v>169.9174392464454</v>
       </c>
       <c r="R30">
-        <v>106.4972079521255</v>
+        <v>106.5088559436361</v>
       </c>
       <c r="S30">
         <v>268.7599664162636</v>
       </c>
       <c r="T30">
-        <v>126.5566968747182</v>
+        <v>126.6564502436715</v>
       </c>
       <c r="U30">
-        <v>212.5384464893532</v>
+        <v>212.3555505168138</v>
       </c>
       <c r="V30">
         <v>4564.6711114</v>
@@ -3166,19 +3166,19 @@
         <v>181.0863493187727</v>
       </c>
       <c r="Q31">
-        <v>169.9272295566636</v>
+        <v>169.9174392464454</v>
       </c>
       <c r="R31">
-        <v>106.4972079521255</v>
+        <v>106.5088559436361</v>
       </c>
       <c r="S31">
         <v>268.7599664162636</v>
       </c>
       <c r="T31">
-        <v>126.5566968747182</v>
+        <v>126.6564502436715</v>
       </c>
       <c r="U31">
-        <v>212.5384464893532</v>
+        <v>212.3555505168138</v>
       </c>
       <c r="V31">
         <v>5416.664832439999</v>
@@ -3255,19 +3255,19 @@
         <v>181.0863493187727</v>
       </c>
       <c r="Q32">
-        <v>169.9272295566636</v>
+        <v>169.9174392464454</v>
       </c>
       <c r="R32">
-        <v>106.4972079521255</v>
+        <v>106.5088559436361</v>
       </c>
       <c r="S32">
         <v>268.7599664162636</v>
       </c>
       <c r="T32">
-        <v>126.5566968747182</v>
+        <v>126.6564502436715</v>
       </c>
       <c r="U32">
-        <v>212.5384464893532</v>
+        <v>212.3555505168138</v>
       </c>
       <c r="V32">
         <v>5136.9720131</v>
@@ -3344,19 +3344,19 @@
         <v>181.0863493187727</v>
       </c>
       <c r="Q33">
-        <v>169.9272295566636</v>
+        <v>169.9174392464454</v>
       </c>
       <c r="R33">
-        <v>106.4972079521255</v>
+        <v>106.5088559436361</v>
       </c>
       <c r="S33">
         <v>268.7599664162636</v>
       </c>
       <c r="T33">
-        <v>126.5566968747182</v>
+        <v>126.6564502436715</v>
       </c>
       <c r="U33">
-        <v>212.5384464893532</v>
+        <v>212.3555505168138</v>
       </c>
       <c r="V33">
         <v>4382.66937892</v>
@@ -3397,55 +3397,55 @@
         <v>198.5206912828</v>
       </c>
       <c r="E34">
-        <v>173.1666738549</v>
+        <v>173.0589804425</v>
       </c>
       <c r="F34">
-        <v>114.667621035402</v>
+        <v>114.795748942018</v>
       </c>
       <c r="G34">
         <v>284.4342099733</v>
       </c>
       <c r="H34">
-        <v>120.1851587098</v>
+        <v>121.282445768287</v>
       </c>
       <c r="I34">
-        <v>237.459584298423</v>
+        <v>235.44772860049</v>
       </c>
       <c r="J34">
         <v>0.3051403841418761</v>
       </c>
       <c r="K34">
-        <v>0.1377337079407739</v>
+        <v>0.1370261443970329</v>
       </c>
       <c r="L34">
-        <v>0.1464001192944839</v>
+        <v>0.1476810898605707</v>
       </c>
       <c r="M34">
         <v>0.6867008742264897</v>
       </c>
       <c r="N34">
-        <v>0.01564038877865448</v>
+        <v>0.02491315645352565</v>
       </c>
       <c r="O34">
-        <v>0.6702440962933554</v>
+        <v>0.6560930982951285</v>
       </c>
       <c r="P34">
         <v>181.0863493187727</v>
       </c>
       <c r="Q34">
-        <v>169.9272295566636</v>
+        <v>169.9174392464454</v>
       </c>
       <c r="R34">
-        <v>106.4972079521255</v>
+        <v>106.5088559436361</v>
       </c>
       <c r="S34">
         <v>268.7599664162636</v>
       </c>
       <c r="T34">
-        <v>126.5566968747182</v>
+        <v>126.6564502436715</v>
       </c>
       <c r="U34">
-        <v>212.5384464893532</v>
+        <v>212.3555505168138</v>
       </c>
       <c r="V34">
         <v>5719.998796770001</v>
@@ -3516,7 +3516,7 @@
         <v>127.486983305097</v>
       </c>
       <c r="U35">
-        <v>206.9287456798658</v>
+        <v>206.9335232698866</v>
       </c>
       <c r="V35">
         <v>7042.866014</v>
@@ -3605,7 +3605,7 @@
         <v>127.486983305097</v>
       </c>
       <c r="U36">
-        <v>206.9287456798658</v>
+        <v>206.9335232698866</v>
       </c>
       <c r="V36">
         <v>6714.950211</v>
@@ -3694,7 +3694,7 @@
         <v>127.486983305097</v>
       </c>
       <c r="U37">
-        <v>206.9287456798658</v>
+        <v>206.9335232698866</v>
       </c>
       <c r="V37">
         <v>6895.385115</v>
@@ -3783,7 +3783,7 @@
         <v>127.486983305097</v>
       </c>
       <c r="U38">
-        <v>206.9287456798658</v>
+        <v>206.9335232698866</v>
       </c>
       <c r="V38">
         <v>6478.517271</v>
@@ -3872,7 +3872,7 @@
         <v>127.486983305097</v>
       </c>
       <c r="U39">
-        <v>206.9287456798658</v>
+        <v>206.9335232698866</v>
       </c>
       <c r="V39">
         <v>5155.266674</v>
@@ -3961,7 +3961,7 @@
         <v>127.486983305097</v>
       </c>
       <c r="U40">
-        <v>206.9287456798658</v>
+        <v>206.9335232698866</v>
       </c>
       <c r="V40">
         <v>4739.552432</v>
@@ -4050,7 +4050,7 @@
         <v>127.486983305097</v>
       </c>
       <c r="U41">
-        <v>206.9287456798658</v>
+        <v>206.9335232698866</v>
       </c>
       <c r="V41">
         <v>4866.62981228</v>
@@ -4139,7 +4139,7 @@
         <v>127.486983305097</v>
       </c>
       <c r="U42">
-        <v>206.9287456798658</v>
+        <v>206.9335232698866</v>
       </c>
       <c r="V42">
         <v>5216.330941640001</v>
@@ -4228,7 +4228,7 @@
         <v>127.486983305097</v>
       </c>
       <c r="U43">
-        <v>206.9287456798658</v>
+        <v>206.9335232698866</v>
       </c>
       <c r="V43">
         <v>5337.17544789</v>
@@ -4317,7 +4317,7 @@
         <v>127.486983305097</v>
       </c>
       <c r="U44">
-        <v>206.9287456798658</v>
+        <v>206.9335232698866</v>
       </c>
       <c r="V44">
         <v>4349.28632508</v>
@@ -4370,7 +4370,7 @@
         <v>123.710604488767</v>
       </c>
       <c r="I45">
-        <v>202.562638014731</v>
+        <v>202.61519150496</v>
       </c>
       <c r="J45">
         <v>0.4124153345632187</v>
@@ -4388,7 +4388,7 @@
         <v>0.07204308402282322</v>
       </c>
       <c r="O45">
-        <v>0.5151284279586164</v>
+        <v>0.5155215176607193</v>
       </c>
       <c r="P45">
         <v>198.5806523895</v>
@@ -4406,7 +4406,7 @@
         <v>127.486983305097</v>
       </c>
       <c r="U45">
-        <v>206.9287456798658</v>
+        <v>206.9335232698866</v>
       </c>
       <c r="V45">
         <v>6142.99869995</v>
@@ -4477,7 +4477,7 @@
         <v>128.8113033096093</v>
       </c>
       <c r="U46">
-        <v>227.8606912079541</v>
+        <v>227.8600389398907</v>
       </c>
       <c r="V46">
         <v>7932.871298</v>
@@ -4566,7 +4566,7 @@
         <v>128.8113033096093</v>
       </c>
       <c r="U47">
-        <v>227.8606912079541</v>
+        <v>227.8600389398907</v>
       </c>
       <c r="V47">
         <v>7080.822004</v>
@@ -4655,7 +4655,7 @@
         <v>128.8113033096093</v>
       </c>
       <c r="U48">
-        <v>227.8606912079541</v>
+        <v>227.8600389398907</v>
       </c>
       <c r="V48">
         <v>8393.239485</v>
@@ -4744,7 +4744,7 @@
         <v>128.8113033096093</v>
       </c>
       <c r="U49">
-        <v>227.8606912079541</v>
+        <v>227.8600389398907</v>
       </c>
       <c r="V49">
         <v>7178.51255</v>
@@ -4833,7 +4833,7 @@
         <v>128.8113033096093</v>
       </c>
       <c r="U50">
-        <v>227.8606912079541</v>
+        <v>227.8600389398907</v>
       </c>
       <c r="V50">
         <v>5205.499181</v>
@@ -4922,7 +4922,7 @@
         <v>128.8113033096093</v>
       </c>
       <c r="U51">
-        <v>227.8606912079541</v>
+        <v>227.8600389398907</v>
       </c>
       <c r="V51">
         <v>5383.4265</v>
@@ -5011,7 +5011,7 @@
         <v>128.8113033096093</v>
       </c>
       <c r="U52">
-        <v>227.8606912079541</v>
+        <v>227.8600389398907</v>
       </c>
       <c r="V52">
         <v>5493.181634680001</v>
@@ -5100,7 +5100,7 @@
         <v>128.8113033096093</v>
       </c>
       <c r="U53">
-        <v>227.8606912079541</v>
+        <v>227.8600389398907</v>
       </c>
       <c r="V53">
         <v>5163.05521358</v>
@@ -5189,7 +5189,7 @@
         <v>128.8113033096093</v>
       </c>
       <c r="U54">
-        <v>227.8606912079541</v>
+        <v>227.8600389398907</v>
       </c>
       <c r="V54">
         <v>6043.68990849</v>
@@ -5278,7 +5278,7 @@
         <v>128.8113033096093</v>
       </c>
       <c r="U55">
-        <v>227.8606912079541</v>
+        <v>227.8600389398907</v>
       </c>
       <c r="V55">
         <v>5077.748928479999</v>
@@ -5331,7 +5331,7 @@
         <v>128.378192830902</v>
       </c>
       <c r="I56">
-        <v>214.544217087759</v>
+        <v>214.537042139062</v>
       </c>
       <c r="J56">
         <v>0.3416754761210363</v>
@@ -5349,7 +5349,7 @@
         <v>0.1518015293851607</v>
       </c>
       <c r="O56">
-        <v>0.4160195333725667</v>
+        <v>0.4159721777847827</v>
       </c>
       <c r="P56">
         <v>220.1168704534091</v>
@@ -5367,7 +5367,7 @@
         <v>128.8113033096093</v>
       </c>
       <c r="U56">
-        <v>227.8606912079541</v>
+        <v>227.8600389398907</v>
       </c>
       <c r="V56">
         <v>6812.69121124</v>
@@ -5438,7 +5438,7 @@
         <v>130.1579116548886</v>
       </c>
       <c r="U57">
-        <v>225.8105631121805</v>
+        <v>225.806437790223</v>
       </c>
       <c r="V57">
         <v>7816.969457</v>
@@ -5527,7 +5527,7 @@
         <v>130.1579116548886</v>
       </c>
       <c r="U58">
-        <v>225.8105631121805</v>
+        <v>225.806437790223</v>
       </c>
       <c r="V58">
         <v>6822.164808</v>
@@ -5616,7 +5616,7 @@
         <v>130.1579116548886</v>
       </c>
       <c r="U59">
-        <v>225.8105631121805</v>
+        <v>225.806437790223</v>
       </c>
       <c r="V59">
         <v>7483.387553</v>
@@ -5705,7 +5705,7 @@
         <v>130.1579116548886</v>
       </c>
       <c r="U60">
-        <v>225.8105631121805</v>
+        <v>225.806437790223</v>
       </c>
       <c r="V60">
         <v>7203.701402</v>
@@ -5794,7 +5794,7 @@
         <v>130.1579116548886</v>
       </c>
       <c r="U61">
-        <v>225.8105631121805</v>
+        <v>225.806437790223</v>
       </c>
       <c r="V61">
         <v>6046.468818</v>
@@ -5883,7 +5883,7 @@
         <v>130.1579116548886</v>
       </c>
       <c r="U62">
-        <v>225.8105631121805</v>
+        <v>225.806437790223</v>
       </c>
       <c r="V62">
         <v>5304.930969</v>
@@ -5972,7 +5972,7 @@
         <v>130.1579116548886</v>
       </c>
       <c r="U63">
-        <v>225.8105631121805</v>
+        <v>225.806437790223</v>
       </c>
       <c r="V63">
         <v>5158.48680165</v>
@@ -6061,7 +6061,7 @@
         <v>130.1579116548886</v>
       </c>
       <c r="U64">
-        <v>225.8105631121805</v>
+        <v>225.806437790223</v>
       </c>
       <c r="V64">
         <v>5133.42608031</v>
@@ -6150,7 +6150,7 @@
         <v>130.1579116548886</v>
       </c>
       <c r="U65">
-        <v>225.8105631121805</v>
+        <v>225.806437790223</v>
       </c>
       <c r="V65">
         <v>5239.144933060001</v>
@@ -6239,7 +6239,7 @@
         <v>130.1579116548886</v>
       </c>
       <c r="U66">
-        <v>225.8105631121805</v>
+        <v>225.806437790223</v>
       </c>
       <c r="V66">
         <v>4785.946706940001</v>
@@ -6292,7 +6292,7 @@
         <v>131.996742338274</v>
       </c>
       <c r="I67">
-        <v>239.59314489751</v>
+        <v>239.547766355978</v>
       </c>
       <c r="J67">
         <v>0.4646744243985812</v>
@@ -6310,7 +6310,7 @@
         <v>0.2165956217321587</v>
       </c>
       <c r="O67">
-        <v>0.4753778111177498</v>
+        <v>0.4750983770241499</v>
       </c>
       <c r="P67">
         <v>214.5630320098</v>
@@ -6328,7 +6328,7 @@
         <v>130.1579116548886</v>
       </c>
       <c r="U67">
-        <v>225.8105631121805</v>
+        <v>225.806437790223</v>
       </c>
       <c r="V67">
         <v>7009.85373819</v>
@@ -6396,10 +6396,10 @@
         <v>306.9357367063182</v>
       </c>
       <c r="T68">
-        <v>127.8365271677364</v>
+        <v>127.9278681683266</v>
       </c>
       <c r="U68">
-        <v>238.9676028030524</v>
+        <v>238.8096154458913</v>
       </c>
       <c r="V68">
         <v>7225.597904</v>
@@ -6485,10 +6485,10 @@
         <v>306.9357367063182</v>
       </c>
       <c r="T69">
-        <v>127.8365271677364</v>
+        <v>127.9278681683266</v>
       </c>
       <c r="U69">
-        <v>238.9676028030524</v>
+        <v>238.8096154458913</v>
       </c>
       <c r="V69">
         <v>7655.108729</v>
@@ -6574,10 +6574,10 @@
         <v>306.9357367063182</v>
       </c>
       <c r="T70">
-        <v>127.8365271677364</v>
+        <v>127.9278681683266</v>
       </c>
       <c r="U70">
-        <v>238.9676028030524</v>
+        <v>238.8096154458913</v>
       </c>
       <c r="V70">
         <v>6930.651129</v>
@@ -6663,10 +6663,10 @@
         <v>306.9357367063182</v>
       </c>
       <c r="T71">
-        <v>127.8365271677364</v>
+        <v>127.9278681683266</v>
       </c>
       <c r="U71">
-        <v>238.9676028030524</v>
+        <v>238.8096154458913</v>
       </c>
       <c r="V71">
         <v>6416.908436</v>
@@ -6752,10 +6752,10 @@
         <v>306.9357367063182</v>
       </c>
       <c r="T72">
-        <v>127.8365271677364</v>
+        <v>127.9278681683266</v>
       </c>
       <c r="U72">
-        <v>238.9676028030524</v>
+        <v>238.8096154458913</v>
       </c>
       <c r="V72">
         <v>5568.888673</v>
@@ -6841,10 +6841,10 @@
         <v>306.9357367063182</v>
       </c>
       <c r="T73">
-        <v>127.8365271677364</v>
+        <v>127.9278681683266</v>
       </c>
       <c r="U73">
-        <v>238.9676028030524</v>
+        <v>238.8096154458913</v>
       </c>
       <c r="V73">
         <v>5001.602681</v>
@@ -6930,10 +6930,10 @@
         <v>306.9357367063182</v>
       </c>
       <c r="T74">
-        <v>127.8365271677364</v>
+        <v>127.9278681683266</v>
       </c>
       <c r="U74">
-        <v>238.9676028030524</v>
+        <v>238.8096154458913</v>
       </c>
       <c r="V74">
         <v>5304.08365055</v>
@@ -7019,10 +7019,10 @@
         <v>306.9357367063182</v>
       </c>
       <c r="T75">
-        <v>127.8365271677364</v>
+        <v>127.9278681683266</v>
       </c>
       <c r="U75">
-        <v>238.9676028030524</v>
+        <v>238.8096154458913</v>
       </c>
       <c r="V75">
         <v>5414.83105042</v>
@@ -7108,10 +7108,10 @@
         <v>306.9357367063182</v>
       </c>
       <c r="T76">
-        <v>127.8365271677364</v>
+        <v>127.9278681683266</v>
       </c>
       <c r="U76">
-        <v>238.9676028030524</v>
+        <v>238.8096154458913</v>
       </c>
       <c r="V76">
         <v>5855.716468029999</v>
@@ -7197,10 +7197,10 @@
         <v>306.9357367063182</v>
       </c>
       <c r="T77">
-        <v>127.8365271677364</v>
+        <v>127.9278681683266</v>
       </c>
       <c r="U77">
-        <v>238.9676028030524</v>
+        <v>238.8096154458913</v>
       </c>
       <c r="V77">
         <v>4931.05458813</v>
@@ -7250,10 +7250,10 @@
         <v>305.5664989237</v>
       </c>
       <c r="H78">
-        <v>131.8121822888</v>
+        <v>132.816933295293</v>
       </c>
       <c r="I78">
-        <v>231.8196191109</v>
+        <v>230.081758182127</v>
       </c>
       <c r="J78">
         <v>0.4706604446516334</v>
@@ -7268,10 +7268,10 @@
         <v>0.6562697640812432</v>
       </c>
       <c r="N78">
-        <v>0.2201726961699828</v>
+        <v>0.2294735796185703</v>
       </c>
       <c r="O78">
-        <v>0.3566864081719401</v>
+        <v>0.346515861302775</v>
       </c>
       <c r="P78">
         <v>213.1491218415364</v>
@@ -7286,10 +7286,10 @@
         <v>306.9357367063182</v>
       </c>
       <c r="T78">
-        <v>127.8365271677364</v>
+        <v>127.9278681683266</v>
       </c>
       <c r="U78">
-        <v>238.9676028030524</v>
+        <v>238.8096154458913</v>
       </c>
       <c r="V78">
         <v>7251.90693318</v>
@@ -7357,10 +7357,10 @@
         <v>309.7832145714727</v>
       </c>
       <c r="T79">
-        <v>126.2591863957636</v>
+        <v>126.2753877950715</v>
       </c>
       <c r="U79">
-        <v>244.1932305913233</v>
+        <v>244.1571610999463</v>
       </c>
       <c r="V79">
         <v>8328.454715</v>
@@ -7446,10 +7446,10 @@
         <v>309.7832145714727</v>
       </c>
       <c r="T80">
-        <v>126.2591863957636</v>
+        <v>126.2753877950715</v>
       </c>
       <c r="U80">
-        <v>244.1932305913233</v>
+        <v>244.1571610999463</v>
       </c>
       <c r="V80">
         <v>7451.096908</v>
@@ -7535,10 +7535,10 @@
         <v>309.7832145714727</v>
       </c>
       <c r="T81">
-        <v>126.2591863957636</v>
+        <v>126.2753877950715</v>
       </c>
       <c r="U81">
-        <v>244.1932305913233</v>
+        <v>244.1571610999463</v>
       </c>
       <c r="V81">
         <v>7199.531145</v>
@@ -7624,10 +7624,10 @@
         <v>309.7832145714727</v>
       </c>
       <c r="T82">
-        <v>126.2591863957636</v>
+        <v>126.2753877950715</v>
       </c>
       <c r="U82">
-        <v>244.1932305913233</v>
+        <v>244.1571610999463</v>
       </c>
       <c r="V82">
         <v>6419.95026</v>
@@ -7713,10 +7713,10 @@
         <v>309.7832145714727</v>
       </c>
       <c r="T83">
-        <v>126.2591863957636</v>
+        <v>126.2753877950715</v>
       </c>
       <c r="U83">
-        <v>244.1932305913233</v>
+        <v>244.1571610999463</v>
       </c>
       <c r="V83">
         <v>5135.719284</v>
@@ -7802,10 +7802,10 @@
         <v>309.7832145714727</v>
       </c>
       <c r="T84">
-        <v>126.2591863957636</v>
+        <v>126.2753877950715</v>
       </c>
       <c r="U84">
-        <v>244.1932305913233</v>
+        <v>244.1571610999463</v>
       </c>
       <c r="V84">
         <v>5763.764703</v>
@@ -7891,10 +7891,10 @@
         <v>309.7832145714727</v>
       </c>
       <c r="T85">
-        <v>126.2591863957636</v>
+        <v>126.2753877950715</v>
       </c>
       <c r="U85">
-        <v>244.1932305913233</v>
+        <v>244.1571610999463</v>
       </c>
       <c r="V85">
         <v>5272.377195739999</v>
@@ -7980,10 +7980,10 @@
         <v>309.7832145714727</v>
       </c>
       <c r="T86">
-        <v>126.2591863957636</v>
+        <v>126.2753877950715</v>
       </c>
       <c r="U86">
-        <v>244.1932305913233</v>
+        <v>244.1571610999463</v>
       </c>
       <c r="V86">
         <v>5201.81017496</v>
@@ -8069,10 +8069,10 @@
         <v>309.7832145714727</v>
       </c>
       <c r="T87">
-        <v>126.2591863957636</v>
+        <v>126.2753877950715</v>
       </c>
       <c r="U87">
-        <v>244.1932305913233</v>
+        <v>244.1571610999463</v>
       </c>
       <c r="V87">
         <v>5568.03563596</v>
@@ -8158,10 +8158,10 @@
         <v>309.7832145714727</v>
       </c>
       <c r="T88">
-        <v>126.2591863957636</v>
+        <v>126.2753877950715</v>
       </c>
       <c r="U88">
-        <v>244.1932305913233</v>
+        <v>244.1571610999463</v>
       </c>
       <c r="V88">
         <v>4954.6154336</v>
@@ -8211,10 +8211,10 @@
         <v>307.60909897</v>
       </c>
       <c r="H89">
-        <v>136.040804314</v>
+        <v>136.219019706387</v>
       </c>
       <c r="I89">
-        <v>226.1153192391</v>
+        <v>225.718554833953</v>
       </c>
       <c r="J89">
         <v>0.6346084455019387</v>
@@ -8229,10 +8229,10 @@
         <v>0.6400493272718628</v>
       </c>
       <c r="N89">
-        <v>0.2315858655995533</v>
+        <v>0.2331992606349833</v>
       </c>
       <c r="O89">
-        <v>0.3300637400020419</v>
+        <v>0.3277298780134541</v>
       </c>
       <c r="P89">
         <v>218.9478117531</v>
@@ -8247,10 +8247,10 @@
         <v>309.7832145714727</v>
       </c>
       <c r="T89">
-        <v>126.2591863957636</v>
+        <v>126.2753877950715</v>
       </c>
       <c r="U89">
-        <v>244.1932305913233</v>
+        <v>244.1571610999463</v>
       </c>
       <c r="V89">
         <v>8098.856231979999</v>
@@ -8318,10 +8318,10 @@
         <v>288.3612614826182</v>
       </c>
       <c r="T90">
-        <v>123.2841912572545</v>
+        <v>123.2358316714047</v>
       </c>
       <c r="U90">
-        <v>233.2044337283513</v>
+        <v>233.2968598177987</v>
       </c>
       <c r="V90">
         <v>7718.191177</v>
@@ -8407,10 +8407,10 @@
         <v>288.3612614826182</v>
       </c>
       <c r="T91">
-        <v>123.2841912572545</v>
+        <v>123.2358316714047</v>
       </c>
       <c r="U91">
-        <v>233.2044337283513</v>
+        <v>233.2968598177987</v>
       </c>
       <c r="V91">
         <v>6803.121755</v>
@@ -8496,10 +8496,10 @@
         <v>288.3612614826182</v>
       </c>
       <c r="T92">
-        <v>123.2841912572545</v>
+        <v>123.2358316714047</v>
       </c>
       <c r="U92">
-        <v>233.2044337283513</v>
+        <v>233.2968598177987</v>
       </c>
       <c r="V92">
         <v>6544.801786</v>
@@ -8585,10 +8585,10 @@
         <v>288.3612614826182</v>
       </c>
       <c r="T93">
-        <v>123.2841912572545</v>
+        <v>123.2358316714047</v>
       </c>
       <c r="U93">
-        <v>233.2044337283513</v>
+        <v>233.2968598177987</v>
       </c>
       <c r="V93">
         <v>5685.22701</v>
@@ -8674,10 +8674,10 @@
         <v>288.3612614826182</v>
       </c>
       <c r="T94">
-        <v>123.2841912572545</v>
+        <v>123.2358316714047</v>
       </c>
       <c r="U94">
-        <v>233.2044337283513</v>
+        <v>233.2968598177987</v>
       </c>
       <c r="V94">
         <v>5161.997468</v>
@@ -8763,10 +8763,10 @@
         <v>288.3612614826182</v>
       </c>
       <c r="T95">
-        <v>123.2841912572545</v>
+        <v>123.2358316714047</v>
       </c>
       <c r="U95">
-        <v>233.2044337283513</v>
+        <v>233.2968598177987</v>
       </c>
       <c r="V95">
         <v>5049.546097</v>
@@ -8852,10 +8852,10 @@
         <v>288.3612614826182</v>
       </c>
       <c r="T96">
-        <v>123.2841912572545</v>
+        <v>123.2358316714047</v>
       </c>
       <c r="U96">
-        <v>233.2044337283513</v>
+        <v>233.2968598177987</v>
       </c>
       <c r="V96">
         <v>5268.23685737</v>
@@ -8941,10 +8941,10 @@
         <v>288.3612614826182</v>
       </c>
       <c r="T97">
-        <v>123.2841912572545</v>
+        <v>123.2358316714047</v>
       </c>
       <c r="U97">
-        <v>233.2044337283513</v>
+        <v>233.2968598177987</v>
       </c>
       <c r="V97">
         <v>5036.80839682</v>
@@ -9030,10 +9030,10 @@
         <v>288.3612614826182</v>
       </c>
       <c r="T98">
-        <v>123.2841912572545</v>
+        <v>123.2358316714047</v>
       </c>
       <c r="U98">
-        <v>233.2044337283513</v>
+        <v>233.2968598177987</v>
       </c>
       <c r="V98">
         <v>5746.03701536</v>
@@ -9119,10 +9119,10 @@
         <v>288.3612614826182</v>
       </c>
       <c r="T99">
-        <v>123.2841912572545</v>
+        <v>123.2358316714047</v>
       </c>
       <c r="U99">
-        <v>233.2044337283513</v>
+        <v>233.2968598177987</v>
       </c>
       <c r="V99">
         <v>4726.50083528</v>
@@ -9172,10 +9172,10 @@
         <v>314.682965296</v>
       </c>
       <c r="H100">
-        <v>132.4529252965</v>
+        <v>131.920969852152</v>
       </c>
       <c r="I100">
-        <v>237.383</v>
+        <v>238.399686983921</v>
       </c>
       <c r="J100">
         <v>0.5980109311488153</v>
@@ -9190,10 +9190,10 @@
         <v>0.4255182421055743</v>
       </c>
       <c r="N100">
-        <v>0.1901141104595161</v>
+        <v>0.1853343920875956</v>
       </c>
       <c r="O100">
-        <v>0.1957353208302079</v>
+        <v>0.2008565322771214</v>
       </c>
       <c r="P100">
         <v>206.0094369717727</v>
@@ -9208,10 +9208,10 @@
         <v>288.3612614826182</v>
       </c>
       <c r="T100">
-        <v>123.2841912572545</v>
+        <v>123.2358316714047</v>
       </c>
       <c r="U100">
-        <v>233.2044337283513</v>
+        <v>233.2968598177987</v>
       </c>
       <c r="V100">
         <v>7570.189290439999</v>
@@ -9270,19 +9270,19 @@
         <v>201.9904227308454</v>
       </c>
       <c r="Q101">
-        <v>167.0762196006182</v>
+        <v>167.0641417950364</v>
       </c>
       <c r="R101">
-        <v>120.5570910776785</v>
+        <v>120.5691917098991</v>
       </c>
       <c r="S101">
         <v>288.6123518959</v>
       </c>
       <c r="T101">
-        <v>121.4472419415909</v>
+        <v>121.442049058772</v>
       </c>
       <c r="U101">
-        <v>237.0739683137839</v>
+        <v>237.0759077387896</v>
       </c>
       <c r="V101">
         <v>7435.411578</v>
@@ -9359,19 +9359,19 @@
         <v>201.9904227308454</v>
       </c>
       <c r="Q102">
-        <v>167.0762196006182</v>
+        <v>167.0641417950364</v>
       </c>
       <c r="R102">
-        <v>120.5570910776785</v>
+        <v>120.5691917098991</v>
       </c>
       <c r="S102">
         <v>288.6123518959</v>
       </c>
       <c r="T102">
-        <v>121.4472419415909</v>
+        <v>121.442049058772</v>
       </c>
       <c r="U102">
-        <v>237.0739683137839</v>
+        <v>237.0759077387896</v>
       </c>
       <c r="V102">
         <v>6889.203263</v>
@@ -9448,19 +9448,19 @@
         <v>201.9904227308454</v>
       </c>
       <c r="Q103">
-        <v>167.0762196006182</v>
+        <v>167.0641417950364</v>
       </c>
       <c r="R103">
-        <v>120.5570910776785</v>
+        <v>120.5691917098991</v>
       </c>
       <c r="S103">
         <v>288.6123518959</v>
       </c>
       <c r="T103">
-        <v>121.4472419415909</v>
+        <v>121.442049058772</v>
       </c>
       <c r="U103">
-        <v>237.0739683137839</v>
+        <v>237.0759077387896</v>
       </c>
       <c r="V103">
         <v>6026.970737</v>
@@ -9537,19 +9537,19 @@
         <v>201.9904227308454</v>
       </c>
       <c r="Q104">
-        <v>167.0762196006182</v>
+        <v>167.0641417950364</v>
       </c>
       <c r="R104">
-        <v>120.5570910776785</v>
+        <v>120.5691917098991</v>
       </c>
       <c r="S104">
         <v>288.6123518959</v>
       </c>
       <c r="T104">
-        <v>121.4472419415909</v>
+        <v>121.442049058772</v>
       </c>
       <c r="U104">
-        <v>237.0739683137839</v>
+        <v>237.0759077387896</v>
       </c>
       <c r="V104">
         <v>5794.03212</v>
@@ -9626,19 +9626,19 @@
         <v>201.9904227308454</v>
       </c>
       <c r="Q105">
-        <v>167.0762196006182</v>
+        <v>167.0641417950364</v>
       </c>
       <c r="R105">
-        <v>120.5570910776785</v>
+        <v>120.5691917098991</v>
       </c>
       <c r="S105">
         <v>288.6123518959</v>
       </c>
       <c r="T105">
-        <v>121.4472419415909</v>
+        <v>121.442049058772</v>
       </c>
       <c r="U105">
-        <v>237.0739683137839</v>
+        <v>237.0759077387896</v>
       </c>
       <c r="V105">
         <v>5032.952345</v>
@@ -9715,19 +9715,19 @@
         <v>201.9904227308454</v>
       </c>
       <c r="Q106">
-        <v>167.0762196006182</v>
+        <v>167.0641417950364</v>
       </c>
       <c r="R106">
-        <v>120.5570910776785</v>
+        <v>120.5691917098991</v>
       </c>
       <c r="S106">
         <v>288.6123518959</v>
       </c>
       <c r="T106">
-        <v>121.4472419415909</v>
+        <v>121.442049058772</v>
       </c>
       <c r="U106">
-        <v>237.0739683137839</v>
+        <v>237.0759077387896</v>
       </c>
       <c r="V106">
         <v>4736.729089</v>
@@ -9804,19 +9804,19 @@
         <v>201.9904227308454</v>
       </c>
       <c r="Q107">
-        <v>167.0762196006182</v>
+        <v>167.0641417950364</v>
       </c>
       <c r="R107">
-        <v>120.5570910776785</v>
+        <v>120.5691917098991</v>
       </c>
       <c r="S107">
         <v>288.6123518959</v>
       </c>
       <c r="T107">
-        <v>121.4472419415909</v>
+        <v>121.442049058772</v>
       </c>
       <c r="U107">
-        <v>237.0739683137839</v>
+        <v>237.0759077387896</v>
       </c>
       <c r="V107">
         <v>5280.53326543</v>
@@ -9893,19 +9893,19 @@
         <v>201.9904227308454</v>
       </c>
       <c r="Q108">
-        <v>167.0762196006182</v>
+        <v>167.0641417950364</v>
       </c>
       <c r="R108">
-        <v>120.5570910776785</v>
+        <v>120.5691917098991</v>
       </c>
       <c r="S108">
         <v>288.6123518959</v>
       </c>
       <c r="T108">
-        <v>121.4472419415909</v>
+        <v>121.442049058772</v>
       </c>
       <c r="U108">
-        <v>237.0739683137839</v>
+        <v>237.0759077387896</v>
       </c>
       <c r="V108">
         <v>5398.125593690001</v>
@@ -9982,19 +9982,19 @@
         <v>201.9904227308454</v>
       </c>
       <c r="Q109">
-        <v>167.0762196006182</v>
+        <v>167.0641417950364</v>
       </c>
       <c r="R109">
-        <v>120.5570910776785</v>
+        <v>120.5691917098991</v>
       </c>
       <c r="S109">
         <v>288.6123518959</v>
       </c>
       <c r="T109">
-        <v>121.4472419415909</v>
+        <v>121.442049058772</v>
       </c>
       <c r="U109">
-        <v>237.0739683137839</v>
+        <v>237.0759077387896</v>
       </c>
       <c r="V109">
         <v>5889.09279366</v>
@@ -10071,19 +10071,19 @@
         <v>201.9904227308454</v>
       </c>
       <c r="Q110">
-        <v>167.0762196006182</v>
+        <v>167.0641417950364</v>
       </c>
       <c r="R110">
-        <v>120.5570910776785</v>
+        <v>120.5691917098991</v>
       </c>
       <c r="S110">
         <v>288.6123518959</v>
       </c>
       <c r="T110">
-        <v>121.4472419415909</v>
+        <v>121.442049058772</v>
       </c>
       <c r="U110">
-        <v>237.0739683137839</v>
+        <v>237.0759077387896</v>
       </c>
       <c r="V110">
         <v>4674.044441970001</v>
@@ -10124,55 +10124,55 @@
         <v>238.1752528438</v>
       </c>
       <c r="E111">
-        <v>193.3387177784</v>
+        <v>193.205861917</v>
       </c>
       <c r="F111">
-        <v>123.1906653673</v>
+        <v>123.323772321726</v>
       </c>
       <c r="G111">
         <v>280.5346234115</v>
       </c>
       <c r="H111">
-        <v>132.2648428235</v>
+        <v>132.207721112492</v>
       </c>
       <c r="I111">
-        <v>212.1006742403</v>
+        <v>212.122007915362</v>
       </c>
       <c r="J111">
         <v>0.4682295349288519</v>
       </c>
       <c r="K111">
-        <v>0.2819672375432285</v>
+        <v>0.2810863127931966</v>
       </c>
       <c r="L111">
-        <v>0.1459878678900002</v>
+        <v>0.1472261025764448</v>
       </c>
       <c r="M111">
         <v>0.3103532323635902</v>
       </c>
       <c r="N111">
-        <v>0.1909038472311722</v>
+        <v>0.1903895271446876</v>
       </c>
       <c r="O111">
-        <v>0.1004466095990768</v>
+        <v>0.1005572955762732</v>
       </c>
       <c r="P111">
         <v>201.9904227308454</v>
       </c>
       <c r="Q111">
-        <v>167.0762196006182</v>
+        <v>167.0641417950364</v>
       </c>
       <c r="R111">
-        <v>120.5570910776785</v>
+        <v>120.5691917098991</v>
       </c>
       <c r="S111">
         <v>288.6123518959</v>
       </c>
       <c r="T111">
-        <v>121.4472419415909</v>
+        <v>121.442049058772</v>
       </c>
       <c r="U111">
-        <v>237.0739683137839</v>
+        <v>237.0759077387896</v>
       </c>
       <c r="V111">
         <v>6862.570097270001</v>
@@ -10228,22 +10228,22 @@
         <v>256.280965543619</v>
       </c>
       <c r="P112">
-        <v>184.6808074461273</v>
+        <v>184.7621724314818</v>
       </c>
       <c r="Q112">
-        <v>167.8838223285364</v>
+        <v>167.8994273643636</v>
       </c>
       <c r="R112">
-        <v>109.7799961605591</v>
+        <v>109.9465870314132</v>
       </c>
       <c r="S112">
         <v>272.1286673338818</v>
       </c>
       <c r="T112">
-        <v>123.1029896345182</v>
+        <v>123.1110611787597</v>
       </c>
       <c r="U112">
-        <v>220.5339300775811</v>
+        <v>220.517498099338</v>
       </c>
       <c r="V112">
         <v>6493.159464</v>
@@ -10317,22 +10317,22 @@
         <v>-0.06087710852528994</v>
       </c>
       <c r="P113">
-        <v>184.6808074461273</v>
+        <v>184.7621724314818</v>
       </c>
       <c r="Q113">
-        <v>167.8838223285364</v>
+        <v>167.8994273643636</v>
       </c>
       <c r="R113">
-        <v>109.7799961605591</v>
+        <v>109.9465870314132</v>
       </c>
       <c r="S113">
         <v>272.1286673338818</v>
       </c>
       <c r="T113">
-        <v>123.1029896345182</v>
+        <v>123.1110611787597</v>
       </c>
       <c r="U113">
-        <v>220.5339300775811</v>
+        <v>220.517498099338</v>
       </c>
       <c r="V113">
         <v>6649.420587</v>
@@ -10406,22 +10406,22 @@
         <v>-0.01286634411360998</v>
       </c>
       <c r="P114">
-        <v>184.6808074461273</v>
+        <v>184.7621724314818</v>
       </c>
       <c r="Q114">
-        <v>167.8838223285364</v>
+        <v>167.8994273643636</v>
       </c>
       <c r="R114">
-        <v>109.7799961605591</v>
+        <v>109.9465870314132</v>
       </c>
       <c r="S114">
         <v>272.1286673338818</v>
       </c>
       <c r="T114">
-        <v>123.1029896345182</v>
+        <v>123.1110611787597</v>
       </c>
       <c r="U114">
-        <v>220.5339300775811</v>
+        <v>220.517498099338</v>
       </c>
       <c r="V114">
         <v>5089.55788</v>
@@ -10495,22 +10495,22 @@
         <v>-0.2305388297919292</v>
       </c>
       <c r="P115">
-        <v>184.6808074461273</v>
+        <v>184.7621724314818</v>
       </c>
       <c r="Q115">
-        <v>167.8838223285364</v>
+        <v>167.8994273643636</v>
       </c>
       <c r="R115">
-        <v>109.7799961605591</v>
+        <v>109.9465870314132</v>
       </c>
       <c r="S115">
         <v>272.1286673338818</v>
       </c>
       <c r="T115">
-        <v>123.1029896345182</v>
+        <v>123.1110611787597</v>
       </c>
       <c r="U115">
-        <v>220.5339300775811</v>
+        <v>220.517498099338</v>
       </c>
       <c r="V115">
         <v>4889.18343</v>
@@ -10584,22 +10584,22 @@
         <v>0.1901196966468588</v>
       </c>
       <c r="P116">
-        <v>184.6808074461273</v>
+        <v>184.7621724314818</v>
       </c>
       <c r="Q116">
-        <v>167.8838223285364</v>
+        <v>167.8994273643636</v>
       </c>
       <c r="R116">
-        <v>109.7799961605591</v>
+        <v>109.9465870314132</v>
       </c>
       <c r="S116">
         <v>272.1286673338818</v>
       </c>
       <c r="T116">
-        <v>123.1029896345182</v>
+        <v>123.1110611787597</v>
       </c>
       <c r="U116">
-        <v>220.5339300775811</v>
+        <v>220.517498099338</v>
       </c>
       <c r="V116">
         <v>3998.624197</v>
@@ -10673,22 +10673,22 @@
         <v>0.02964069435675087</v>
       </c>
       <c r="P117">
-        <v>184.6808074461273</v>
+        <v>184.7621724314818</v>
       </c>
       <c r="Q117">
-        <v>167.8838223285364</v>
+        <v>167.8994273643636</v>
       </c>
       <c r="R117">
-        <v>109.7799961605591</v>
+        <v>109.9465870314132</v>
       </c>
       <c r="S117">
         <v>272.1286673338818</v>
       </c>
       <c r="T117">
-        <v>123.1029896345182</v>
+        <v>123.1110611787597</v>
       </c>
       <c r="U117">
-        <v>220.5339300775811</v>
+        <v>220.517498099338</v>
       </c>
       <c r="V117">
         <v>4837.415762</v>
@@ -10762,22 +10762,22 @@
         <v>0.2927398506063639</v>
       </c>
       <c r="P118">
-        <v>184.6808074461273</v>
+        <v>184.7621724314818</v>
       </c>
       <c r="Q118">
-        <v>167.8838223285364</v>
+        <v>167.8994273643636</v>
       </c>
       <c r="R118">
-        <v>109.7799961605591</v>
+        <v>109.9465870314132</v>
       </c>
       <c r="S118">
         <v>272.1286673338818</v>
       </c>
       <c r="T118">
-        <v>123.1029896345182</v>
+        <v>123.1110611787597</v>
       </c>
       <c r="U118">
-        <v>220.5339300775811</v>
+        <v>220.517498099338</v>
       </c>
       <c r="V118">
         <v>4668.00952733</v>
@@ -10851,22 +10851,22 @@
         <v>-0.3431783906414388</v>
       </c>
       <c r="P119">
-        <v>184.6808074461273</v>
+        <v>184.7621724314818</v>
       </c>
       <c r="Q119">
-        <v>167.8838223285364</v>
+        <v>167.8994273643636</v>
       </c>
       <c r="R119">
-        <v>109.7799961605591</v>
+        <v>109.9465870314132</v>
       </c>
       <c r="S119">
         <v>272.1286673338818</v>
       </c>
       <c r="T119">
-        <v>123.1029896345182</v>
+        <v>123.1110611787597</v>
       </c>
       <c r="U119">
-        <v>220.5339300775811</v>
+        <v>220.517498099338</v>
       </c>
       <c r="V119">
         <v>5349.607649340001</v>
@@ -10940,22 +10940,22 @@
         <v>-0.1647028265320798</v>
       </c>
       <c r="P120">
-        <v>184.6808074461273</v>
+        <v>184.7621724314818</v>
       </c>
       <c r="Q120">
-        <v>167.8838223285364</v>
+        <v>167.8994273643636</v>
       </c>
       <c r="R120">
-        <v>109.7799961605591</v>
+        <v>109.9465870314132</v>
       </c>
       <c r="S120">
         <v>272.1286673338818</v>
       </c>
       <c r="T120">
-        <v>123.1029896345182</v>
+        <v>123.1110611787597</v>
       </c>
       <c r="U120">
-        <v>220.5339300775811</v>
+        <v>220.517498099338</v>
       </c>
       <c r="V120">
         <v>5892.6712105</v>
@@ -11029,22 +11029,22 @@
         <v>0.2500328203622517</v>
       </c>
       <c r="P121">
-        <v>184.6808074461273</v>
+        <v>184.7621724314818</v>
       </c>
       <c r="Q121">
-        <v>167.8838223285364</v>
+        <v>167.8994273643636</v>
       </c>
       <c r="R121">
-        <v>109.7799961605591</v>
+        <v>109.9465870314132</v>
       </c>
       <c r="S121">
         <v>272.1286673338818</v>
       </c>
       <c r="T121">
-        <v>123.1029896345182</v>
+        <v>123.1110611787597</v>
       </c>
       <c r="U121">
-        <v>220.5339300775811</v>
+        <v>220.517498099338</v>
       </c>
       <c r="V121">
         <v>4500.43265594</v>
@@ -11082,58 +11082,58 @@
         <v>2021</v>
       </c>
       <c r="D122">
-        <v>213.978974</v>
+        <v>214.8739888389</v>
       </c>
       <c r="E122">
-        <v>188.487149674</v>
+        <v>188.6588050681</v>
       </c>
       <c r="F122">
-        <v>112.1658722283</v>
+        <v>113.998371807694</v>
       </c>
       <c r="G122">
         <v>308.250830378</v>
       </c>
       <c r="H122">
-        <v>134.2639762537</v>
+        <v>134.352763240357</v>
       </c>
       <c r="I122">
-        <v>229.640959281</v>
+        <v>229.460207520326</v>
       </c>
       <c r="J122">
-        <v>0.3699571775386996</v>
+        <v>0.3756873293364866</v>
       </c>
       <c r="K122">
-        <v>0.2313683390554109</v>
+        <v>0.2324897471614193</v>
       </c>
       <c r="L122">
-        <v>0.09987505219988546</v>
+        <v>0.1178441592954902</v>
       </c>
       <c r="M122">
         <v>0.4012122414715391</v>
       </c>
       <c r="N122">
-        <v>0.21229536645331</v>
+        <v>0.2130970412996014</v>
       </c>
       <c r="O122">
-        <v>0.1562468630730103</v>
+        <v>0.1553367743112815</v>
       </c>
       <c r="P122">
-        <v>184.6808074461273</v>
+        <v>184.7621724314818</v>
       </c>
       <c r="Q122">
-        <v>167.8838223285364</v>
+        <v>167.8994273643636</v>
       </c>
       <c r="R122">
-        <v>109.7799961605591</v>
+        <v>109.9465870314132</v>
       </c>
       <c r="S122">
         <v>272.1286673338818</v>
       </c>
       <c r="T122">
-        <v>123.1029896345182</v>
+        <v>123.1110611787597</v>
       </c>
       <c r="U122">
-        <v>220.5339300775811</v>
+        <v>220.517498099338</v>
       </c>
       <c r="V122">
         <v>6191.188181310001</v>
@@ -11189,22 +11189,22 @@
         <v>240.95054866871</v>
       </c>
       <c r="P123">
-        <v>170.00381704316</v>
+        <v>175.3317610399455</v>
       </c>
       <c r="Q123">
-        <v>165.47068406624</v>
+        <v>167.8970237893546</v>
       </c>
       <c r="R123">
-        <v>102.3848577974986</v>
+        <v>103.9024030768696</v>
       </c>
       <c r="S123">
-        <v>248.38308174534</v>
+        <v>256.0131683106636</v>
       </c>
       <c r="T123">
-        <v>123.94421688775</v>
+        <v>124.6209595791468</v>
       </c>
       <c r="U123">
-        <v>199.6054751216285</v>
+        <v>204.452048707327</v>
       </c>
       <c r="V123">
         <v>6306.256318</v>
@@ -11278,22 +11278,22 @@
         <v>-0.08411607024119216</v>
       </c>
       <c r="P124">
-        <v>170.00381704316</v>
+        <v>175.3317610399455</v>
       </c>
       <c r="Q124">
-        <v>165.47068406624</v>
+        <v>167.8970237893546</v>
       </c>
       <c r="R124">
-        <v>102.3848577974986</v>
+        <v>103.9024030768696</v>
       </c>
       <c r="S124">
-        <v>248.38308174534</v>
+        <v>256.0131683106636</v>
       </c>
       <c r="T124">
-        <v>123.94421688775</v>
+        <v>124.6209595791468</v>
       </c>
       <c r="U124">
-        <v>199.6054751216285</v>
+        <v>204.452048707327</v>
       </c>
       <c r="V124">
         <v>6312.662723</v>
@@ -11367,22 +11367,22 @@
         <v>-0.08325365941606921</v>
       </c>
       <c r="P125">
-        <v>170.00381704316</v>
+        <v>175.3317610399455</v>
       </c>
       <c r="Q125">
-        <v>165.47068406624</v>
+        <v>167.8970237893546</v>
       </c>
       <c r="R125">
-        <v>102.3848577974986</v>
+        <v>103.9024030768696</v>
       </c>
       <c r="S125">
-        <v>248.38308174534</v>
+        <v>256.0131683106636</v>
       </c>
       <c r="T125">
-        <v>123.94421688775</v>
+        <v>124.6209595791468</v>
       </c>
       <c r="U125">
-        <v>199.6054751216285</v>
+        <v>204.452048707327</v>
       </c>
       <c r="V125">
         <v>4950.549545</v>
@@ -11456,22 +11456,22 @@
         <v>-0.1607401368775498</v>
       </c>
       <c r="P126">
-        <v>170.00381704316</v>
+        <v>175.3317610399455</v>
       </c>
       <c r="Q126">
-        <v>165.47068406624</v>
+        <v>167.8970237893546</v>
       </c>
       <c r="R126">
-        <v>102.3848577974986</v>
+        <v>103.9024030768696</v>
       </c>
       <c r="S126">
-        <v>248.38308174534</v>
+        <v>256.0131683106636</v>
       </c>
       <c r="T126">
-        <v>123.94421688775</v>
+        <v>124.6209595791468</v>
       </c>
       <c r="U126">
-        <v>199.6054751216285</v>
+        <v>204.452048707327</v>
       </c>
       <c r="V126">
         <v>4502.277984</v>
@@ -11545,22 +11545,22 @@
         <v>0.1731768131284375</v>
       </c>
       <c r="P127">
-        <v>170.00381704316</v>
+        <v>175.3317610399455</v>
       </c>
       <c r="Q127">
-        <v>165.47068406624</v>
+        <v>167.8970237893546</v>
       </c>
       <c r="R127">
-        <v>102.3848577974986</v>
+        <v>103.9024030768696</v>
       </c>
       <c r="S127">
-        <v>248.38308174534</v>
+        <v>256.0131683106636</v>
       </c>
       <c r="T127">
-        <v>123.94421688775</v>
+        <v>124.6209595791468</v>
       </c>
       <c r="U127">
-        <v>199.6054751216285</v>
+        <v>204.452048707327</v>
       </c>
       <c r="V127">
         <v>3429.332272</v>
@@ -11634,22 +11634,22 @@
         <v>0.05149219439947084</v>
       </c>
       <c r="P128">
-        <v>170.00381704316</v>
+        <v>175.3317610399455</v>
       </c>
       <c r="Q128">
-        <v>165.47068406624</v>
+        <v>167.8970237893546</v>
       </c>
       <c r="R128">
-        <v>102.3848577974986</v>
+        <v>103.9024030768696</v>
       </c>
       <c r="S128">
-        <v>248.38308174534</v>
+        <v>256.0131683106636</v>
       </c>
       <c r="T128">
-        <v>123.94421688775</v>
+        <v>124.6209595791468</v>
       </c>
       <c r="U128">
-        <v>199.6054751216285</v>
+        <v>204.452048707327</v>
       </c>
       <c r="V128">
         <v>4649.443384</v>
@@ -11723,22 +11723,22 @@
         <v>0.1581294853554307</v>
       </c>
       <c r="P129">
-        <v>170.00381704316</v>
+        <v>175.3317610399455</v>
       </c>
       <c r="Q129">
-        <v>165.47068406624</v>
+        <v>167.8970237893546</v>
       </c>
       <c r="R129">
-        <v>102.3848577974986</v>
+        <v>103.9024030768696</v>
       </c>
       <c r="S129">
-        <v>248.38308174534</v>
+        <v>256.0131683106636</v>
       </c>
       <c r="T129">
-        <v>123.94421688775</v>
+        <v>124.6209595791468</v>
       </c>
       <c r="U129">
-        <v>199.6054751216285</v>
+        <v>204.452048707327</v>
       </c>
       <c r="V129">
         <v>4578.420998699999</v>
@@ -11812,22 +11812,22 @@
         <v>-0.2809003103797273</v>
       </c>
       <c r="P130">
-        <v>170.00381704316</v>
+        <v>175.3317610399455</v>
       </c>
       <c r="Q130">
-        <v>165.47068406624</v>
+        <v>167.8970237893546</v>
       </c>
       <c r="R130">
-        <v>102.3848577974986</v>
+        <v>103.9024030768696</v>
       </c>
       <c r="S130">
-        <v>248.38308174534</v>
+        <v>256.0131683106636</v>
       </c>
       <c r="T130">
-        <v>123.94421688775</v>
+        <v>124.6209595791468</v>
       </c>
       <c r="U130">
-        <v>199.6054751216285</v>
+        <v>204.452048707327</v>
       </c>
       <c r="V130">
         <v>5336.41428693</v>
@@ -11901,22 +11901,22 @@
         <v>-0.1646176653184266</v>
       </c>
       <c r="P131">
-        <v>170.00381704316</v>
+        <v>175.3317610399455</v>
       </c>
       <c r="Q131">
-        <v>165.47068406624</v>
+        <v>167.8970237893546</v>
       </c>
       <c r="R131">
-        <v>102.3848577974986</v>
+        <v>103.9024030768696</v>
       </c>
       <c r="S131">
-        <v>248.38308174534</v>
+        <v>256.0131683106636</v>
       </c>
       <c r="T131">
-        <v>123.94421688775</v>
+        <v>124.6209595791468</v>
       </c>
       <c r="U131">
-        <v>199.6054751216285</v>
+        <v>204.452048707327</v>
       </c>
       <c r="V131">
         <v>5374.34537988</v>
@@ -11990,22 +11990,22 @@
         <v>0.3104058547727588</v>
       </c>
       <c r="P132">
-        <v>170.00381704316</v>
+        <v>175.3317610399455</v>
       </c>
       <c r="Q132">
-        <v>165.47068406624</v>
+        <v>167.8970237893546</v>
       </c>
       <c r="R132">
-        <v>102.3848577974986</v>
+        <v>103.9024030768696</v>
       </c>
       <c r="S132">
-        <v>248.38308174534</v>
+        <v>256.0131683106636</v>
       </c>
       <c r="T132">
-        <v>123.94421688775</v>
+        <v>124.6209595791468</v>
       </c>
       <c r="U132">
-        <v>199.6054751216285</v>
+        <v>204.452048707327</v>
       </c>
       <c r="V132">
         <v>3544.06809958</v>
@@ -12042,23 +12042,59 @@
       <c r="C133">
         <v>2021</v>
       </c>
+      <c r="D133">
+        <v>228.6112010078</v>
+      </c>
+      <c r="E133">
+        <v>192.1604210205</v>
+      </c>
+      <c r="F133">
+        <v>119.07785587058</v>
+      </c>
+      <c r="G133">
+        <v>332.3140339639</v>
+      </c>
+      <c r="H133">
+        <v>131.388386493115</v>
+      </c>
+      <c r="I133">
+        <v>252.917784564312</v>
+      </c>
+      <c r="J133">
+        <v>0.8586343092131949</v>
+      </c>
+      <c r="K133">
+        <v>0.2687726433934676</v>
+      </c>
+      <c r="L133">
+        <v>0.4660772958765529</v>
+      </c>
+      <c r="M133">
+        <v>0.5905395464670469</v>
+      </c>
+      <c r="N133">
+        <v>0.1997427746280815</v>
+      </c>
+      <c r="O133">
+        <v>0.3245199850009624</v>
+      </c>
       <c r="P133">
-        <v>170.00381704316</v>
+        <v>175.3317610399455</v>
       </c>
       <c r="Q133">
-        <v>165.47068406624</v>
+        <v>167.8970237893546</v>
       </c>
       <c r="R133">
-        <v>102.3848577974986</v>
+        <v>103.9024030768696</v>
       </c>
       <c r="S133">
-        <v>248.38308174534</v>
+        <v>256.0131683106636</v>
       </c>
       <c r="T133">
-        <v>123.94421688775</v>
+        <v>124.6209595791468</v>
       </c>
       <c r="U133">
-        <v>199.6054751216285</v>
+        <v>204.452048707327</v>
       </c>
       <c r="V133">
         <v>6587.00000611</v>

--- a/Estacionalidad/outputs/datossss.xlsx
+++ b/Estacionalidad/outputs/datossss.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="44">
   <si>
     <t>Mes_num</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t>v_impo_var</t>
+  </si>
+  <si>
+    <t>ITI</t>
+  </si>
+  <si>
+    <t>ITI_var</t>
+  </si>
+  <si>
+    <t>ITI_media</t>
   </si>
   <si>
     <t>ene</t>
@@ -494,13 +503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC133"/>
+  <dimension ref="A1:AF133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,13 +597,22 @@
       <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:32">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C2">
         <v>2011</v>
@@ -659,13 +677,22 @@
       <c r="AC2">
         <v>0.523502361382775</v>
       </c>
+      <c r="AD2">
+        <v>140.1470898191464</v>
+      </c>
+      <c r="AE2">
+        <v>0.03748339012382873</v>
+      </c>
+      <c r="AF2">
+        <v>137.6455277471591</v>
+      </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:32">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C3">
         <v>2012</v>
@@ -748,13 +775,22 @@
       <c r="AC3">
         <v>0.0970600947957887</v>
       </c>
+      <c r="AD3">
+        <v>145.295026524668</v>
+      </c>
+      <c r="AE3">
+        <v>0.03673238389869393</v>
+      </c>
+      <c r="AF3">
+        <v>137.6455277471591</v>
+      </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:32">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C4">
         <v>2013</v>
@@ -837,13 +873,22 @@
       <c r="AC4">
         <v>-0.001030129211186281</v>
       </c>
+      <c r="AD4">
+        <v>145.0802108603752</v>
+      </c>
+      <c r="AE4">
+        <v>-0.00147847912919663</v>
+      </c>
+      <c r="AF4">
+        <v>137.6455277471591</v>
+      </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:32">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C5">
         <v>2014</v>
@@ -926,13 +971,22 @@
       <c r="AC5">
         <v>0.05419765291243084</v>
       </c>
+      <c r="AD5">
+        <v>136.0155548247364</v>
+      </c>
+      <c r="AE5">
+        <v>-0.06248030645862945</v>
+      </c>
+      <c r="AF5">
+        <v>137.6455277471591</v>
+      </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:32">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>2015</v>
@@ -1015,13 +1069,22 @@
       <c r="AC6">
         <v>-0.2276527347088668</v>
       </c>
+      <c r="AD6">
+        <v>134.8203494953468</v>
+      </c>
+      <c r="AE6">
+        <v>-0.008787269448186974</v>
+      </c>
+      <c r="AF6">
+        <v>137.6455277471591</v>
+      </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:32">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>2016</v>
@@ -1104,13 +1167,22 @@
       <c r="AC7">
         <v>-0.05488181263505887</v>
       </c>
+      <c r="AD7">
+        <v>126.4312873255282</v>
+      </c>
+      <c r="AE7">
+        <v>-0.06222400550970297</v>
+      </c>
+      <c r="AF7">
+        <v>137.6455277471591</v>
+      </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:32">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>2017</v>
@@ -1193,13 +1265,22 @@
       <c r="AC8">
         <v>0.0535637454354394</v>
       </c>
+      <c r="AD8">
+        <v>134.0277117985371</v>
+      </c>
+      <c r="AE8">
+        <v>0.06008342265352407</v>
+      </c>
+      <c r="AF8">
+        <v>137.6455277471591</v>
+      </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:32">
       <c r="A9">
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>2018</v>
@@ -1282,13 +1363,22 @@
       <c r="AC9">
         <v>0.3220787527470592</v>
       </c>
+      <c r="AD9">
+        <v>136.4047285091626</v>
+      </c>
+      <c r="AE9">
+        <v>0.01773526294471495</v>
+      </c>
+      <c r="AF9">
+        <v>137.6455277471591</v>
+      </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:32">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C10">
         <v>2019</v>
@@ -1371,13 +1461,22 @@
       <c r="AC10">
         <v>-0.2666527493323592</v>
       </c>
+      <c r="AD10">
+        <v>130.3537178049512</v>
+      </c>
+      <c r="AE10">
+        <v>-0.04436071073448844</v>
+      </c>
+      <c r="AF10">
+        <v>137.6455277471591</v>
+      </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:32">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C11">
         <v>2020</v>
@@ -1460,13 +1559,22 @@
       <c r="AC11">
         <v>-0.1605897398396399</v>
       </c>
+      <c r="AD11">
+        <v>136.6772149141131</v>
+      </c>
+      <c r="AE11">
+        <v>0.04851029349714264</v>
+      </c>
+      <c r="AF11">
+        <v>137.6455277471591</v>
+      </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:32">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>2021</v>
@@ -1549,13 +1657,22 @@
       <c r="AC12">
         <v>0.08715013619534617</v>
       </c>
+      <c r="AD12">
+        <v>148.8479133421853</v>
+      </c>
+      <c r="AE12">
+        <v>0.08904701808359339</v>
+      </c>
+      <c r="AF12">
+        <v>137.6455277471591</v>
+      </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:32">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C13">
         <v>2011</v>
@@ -1620,13 +1737,22 @@
       <c r="AC13">
         <v>0.3789288947409792</v>
       </c>
+      <c r="AD13">
+        <v>140.3663001604104</v>
+      </c>
+      <c r="AE13">
+        <v>0.0927934113387987</v>
+      </c>
+      <c r="AF13">
+        <v>134.9208881376577</v>
+      </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:32">
       <c r="A14">
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C14">
         <v>2012</v>
@@ -1709,13 +1835,22 @@
       <c r="AC14">
         <v>-0.008250503955039457</v>
       </c>
+      <c r="AD14">
+        <v>143.264458918516</v>
+      </c>
+      <c r="AE14">
+        <v>0.02064711226835469</v>
+      </c>
+      <c r="AF14">
+        <v>134.9208881376577</v>
+      </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:32">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>2013</v>
@@ -1798,13 +1933,22 @@
       <c r="AC15">
         <v>0.09518888554801919</v>
       </c>
+      <c r="AD15">
+        <v>139.3355720035588</v>
+      </c>
+      <c r="AE15">
+        <v>-0.02742401670739392</v>
+      </c>
+      <c r="AF15">
+        <v>134.9208881376577</v>
+      </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:32">
       <c r="A16">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>2014</v>
@@ -1887,13 +2031,22 @@
       <c r="AC16">
         <v>0.07009174026786802</v>
       </c>
+      <c r="AD16">
+        <v>138.9203344590518</v>
+      </c>
+      <c r="AE16">
+        <v>-0.002980125882688589</v>
+      </c>
+      <c r="AF16">
+        <v>134.9208881376577</v>
+      </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:32">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C17">
         <v>2015</v>
@@ -1976,13 +2129,22 @@
       <c r="AC17">
         <v>-0.262387042966275</v>
       </c>
+      <c r="AD17">
+        <v>128.1568853055665</v>
+      </c>
+      <c r="AE17">
+        <v>-0.07747929196541037</v>
+      </c>
+      <c r="AF17">
+        <v>134.9208881376577</v>
+      </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:32">
       <c r="A18">
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C18">
         <v>2016</v>
@@ -2065,13 +2227,22 @@
       <c r="AC18">
         <v>0.00286165453031173</v>
       </c>
+      <c r="AD18">
+        <v>129.5314861018409</v>
+      </c>
+      <c r="AE18">
+        <v>0.01072592231776648</v>
+      </c>
+      <c r="AF18">
+        <v>134.9208881376577</v>
+      </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:32">
       <c r="A19">
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C19">
         <v>2017</v>
@@ -2154,13 +2325,22 @@
       <c r="AC19">
         <v>0.005124722916995283</v>
       </c>
+      <c r="AD19">
+        <v>128.0978268857293</v>
+      </c>
+      <c r="AE19">
+        <v>-0.01106803650028665</v>
+      </c>
+      <c r="AF19">
+        <v>134.9208881376577</v>
+      </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:32">
       <c r="A20">
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C20">
         <v>2018</v>
@@ -2243,13 +2423,22 @@
       <c r="AC20">
         <v>0.262027535498794</v>
       </c>
+      <c r="AD20">
+        <v>129.1442967864538</v>
+      </c>
+      <c r="AE20">
+        <v>0.008169302525779631</v>
+      </c>
+      <c r="AF20">
+        <v>134.9208881376577</v>
+      </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:32">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C21">
         <v>2019</v>
@@ -2332,13 +2521,22 @@
       <c r="AC21">
         <v>-0.2305710800642351</v>
       </c>
+      <c r="AD21">
+        <v>128.1122625108115</v>
+      </c>
+      <c r="AE21">
+        <v>-0.007991326766437434</v>
+      </c>
+      <c r="AF21">
+        <v>134.9208881376577</v>
+      </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:32">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C22">
         <v>2020</v>
@@ -2421,13 +2619,22 @@
       <c r="AC22">
         <v>-0.2017823513879426</v>
       </c>
+      <c r="AD22">
+        <v>129.4934881700457</v>
+      </c>
+      <c r="AE22">
+        <v>0.01078136965317933</v>
+      </c>
+      <c r="AF22">
+        <v>134.9208881376577</v>
+      </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:32">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C23">
         <v>2021</v>
@@ -2510,13 +2717,22 @@
       <c r="AC23">
         <v>0.1634019828879179</v>
       </c>
+      <c r="AD23">
+        <v>149.70685821225</v>
+      </c>
+      <c r="AE23">
+        <v>0.1560956487299259</v>
+      </c>
+      <c r="AF23">
+        <v>134.9208881376577</v>
+      </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:32">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C24">
         <v>2011</v>
@@ -2581,13 +2797,22 @@
       <c r="AC24">
         <v>0.2813500789795134</v>
       </c>
+      <c r="AD24">
+        <v>139.9492081059655</v>
+      </c>
+      <c r="AE24">
+        <v>0.1274221133773965</v>
+      </c>
+      <c r="AF24">
+        <v>134.0265105079613</v>
+      </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:32">
       <c r="A25">
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>2012</v>
@@ -2670,13 +2895,22 @@
       <c r="AC25">
         <v>-0.08775581007767985</v>
       </c>
+      <c r="AD25">
+        <v>148.2614535552861</v>
+      </c>
+      <c r="AE25">
+        <v>0.05939473014400232</v>
+      </c>
+      <c r="AF25">
+        <v>134.0265105079613</v>
+      </c>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:32">
       <c r="A26">
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C26">
         <v>2013</v>
@@ -2759,13 +2993,22 @@
       <c r="AC26">
         <v>0.09184292861445686</v>
       </c>
+      <c r="AD26">
+        <v>138.8518678185956</v>
+      </c>
+      <c r="AE26">
+        <v>-0.06346616407063399</v>
+      </c>
+      <c r="AF26">
+        <v>134.0265105079613</v>
+      </c>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:32">
       <c r="A27">
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C27">
         <v>2014</v>
@@ -2848,13 +3091,22 @@
       <c r="AC27">
         <v>-0.04080451055973067</v>
       </c>
+      <c r="AD27">
+        <v>128.5254227924407</v>
+      </c>
+      <c r="AE27">
+        <v>-0.07437022769939294</v>
+      </c>
+      <c r="AF27">
+        <v>134.0265105079613</v>
+      </c>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:32">
       <c r="A28">
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C28">
         <v>2015</v>
@@ -2937,13 +3189,22 @@
       <c r="AC28">
         <v>-0.0614245228662319</v>
       </c>
+      <c r="AD28">
+        <v>124.7575712005926</v>
+      </c>
+      <c r="AE28">
+        <v>-0.02931600231288767</v>
+      </c>
+      <c r="AF28">
+        <v>134.0265105079613</v>
+      </c>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:32">
       <c r="A29">
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C29">
         <v>2016</v>
@@ -3026,13 +3287,22 @@
       <c r="AC29">
         <v>-0.09932887940633817</v>
       </c>
+      <c r="AD29">
+        <v>130.0414384088916</v>
+      </c>
+      <c r="AE29">
+        <v>0.04235307851419523</v>
+      </c>
+      <c r="AF29">
+        <v>134.0265105079613</v>
+      </c>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:32">
       <c r="A30">
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C30">
         <v>2017</v>
@@ -3115,13 +3385,22 @@
       <c r="AC30">
         <v>0.2016234471396983</v>
       </c>
+      <c r="AD30">
+        <v>129.731391564886</v>
+      </c>
+      <c r="AE30">
+        <v>-0.002384215737684436</v>
+      </c>
+      <c r="AF30">
+        <v>134.0265105079613</v>
+      </c>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:32">
       <c r="A31">
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C31">
         <v>2018</v>
@@ -3204,13 +3483,22 @@
       <c r="AC31">
         <v>0.09204892667180409</v>
       </c>
+      <c r="AD31">
+        <v>134.075307258832</v>
+      </c>
+      <c r="AE31">
+        <v>0.03348392121249488</v>
+      </c>
+      <c r="AF31">
+        <v>134.0265105079613</v>
+      </c>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="1:32">
       <c r="A32">
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C32">
         <v>2019</v>
@@ -3293,13 +3581,22 @@
       <c r="AC32">
         <v>-0.3382930167239859</v>
       </c>
+      <c r="AD32">
+        <v>128.7858066616341</v>
+      </c>
+      <c r="AE32">
+        <v>-0.03945171340899112</v>
+      </c>
+      <c r="AF32">
+        <v>134.0265105079613</v>
+      </c>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33" spans="1:32">
       <c r="A33">
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C33">
         <v>2020</v>
@@ -3382,13 +3679,22 @@
       <c r="AC33">
         <v>-0.2027455456725192</v>
       </c>
+      <c r="AD33">
+        <v>128.6212754018621</v>
+      </c>
+      <c r="AE33">
+        <v>-0.001277557395779616</v>
+      </c>
+      <c r="AF33">
+        <v>134.0265105079613</v>
+      </c>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" spans="1:32">
       <c r="A34">
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C34">
         <v>2021</v>
@@ -3471,13 +3777,22 @@
       <c r="AC34">
         <v>0.6867008742266303</v>
       </c>
+      <c r="AD34">
+        <v>142.6908728185885</v>
+      </c>
+      <c r="AE34">
+        <v>0.1093877927486542</v>
+      </c>
+      <c r="AF34">
+        <v>134.0265105079613</v>
+      </c>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" spans="1:32">
       <c r="A35">
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>2011</v>
@@ -3542,13 +3857,22 @@
       <c r="AC35">
         <v>0.3491587199428436</v>
       </c>
+      <c r="AD35">
+        <v>138.157866352344</v>
+      </c>
+      <c r="AE35">
+        <v>0.1458613604770087</v>
+      </c>
+      <c r="AF35">
+        <v>132.8620301433149</v>
+      </c>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:32">
       <c r="A36">
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>2012</v>
@@ -3631,13 +3955,22 @@
       <c r="AC36">
         <v>-0.1379182896681743</v>
       </c>
+      <c r="AD36">
+        <v>135.7739550141928</v>
+      </c>
+      <c r="AE36">
+        <v>-0.01725498084974442</v>
+      </c>
+      <c r="AF36">
+        <v>132.8620301433149</v>
+      </c>
     </row>
-    <row r="37" spans="1:29">
+    <row r="37" spans="1:32">
       <c r="A37">
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>2013</v>
@@ -3720,13 +4053,22 @@
       <c r="AC37">
         <v>0.2984701344154055</v>
       </c>
+      <c r="AD37">
+        <v>133.2173040544993</v>
+      </c>
+      <c r="AE37">
+        <v>-0.0188302017086136</v>
+      </c>
+      <c r="AF37">
+        <v>132.8620301433149</v>
+      </c>
     </row>
-    <row r="38" spans="1:29">
+    <row r="38" spans="1:32">
       <c r="A38">
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>2014</v>
@@ -3809,13 +4151,22 @@
       <c r="AC38">
         <v>-0.08675589108569781</v>
       </c>
+      <c r="AD38">
+        <v>134.89201336386</v>
+      </c>
+      <c r="AE38">
+        <v>0.01257125957657546</v>
+      </c>
+      <c r="AF38">
+        <v>132.8620301433149</v>
+      </c>
     </row>
-    <row r="39" spans="1:29">
+    <row r="39" spans="1:32">
       <c r="A39">
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>2015</v>
@@ -3898,13 +4249,22 @@
       <c r="AC39">
         <v>-0.127859645929598</v>
       </c>
+      <c r="AD39">
+        <v>124.2208291656289</v>
+      </c>
+      <c r="AE39">
+        <v>-0.0791090883153065</v>
+      </c>
+      <c r="AF39">
+        <v>132.8620301433149</v>
+      </c>
     </row>
-    <row r="40" spans="1:29">
+    <row r="40" spans="1:32">
       <c r="A40">
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>2016</v>
@@ -3987,13 +4347,22 @@
       <c r="AC40">
         <v>-0.103446182976767</v>
       </c>
+      <c r="AD40">
+        <v>130.4039698280918</v>
+      </c>
+      <c r="AE40">
+        <v>0.04977539357927441</v>
+      </c>
+      <c r="AF40">
+        <v>132.8620301433149</v>
+      </c>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:32">
       <c r="A41">
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>2017</v>
@@ -4076,13 +4445,22 @@
       <c r="AC41">
         <v>0.1244640462140472</v>
       </c>
+      <c r="AD41">
+        <v>126.9500033721569</v>
+      </c>
+      <c r="AE41">
+        <v>-0.02648666647563158</v>
+      </c>
+      <c r="AF41">
+        <v>132.8620301433149</v>
+      </c>
     </row>
-    <row r="42" spans="1:29">
+    <row r="42" spans="1:32">
       <c r="A42">
         <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>2018</v>
@@ -4165,13 +4543,22 @@
       <c r="AC42">
         <v>0.2277215519551674</v>
       </c>
+      <c r="AD42">
+        <v>138.4577490588026</v>
+      </c>
+      <c r="AE42">
+        <v>0.09064785648654539</v>
+      </c>
+      <c r="AF42">
+        <v>132.8620301433149</v>
+      </c>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43" spans="1:32">
       <c r="A43">
         <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>2019</v>
@@ -4254,13 +4641,22 @@
       <c r="AC43">
         <v>-0.316645073515244</v>
       </c>
+      <c r="AD43">
+        <v>130.6279426002859</v>
+      </c>
+      <c r="AE43">
+        <v>-0.05655014985973372</v>
+      </c>
+      <c r="AF43">
+        <v>132.8620301433149</v>
+      </c>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44" spans="1:32">
       <c r="A44">
         <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>2020</v>
@@ -4343,13 +4739,22 @@
       <c r="AC44">
         <v>-0.3062742189868776</v>
       </c>
+      <c r="AD44">
+        <v>123.9560548757316</v>
+      </c>
+      <c r="AE44">
+        <v>-0.05107550185468279</v>
+      </c>
+      <c r="AF44">
+        <v>132.8620301433149</v>
+      </c>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" spans="1:32">
       <c r="A45">
         <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>2021</v>
@@ -4432,13 +4837,22 @@
       <c r="AC45">
         <v>0.6144195399666204</v>
       </c>
+      <c r="AD45">
+        <v>144.8246438908704</v>
+      </c>
+      <c r="AE45">
+        <v>0.1683547369756162</v>
+      </c>
+      <c r="AF45">
+        <v>132.8620301433149</v>
+      </c>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46" spans="1:32">
       <c r="A46">
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C46">
         <v>2011</v>
@@ -4503,13 +4917,22 @@
       <c r="AC46">
         <v>0.4184271080778834</v>
       </c>
+      <c r="AD46">
+        <v>134.5596839534473</v>
+      </c>
+      <c r="AE46">
+        <v>0.1900065451549404</v>
+      </c>
+      <c r="AF46">
+        <v>131.8336534128878</v>
+      </c>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" spans="1:32">
       <c r="A47">
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C47">
         <v>2012</v>
@@ -4592,13 +5015,22 @@
       <c r="AC47">
         <v>-0.07746471133598676</v>
       </c>
+      <c r="AD47">
+        <v>132.5526022082678</v>
+      </c>
+      <c r="AE47">
+        <v>-0.01491592196273228</v>
+      </c>
+      <c r="AF47">
+        <v>131.8336534128878</v>
+      </c>
     </row>
-    <row r="48" spans="1:29">
+    <row r="48" spans="1:32">
       <c r="A48">
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C48">
         <v>2013</v>
@@ -4681,13 +5113,22 @@
       <c r="AC48">
         <v>0.1738720264539917</v>
       </c>
+      <c r="AD48">
+        <v>131.6435286031115</v>
+      </c>
+      <c r="AE48">
+        <v>-0.006858210174764179</v>
+      </c>
+      <c r="AF48">
+        <v>131.8336534128878</v>
+      </c>
     </row>
-    <row r="49" spans="1:29">
+    <row r="49" spans="1:32">
       <c r="A49">
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C49">
         <v>2014</v>
@@ -4770,13 +5211,22 @@
       <c r="AC49">
         <v>-0.1780244528582049</v>
       </c>
+      <c r="AD49">
+        <v>138.4614258692378</v>
+      </c>
+      <c r="AE49">
+        <v>0.05179059949601772</v>
+      </c>
+      <c r="AF49">
+        <v>131.8336534128878</v>
+      </c>
     </row>
-    <row r="50" spans="1:29">
+    <row r="50" spans="1:32">
       <c r="A50">
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C50">
         <v>2015</v>
@@ -4859,13 +5309,22 @@
       <c r="AC50">
         <v>-0.1339844390959359</v>
       </c>
+      <c r="AD50">
+        <v>119.5820938420155</v>
+      </c>
+      <c r="AE50">
+        <v>-0.1363508421836701</v>
+      </c>
+      <c r="AF50">
+        <v>131.8336534128878</v>
+      </c>
     </row>
-    <row r="51" spans="1:29">
+    <row r="51" spans="1:32">
       <c r="A51">
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C51">
         <v>2016</v>
@@ -4948,13 +5407,22 @@
       <c r="AC51">
         <v>-0.02584965370915671</v>
       </c>
+      <c r="AD51">
+        <v>131.6346640924074</v>
+      </c>
+      <c r="AE51">
+        <v>0.1007890885931053</v>
+      </c>
+      <c r="AF51">
+        <v>131.8336534128878</v>
+      </c>
     </row>
-    <row r="52" spans="1:29">
+    <row r="52" spans="1:32">
       <c r="A52">
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C52">
         <v>2017</v>
@@ -5037,13 +5505,22 @@
       <c r="AC52">
         <v>0.2443289226745911</v>
       </c>
+      <c r="AD52">
+        <v>126.242693274929</v>
+      </c>
+      <c r="AE52">
+        <v>-0.04096163312798218</v>
+      </c>
+      <c r="AF52">
+        <v>131.8336534128878</v>
+      </c>
     </row>
-    <row r="53" spans="1:29">
+    <row r="53" spans="1:32">
       <c r="A53">
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C53">
         <v>2018</v>
@@ -5126,13 +5603,22 @@
       <c r="AC53">
         <v>0.06326841586799947</v>
       </c>
+      <c r="AD53">
+        <v>139.460382741722</v>
+      </c>
+      <c r="AE53">
+        <v>0.1047006295881829</v>
+      </c>
+      <c r="AF53">
+        <v>131.8336534128878</v>
+      </c>
     </row>
-    <row r="54" spans="1:29">
+    <row r="54" spans="1:32">
       <c r="A54">
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C54">
         <v>2019</v>
@@ -5215,13 +5701,22 @@
       <c r="AC54">
         <v>-0.2796544160217044</v>
       </c>
+      <c r="AD54">
+        <v>129.0277848638889</v>
+      </c>
+      <c r="AE54">
+        <v>-0.074806892629529</v>
+      </c>
+      <c r="AF54">
+        <v>131.8336534128878</v>
+      </c>
     </row>
-    <row r="55" spans="1:29">
+    <row r="55" spans="1:32">
       <c r="A55">
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C55">
         <v>2020</v>
@@ -5304,13 +5799,22 @@
       <c r="AC55">
         <v>-0.3183913330668571</v>
       </c>
+      <c r="AD55">
+        <v>122.4989977428031</v>
+      </c>
+      <c r="AE55">
+        <v>-0.05059985434899184</v>
+      </c>
+      <c r="AF55">
+        <v>131.8336534128878</v>
+      </c>
     </row>
-    <row r="56" spans="1:29">
+    <row r="56" spans="1:32">
       <c r="A56">
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C56">
         <v>2021</v>
@@ -5393,13 +5897,22 @@
       <c r="AC56">
         <v>0.6238528638744085</v>
       </c>
+      <c r="AD56">
+        <v>144.5063303499352</v>
+      </c>
+      <c r="AE56">
+        <v>0.1796531646188508</v>
+      </c>
+      <c r="AF56">
+        <v>131.8336534128878</v>
+      </c>
     </row>
-    <row r="57" spans="1:29">
+    <row r="57" spans="1:32">
       <c r="A57">
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C57">
         <v>2011</v>
@@ -5464,13 +5977,22 @@
       <c r="AC57">
         <v>0.3015963108185993</v>
       </c>
+      <c r="AD57">
+        <v>130.8959975586919</v>
+      </c>
+      <c r="AE57">
+        <v>0.1233689959197111</v>
+      </c>
+      <c r="AF57">
+        <v>131.8503426514172</v>
+      </c>
     </row>
-    <row r="58" spans="1:29">
+    <row r="58" spans="1:32">
       <c r="A58">
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C58">
         <v>2012</v>
@@ -5553,13 +6075,22 @@
       <c r="AC58">
         <v>-0.1000880010943447</v>
       </c>
+      <c r="AD58">
+        <v>133.9923028815652</v>
+      </c>
+      <c r="AE58">
+        <v>0.02365469823846178</v>
+      </c>
+      <c r="AF58">
+        <v>131.8503426514172</v>
+      </c>
     </row>
-    <row r="59" spans="1:29">
+    <row r="59" spans="1:32">
       <c r="A59">
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C59">
         <v>2013</v>
@@ -5642,13 +6173,22 @@
       <c r="AC59">
         <v>0.1009864651799957</v>
       </c>
+      <c r="AD59">
+        <v>129.3588169657442</v>
+      </c>
+      <c r="AE59">
+        <v>-0.03458023943298083</v>
+      </c>
+      <c r="AF59">
+        <v>131.8503426514172</v>
+      </c>
     </row>
-    <row r="60" spans="1:29">
+    <row r="60" spans="1:32">
       <c r="A60">
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C60">
         <v>2014</v>
@@ -5731,13 +6271,22 @@
       <c r="AC60">
         <v>-0.1196819557934453</v>
       </c>
+      <c r="AD60">
+        <v>134.6097570740081</v>
+      </c>
+      <c r="AE60">
+        <v>0.04059205419027911</v>
+      </c>
+      <c r="AF60">
+        <v>131.8503426514172</v>
+      </c>
     </row>
-    <row r="61" spans="1:29">
+    <row r="61" spans="1:32">
       <c r="A61">
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C61">
         <v>2015</v>
@@ -5820,13 +6369,22 @@
       <c r="AC61">
         <v>-0.02406350680923541</v>
       </c>
+      <c r="AD61">
+        <v>121.4161101089869</v>
+      </c>
+      <c r="AE61">
+        <v>-0.09801404632033728</v>
+      </c>
+      <c r="AF61">
+        <v>131.8503426514172</v>
+      </c>
     </row>
-    <row r="62" spans="1:29">
+    <row r="62" spans="1:32">
       <c r="A62">
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C62">
         <v>2016</v>
@@ -5909,13 +6467,22 @@
       <c r="AC62">
         <v>-0.115767839578338</v>
       </c>
+      <c r="AD62">
+        <v>137.1704195128935</v>
+      </c>
+      <c r="AE62">
+        <v>0.1297546873290951</v>
+      </c>
+      <c r="AF62">
+        <v>131.8503426514172</v>
+      </c>
     </row>
-    <row r="63" spans="1:29">
+    <row r="63" spans="1:32">
       <c r="A63">
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C63">
         <v>2017</v>
@@ -5998,13 +6565,22 @@
       <c r="AC63">
         <v>0.1687928365290272</v>
       </c>
+      <c r="AD63">
+        <v>127.7268868075617</v>
+      </c>
+      <c r="AE63">
+        <v>-0.06884525642530459</v>
+      </c>
+      <c r="AF63">
+        <v>131.8503426514172</v>
+      </c>
     </row>
-    <row r="64" spans="1:29">
+    <row r="64" spans="1:32">
       <c r="A64">
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C64">
         <v>2018</v>
@@ -6087,13 +6663,22 @@
       <c r="AC64">
         <v>-0.0741128977856611</v>
       </c>
+      <c r="AD64">
+        <v>134.1222299541411</v>
+      </c>
+      <c r="AE64">
+        <v>0.05007045349985595</v>
+      </c>
+      <c r="AF64">
+        <v>131.8503426514172</v>
+      </c>
     </row>
-    <row r="65" spans="1:29">
+    <row r="65" spans="1:32">
       <c r="A65">
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C65">
         <v>2019</v>
@@ -6176,13 +6761,22 @@
       <c r="AC65">
         <v>-0.2361514341294483</v>
       </c>
+      <c r="AD65">
+        <v>128.518136827369</v>
+      </c>
+      <c r="AE65">
+        <v>-0.04178347712149033</v>
+      </c>
+      <c r="AF65">
+        <v>131.8503426514172</v>
+      </c>
     </row>
-    <row r="66" spans="1:29">
+    <row r="66" spans="1:32">
       <c r="A66">
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C66">
         <v>2020</v>
@@ -6265,13 +6859,22 @@
       <c r="AC66">
         <v>-0.2090632688802001</v>
       </c>
+      <c r="AD66">
+        <v>130.727532434294</v>
+      </c>
+      <c r="AE66">
+        <v>0.01719131370456073</v>
+      </c>
+      <c r="AF66">
+        <v>131.8503426514172</v>
+      </c>
     </row>
-    <row r="67" spans="1:29">
+    <row r="67" spans="1:32">
       <c r="A67">
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C67">
         <v>2021</v>
@@ -6354,13 +6957,22 @@
       <c r="AC67">
         <v>0.790915933034948</v>
       </c>
+      <c r="AD67">
+        <v>141.8155790403333</v>
+      </c>
+      <c r="AE67">
+        <v>0.08481799051483163</v>
+      </c>
+      <c r="AF67">
+        <v>131.8503426514172</v>
+      </c>
     </row>
-    <row r="68" spans="1:29">
+    <row r="68" spans="1:32">
       <c r="A68">
         <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C68">
         <v>2011</v>
@@ -6425,13 +7037,22 @@
       <c r="AC68">
         <v>0.2963885650291411</v>
       </c>
+      <c r="AD68">
+        <v>133.6596344429055</v>
+      </c>
+      <c r="AE68">
+        <v>0.1275148751469983</v>
+      </c>
+      <c r="AF68">
+        <v>132.8499118901065</v>
+      </c>
     </row>
-    <row r="69" spans="1:29">
+    <row r="69" spans="1:32">
       <c r="A69">
         <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C69">
         <v>2012</v>
@@ -6514,13 +7135,22 @@
       <c r="AC69">
         <v>-0.07489446730170313</v>
       </c>
+      <c r="AD69">
+        <v>140.4742204725378</v>
+      </c>
+      <c r="AE69">
+        <v>0.05098462268010451</v>
+      </c>
+      <c r="AF69">
+        <v>132.8499118901065</v>
+      </c>
     </row>
-    <row r="70" spans="1:29">
+    <row r="70" spans="1:32">
       <c r="A70">
         <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C70">
         <v>2013</v>
@@ -6603,13 +7233,22 @@
       <c r="AC70">
         <v>0.101385571332993</v>
       </c>
+      <c r="AD70">
+        <v>136.1071641863124</v>
+      </c>
+      <c r="AE70">
+        <v>-0.03108795529553487</v>
+      </c>
+      <c r="AF70">
+        <v>132.8499118901065</v>
+      </c>
     </row>
-    <row r="71" spans="1:29">
+    <row r="71" spans="1:32">
       <c r="A71">
         <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C71">
         <v>2014</v>
@@ -6692,13 +7331,22 @@
       <c r="AC71">
         <v>-0.1206428434428105</v>
       </c>
+      <c r="AD71">
+        <v>130.2037750180781</v>
+      </c>
+      <c r="AE71">
+        <v>-0.04337309651204935</v>
+      </c>
+      <c r="AF71">
+        <v>132.8499118901065</v>
+      </c>
     </row>
-    <row r="72" spans="1:29">
+    <row r="72" spans="1:32">
       <c r="A72">
         <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C72">
         <v>2015</v>
@@ -6781,13 +7429,22 @@
       <c r="AC72">
         <v>-0.05606265389994169</v>
       </c>
+      <c r="AD72">
+        <v>120.8795809114708</v>
+      </c>
+      <c r="AE72">
+        <v>-0.07161231773282117</v>
+      </c>
+      <c r="AF72">
+        <v>132.8499118901065</v>
+      </c>
     </row>
-    <row r="73" spans="1:29">
+    <row r="73" spans="1:32">
       <c r="A73">
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C73">
         <v>2016</v>
@@ -6870,13 +7527,22 @@
       <c r="AC73">
         <v>-0.1866956325367328</v>
       </c>
+      <c r="AD73">
+        <v>136.7541113472318</v>
+      </c>
+      <c r="AE73">
+        <v>0.1313251610905828</v>
+      </c>
+      <c r="AF73">
+        <v>132.8499118901065</v>
+      </c>
     </row>
-    <row r="74" spans="1:29">
+    <row r="74" spans="1:32">
       <c r="A74">
         <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C74">
         <v>2017</v>
@@ -6959,13 +7625,22 @@
       <c r="AC74">
         <v>0.2808857617554978</v>
       </c>
+      <c r="AD74">
+        <v>127.0108426496488</v>
+      </c>
+      <c r="AE74">
+        <v>-0.07124662360493095</v>
+      </c>
+      <c r="AF74">
+        <v>132.8499118901065</v>
+      </c>
     </row>
-    <row r="75" spans="1:29">
+    <row r="75" spans="1:32">
       <c r="A75">
         <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C75">
         <v>2018</v>
@@ -7048,13 +7723,22 @@
       <c r="AC75">
         <v>0.02311285426485199</v>
       </c>
+      <c r="AD75">
+        <v>133.5721029403324</v>
+      </c>
+      <c r="AE75">
+        <v>0.05165905645380597</v>
+      </c>
+      <c r="AF75">
+        <v>132.8499118901065</v>
+      </c>
     </row>
-    <row r="76" spans="1:29">
+    <row r="76" spans="1:32">
       <c r="A76">
         <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C76">
         <v>2019</v>
@@ -7137,13 +7821,22 @@
       <c r="AC76">
         <v>-0.2065707446421599</v>
       </c>
+      <c r="AD76">
+        <v>129.5330092403032</v>
+      </c>
+      <c r="AE76">
+        <v>-0.03023905150189599</v>
+      </c>
+      <c r="AF76">
+        <v>132.8499118901065</v>
+      </c>
     </row>
-    <row r="77" spans="1:29">
+    <row r="77" spans="1:32">
       <c r="A77">
         <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C77">
         <v>2020</v>
@@ -7226,13 +7919,22 @@
       <c r="AC77">
         <v>-0.2965178359727726</v>
       </c>
+      <c r="AD77">
+        <v>130.9698062984764</v>
+      </c>
+      <c r="AE77">
+        <v>0.01109213062060288</v>
+      </c>
+      <c r="AF77">
+        <v>132.8499118901065</v>
+      </c>
     </row>
-    <row r="78" spans="1:29">
+    <row r="78" spans="1:32">
       <c r="A78">
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C78">
         <v>2021</v>
@@ -7315,13 +8017,22 @@
       <c r="AC78">
         <v>0.6562697640810218</v>
       </c>
+      <c r="AD78">
+        <v>142.1847832838741</v>
+      </c>
+      <c r="AE78">
+        <v>0.08563024793546048</v>
+      </c>
+      <c r="AF78">
+        <v>132.8499118901065</v>
+      </c>
     </row>
-    <row r="79" spans="1:29">
+    <row r="79" spans="1:32">
       <c r="A79">
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C79">
         <v>2011</v>
@@ -7386,13 +8097,22 @@
       <c r="AC79">
         <v>0.43237757690339</v>
       </c>
+      <c r="AD79">
+        <v>136.7930994251751</v>
+      </c>
+      <c r="AE79">
+        <v>0.1140914936579214</v>
+      </c>
+      <c r="AF79">
+        <v>133.5725192805276</v>
+      </c>
     </row>
-    <row r="80" spans="1:29">
+    <row r="80" spans="1:32">
       <c r="A80">
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C80">
         <v>2012</v>
@@ -7475,13 +8195,22 @@
       <c r="AC80">
         <v>-0.1818038700997001</v>
       </c>
+      <c r="AD80">
+        <v>151.3710697653637</v>
+      </c>
+      <c r="AE80">
+        <v>0.1065694863370112</v>
+      </c>
+      <c r="AF80">
+        <v>133.5725192805276</v>
+      </c>
     </row>
-    <row r="81" spans="1:29">
+    <row r="81" spans="1:32">
       <c r="A81">
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C81">
         <v>2013</v>
@@ -7564,13 +8293,22 @@
       <c r="AC81">
         <v>0.1270574564848426</v>
       </c>
+      <c r="AD81">
+        <v>128.5257234793937</v>
+      </c>
+      <c r="AE81">
+        <v>-0.1509228039504639</v>
+      </c>
+      <c r="AF81">
+        <v>133.5725192805276</v>
+      </c>
     </row>
-    <row r="82" spans="1:29">
+    <row r="82" spans="1:32">
       <c r="A82">
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C82">
         <v>2014</v>
@@ -7653,13 +8391,22 @@
       <c r="AC82">
         <v>-0.2020827020267462</v>
       </c>
+      <c r="AD82">
+        <v>131.7992674037326</v>
+      </c>
+      <c r="AE82">
+        <v>0.02546995135074015</v>
+      </c>
+      <c r="AF82">
+        <v>133.5725192805276</v>
+      </c>
     </row>
-    <row r="83" spans="1:29">
+    <row r="83" spans="1:32">
       <c r="A83">
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C83">
         <v>2015</v>
@@ -7742,13 +8489,22 @@
       <c r="AC83">
         <v>-0.006987698370497286</v>
       </c>
+      <c r="AD83">
+        <v>125.3624172051539</v>
+      </c>
+      <c r="AE83">
+        <v>-0.04883828510867971</v>
+      </c>
+      <c r="AF83">
+        <v>133.5725192805276</v>
+      </c>
     </row>
-    <row r="84" spans="1:29">
+    <row r="84" spans="1:32">
       <c r="A84">
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C84">
         <v>2016</v>
@@ -7831,13 +8587,22 @@
       <c r="AC84">
         <v>-0.07694202755021107</v>
       </c>
+      <c r="AD84">
+        <v>139.8957725277637</v>
+      </c>
+      <c r="AE84">
+        <v>0.1159307202797955</v>
+      </c>
+      <c r="AF84">
+        <v>133.5725192805276</v>
+      </c>
     </row>
-    <row r="85" spans="1:29">
+    <row r="85" spans="1:32">
       <c r="A85">
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C85">
         <v>2017</v>
@@ -7920,13 +8685,22 @@
       <c r="AC85">
         <v>0.2209363583731048</v>
       </c>
+      <c r="AD85">
+        <v>126.6005252912394</v>
+      </c>
+      <c r="AE85">
+        <v>-0.09503680487475585</v>
+      </c>
+      <c r="AF85">
+        <v>133.5725192805276</v>
+      </c>
     </row>
-    <row r="86" spans="1:29">
+    <row r="86" spans="1:32">
       <c r="A86">
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C86">
         <v>2018</v>
@@ -8009,13 +8783,22 @@
       <c r="AC86">
         <v>-0.0003848442984267786</v>
       </c>
+      <c r="AD86">
+        <v>126.6567001720676</v>
+      </c>
+      <c r="AE86">
+        <v>0.0004437175967402229</v>
+      </c>
+      <c r="AF86">
+        <v>133.5725192805276</v>
+      </c>
     </row>
-    <row r="87" spans="1:29">
+    <row r="87" spans="1:32">
       <c r="A87">
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C87">
         <v>2019</v>
@@ -8098,13 +8881,22 @@
       <c r="AC87">
         <v>-0.3031541925149661</v>
       </c>
+      <c r="AD87">
+        <v>132.2930129861167</v>
+      </c>
+      <c r="AE87">
+        <v>0.0445007078693187</v>
+      </c>
+      <c r="AF87">
+        <v>133.5725192805276</v>
+      </c>
     </row>
-    <row r="88" spans="1:29">
+    <row r="88" spans="1:32">
       <c r="A88">
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C88">
         <v>2020</v>
@@ -8187,13 +8979,22 @@
       <c r="AC88">
         <v>-0.2026957055939365</v>
       </c>
+      <c r="AD88">
+        <v>131.5280777123958</v>
+      </c>
+      <c r="AE88">
+        <v>-0.005782129051677187</v>
+      </c>
+      <c r="AF88">
+        <v>133.5725192805276</v>
+      </c>
     </row>
-    <row r="89" spans="1:29">
+    <row r="89" spans="1:32">
       <c r="A89">
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C89">
         <v>2021</v>
@@ -8276,13 +9077,22 @@
       <c r="AC89">
         <v>0.6400493272717882</v>
       </c>
+      <c r="AD89">
+        <v>138.4720461174012</v>
+      </c>
+      <c r="AE89">
+        <v>0.0527945707546138</v>
+      </c>
+      <c r="AF89">
+        <v>133.5725192805276</v>
+      </c>
     </row>
-    <row r="90" spans="1:29">
+    <row r="90" spans="1:32">
       <c r="A90">
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C90">
         <v>2011</v>
@@ -8347,13 +9157,22 @@
       <c r="AC90">
         <v>0.2907233066130119</v>
       </c>
+      <c r="AD90">
+        <v>141.5956170161337</v>
+      </c>
+      <c r="AE90">
+        <v>0.131603858475458</v>
+      </c>
+      <c r="AF90">
+        <v>136.9988585955319</v>
+      </c>
     </row>
-    <row r="91" spans="1:29">
+    <row r="91" spans="1:32">
       <c r="A91">
         <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C91">
         <v>2012</v>
@@ -8436,13 +9255,22 @@
       <c r="AC91">
         <v>-0.1500884366902923</v>
       </c>
+      <c r="AD91">
+        <v>151.6206285124406</v>
+      </c>
+      <c r="AE91">
+        <v>0.07080029528855203</v>
+      </c>
+      <c r="AF91">
+        <v>136.9988585955319</v>
+      </c>
     </row>
-    <row r="92" spans="1:29">
+    <row r="92" spans="1:32">
       <c r="A92">
         <v>9</v>
       </c>
       <c r="B92" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C92">
         <v>2013</v>
@@ -8525,13 +9353,22 @@
       <c r="AC92">
         <v>0.02977216008999362</v>
       </c>
+      <c r="AD92">
+        <v>141.1292563979021</v>
+      </c>
+      <c r="AE92">
+        <v>-0.06919488606181123</v>
+      </c>
+      <c r="AF92">
+        <v>136.9988585955319</v>
+      </c>
     </row>
-    <row r="93" spans="1:29">
+    <row r="93" spans="1:32">
       <c r="A93">
         <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C93">
         <v>2014</v>
@@ -8614,13 +9451,22 @@
       <c r="AC93">
         <v>-0.06383297043817127</v>
       </c>
+      <c r="AD93">
+        <v>133.5976540528878</v>
+      </c>
+      <c r="AE93">
+        <v>-0.05336669757388635</v>
+      </c>
+      <c r="AF93">
+        <v>136.9988585955319</v>
+      </c>
     </row>
-    <row r="94" spans="1:29">
+    <row r="94" spans="1:32">
       <c r="A94">
         <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C94">
         <v>2015</v>
@@ -8703,13 +9549,22 @@
       <c r="AC94">
         <v>-0.02781672981092831</v>
       </c>
+      <c r="AD94">
+        <v>132.0804338456402</v>
+      </c>
+      <c r="AE94">
+        <v>-0.01135663809371201</v>
+      </c>
+      <c r="AF94">
+        <v>136.9988585955319</v>
+      </c>
     </row>
-    <row r="95" spans="1:29">
+    <row r="95" spans="1:32">
       <c r="A95">
         <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C95">
         <v>2016</v>
@@ -8792,13 +9647,22 @@
       <c r="AC95">
         <v>-0.1358942760388734</v>
       </c>
+      <c r="AD95">
+        <v>141.8280656503174</v>
+      </c>
+      <c r="AE95">
+        <v>0.07380072521618919</v>
+      </c>
+      <c r="AF95">
+        <v>136.9988585955319</v>
+      </c>
     </row>
-    <row r="96" spans="1:29">
+    <row r="96" spans="1:32">
       <c r="A96">
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C96">
         <v>2017</v>
@@ -8881,13 +9745,22 @@
       <c r="AC96">
         <v>0.2587699626658282</v>
       </c>
+      <c r="AD96">
+        <v>130.5339215523102</v>
+      </c>
+      <c r="AE96">
+        <v>-0.07963264567009853</v>
+      </c>
+      <c r="AF96">
+        <v>136.9988585955319</v>
+      </c>
     </row>
-    <row r="97" spans="1:29">
+    <row r="97" spans="1:32">
       <c r="A97">
         <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C97">
         <v>2018</v>
@@ -8970,13 +9843,22 @@
       <c r="AC97">
         <v>-0.2125199647151436</v>
       </c>
+      <c r="AD97">
+        <v>129.0885487303606</v>
+      </c>
+      <c r="AE97">
+        <v>-0.01107277560316289</v>
+      </c>
+      <c r="AF97">
+        <v>136.9988585955319</v>
+      </c>
     </row>
-    <row r="98" spans="1:29">
+    <row r="98" spans="1:32">
       <c r="A98">
         <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C98">
         <v>2019</v>
@@ -9059,13 +9941,22 @@
       <c r="AC98">
         <v>-0.1485148005582401</v>
       </c>
+      <c r="AD98">
+        <v>131.0584656951243</v>
+      </c>
+      <c r="AE98">
+        <v>0.01526019917443255</v>
+      </c>
+      <c r="AF98">
+        <v>136.9988585955319</v>
+      </c>
     </row>
-    <row r="99" spans="1:29">
+    <row r="99" spans="1:32">
       <c r="A99">
         <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C99">
         <v>2020</v>
@@ -9148,13 +10039,22 @@
       <c r="AC99">
         <v>0.03174766368908055</v>
       </c>
+      <c r="AD99">
+        <v>131.062744684111</v>
+      </c>
+      <c r="AE99">
+        <v>3.264946651126976E-05</v>
+      </c>
+      <c r="AF99">
+        <v>136.9988585955319</v>
+      </c>
     </row>
-    <row r="100" spans="1:29">
+    <row r="100" spans="1:32">
       <c r="A100">
         <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C100">
         <v>2021</v>
@@ -9237,13 +10137,22 @@
       <c r="AC100">
         <v>0.4254517923881449</v>
       </c>
+      <c r="AD100">
+        <v>143.3921084136225</v>
+      </c>
+      <c r="AE100">
+        <v>0.09407222288246597</v>
+      </c>
+      <c r="AF100">
+        <v>136.9988585955319</v>
+      </c>
     </row>
-    <row r="101" spans="1:29">
+    <row r="101" spans="1:32">
       <c r="A101">
         <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C101">
         <v>2011</v>
@@ -9308,13 +10217,22 @@
       <c r="AC101">
         <v>0.2731147927679278</v>
       </c>
+      <c r="AD101">
+        <v>144.576928409329</v>
+      </c>
+      <c r="AE101">
+        <v>0.09074212267900927</v>
+      </c>
+      <c r="AF101">
+        <v>137.5244855240853</v>
+      </c>
     </row>
-    <row r="102" spans="1:29">
+    <row r="102" spans="1:32">
       <c r="A102">
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C102">
         <v>2012</v>
@@ -9397,13 +10315,22 @@
       <c r="AC102">
         <v>-0.007361976775885459</v>
       </c>
+      <c r="AD102">
+        <v>154.2326856262545</v>
+      </c>
+      <c r="AE102">
+        <v>0.06678629379639256</v>
+      </c>
+      <c r="AF102">
+        <v>137.5244855240853</v>
+      </c>
     </row>
-    <row r="103" spans="1:29">
+    <row r="103" spans="1:32">
       <c r="A103">
         <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C103">
         <v>2013</v>
@@ -9486,13 +10413,22 @@
       <c r="AC103">
         <v>0.0917985250435589</v>
       </c>
+      <c r="AD103">
+        <v>135.2599806857932</v>
+      </c>
+      <c r="AE103">
+        <v>-0.1230135159964534</v>
+      </c>
+      <c r="AF103">
+        <v>137.5244855240853</v>
+      </c>
     </row>
-    <row r="104" spans="1:29">
+    <row r="104" spans="1:32">
       <c r="A104">
         <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C104">
         <v>2014</v>
@@ -9575,13 +10511,22 @@
       <c r="AC104">
         <v>-0.1956798494445465</v>
       </c>
+      <c r="AD104">
+        <v>127.2137635816511</v>
+      </c>
+      <c r="AE104">
+        <v>-0.05948704903953328</v>
+      </c>
+      <c r="AF104">
+        <v>137.5244855240853</v>
+      </c>
     </row>
-    <row r="105" spans="1:29">
+    <row r="105" spans="1:32">
       <c r="A105">
         <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C105">
         <v>2015</v>
@@ -9664,13 +10609,22 @@
       <c r="AC105">
         <v>-0.07940624716081257</v>
       </c>
+      <c r="AD105">
+        <v>129.8192613120931</v>
+      </c>
+      <c r="AE105">
+        <v>0.02048125656442523</v>
+      </c>
+      <c r="AF105">
+        <v>137.5244855240853</v>
+      </c>
     </row>
-    <row r="106" spans="1:29">
+    <row r="106" spans="1:32">
       <c r="A106">
         <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C106">
         <v>2016</v>
@@ -9753,13 +10707,22 @@
       <c r="AC106">
         <v>-0.05437873557340045</v>
       </c>
+      <c r="AD106">
+        <v>140.3134868838974</v>
+      </c>
+      <c r="AE106">
+        <v>0.08083719985569493</v>
+      </c>
+      <c r="AF106">
+        <v>137.5244855240853</v>
+      </c>
     </row>
-    <row r="107" spans="1:29">
+    <row r="107" spans="1:32">
       <c r="A107">
         <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C107">
         <v>2017</v>
@@ -9842,13 +10805,22 @@
       <c r="AC107">
         <v>0.2981836149879311</v>
       </c>
+      <c r="AD107">
+        <v>135.9137607256569</v>
+      </c>
+      <c r="AE107">
+        <v>-0.03135640240970583</v>
+      </c>
+      <c r="AF107">
+        <v>137.5244855240853</v>
+      </c>
     </row>
-    <row r="108" spans="1:29">
+    <row r="108" spans="1:32">
       <c r="A108">
         <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C108">
         <v>2018</v>
@@ -9931,13 +10903,22 @@
       <c r="AC108">
         <v>-0.1829015727290243</v>
       </c>
+      <c r="AD108">
+        <v>126.1705216048887</v>
+      </c>
+      <c r="AE108">
+        <v>-0.07168692168289781</v>
+      </c>
+      <c r="AF108">
+        <v>137.5244855240853</v>
+      </c>
     </row>
-    <row r="109" spans="1:29">
+    <row r="109" spans="1:32">
       <c r="A109">
         <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C109">
         <v>2019</v>
@@ -10020,13 +11001,22 @@
       <c r="AC109">
         <v>-0.1876512033156399</v>
       </c>
+      <c r="AD109">
+        <v>137.3388439002599</v>
+      </c>
+      <c r="AE109">
+        <v>0.08851768347558697</v>
+      </c>
+      <c r="AF109">
+        <v>137.5244855240853</v>
+      </c>
     </row>
-    <row r="110" spans="1:29">
+    <row r="110" spans="1:32">
       <c r="A110">
         <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C110">
         <v>2020</v>
@@ -10109,13 +11099,22 @@
       <c r="AC110">
         <v>-0.02838560607981511</v>
       </c>
+      <c r="AD110">
+        <v>135.7920002973633</v>
+      </c>
+      <c r="AE110">
+        <v>-0.01126297236068197</v>
+      </c>
+      <c r="AF110">
+        <v>137.5244855240853</v>
+      </c>
     </row>
-    <row r="111" spans="1:29">
+    <row r="111" spans="1:32">
       <c r="A111">
         <v>10</v>
       </c>
       <c r="B111" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C111">
         <v>2021</v>
@@ -10198,13 +11197,22 @@
       <c r="AC111">
         <v>0.310353232363539</v>
       </c>
+      <c r="AD111">
+        <v>146.1381077377518</v>
+      </c>
+      <c r="AE111">
+        <v>0.07619084642491591</v>
+      </c>
+      <c r="AF111">
+        <v>137.5244855240853</v>
+      </c>
     </row>
-    <row r="112" spans="1:29">
+    <row r="112" spans="1:32">
       <c r="A112">
         <v>11</v>
       </c>
       <c r="B112" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C112">
         <v>2011</v>
@@ -10269,13 +11277,22 @@
       <c r="AC112">
         <v>0.1173445618369369</v>
       </c>
+      <c r="AD112">
+        <v>144.2657632060383</v>
+      </c>
+      <c r="AE112">
+        <v>0.05399256572219691</v>
+      </c>
+      <c r="AF112">
+        <v>136.2745831499826</v>
+      </c>
     </row>
-    <row r="113" spans="1:29">
+    <row r="113" spans="1:32">
       <c r="A113">
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C113">
         <v>2012</v>
@@ -10358,13 +11375,22 @@
       <c r="AC113">
         <v>-0.07227981116636129</v>
       </c>
+      <c r="AD113">
+        <v>152.5899808655232</v>
+      </c>
+      <c r="AE113">
+        <v>0.05770057617618085</v>
+      </c>
+      <c r="AF113">
+        <v>136.2745831499826</v>
+      </c>
     </row>
-    <row r="114" spans="1:29">
+    <row r="114" spans="1:32">
       <c r="A114">
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C114">
         <v>2013</v>
@@ -10447,13 +11473,22 @@
       <c r="AC114">
         <v>0.0540147245298197</v>
       </c>
+      <c r="AD114">
+        <v>136.4136783019794</v>
+      </c>
+      <c r="AE114">
+        <v>-0.1060115642703956</v>
+      </c>
+      <c r="AF114">
+        <v>136.2745831499826</v>
+      </c>
     </row>
-    <row r="115" spans="1:29">
+    <row r="115" spans="1:32">
       <c r="A115">
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C115">
         <v>2014</v>
@@ -10536,13 +11571,22 @@
       <c r="AC115">
         <v>-0.2364977218524222</v>
       </c>
+      <c r="AD115">
+        <v>126.9644956010252</v>
+      </c>
+      <c r="AE115">
+        <v>-0.06926858668847291</v>
+      </c>
+      <c r="AF115">
+        <v>136.2745831499826</v>
+      </c>
     </row>
-    <row r="116" spans="1:29">
+    <row r="116" spans="1:32">
       <c r="A116">
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C116">
         <v>2015</v>
@@ -10625,13 +11669,22 @@
       <c r="AC116">
         <v>0.01044449515280821</v>
       </c>
+      <c r="AD116">
+        <v>130.3402910779215</v>
+      </c>
+      <c r="AE116">
+        <v>0.02658849988664835</v>
+      </c>
+      <c r="AF116">
+        <v>136.2745831499826</v>
+      </c>
     </row>
-    <row r="117" spans="1:29">
+    <row r="117" spans="1:32">
       <c r="A117">
         <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C117">
         <v>2016</v>
@@ -10714,13 +11767,22 @@
       <c r="AC117">
         <v>0.005018285677688583</v>
       </c>
+      <c r="AD117">
+        <v>135.7670159617564</v>
+      </c>
+      <c r="AE117">
+        <v>0.04163505266833178</v>
+      </c>
+      <c r="AF117">
+        <v>136.2745831499826</v>
+      </c>
     </row>
-    <row r="118" spans="1:29">
+    <row r="118" spans="1:32">
       <c r="A118">
         <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C118">
         <v>2017</v>
@@ -10803,13 +11865,22 @@
       <c r="AC118">
         <v>0.3049306530313447</v>
       </c>
+      <c r="AD118">
+        <v>136.8179240852982</v>
+      </c>
+      <c r="AE118">
+        <v>0.007740526048224616</v>
+      </c>
+      <c r="AF118">
+        <v>136.2745831499826</v>
+      </c>
     </row>
-    <row r="119" spans="1:29">
+    <row r="119" spans="1:32">
       <c r="A119">
         <v>11</v>
       </c>
       <c r="B119" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C119">
         <v>2018</v>
@@ -10892,13 +11963,22 @@
       <c r="AC119">
         <v>-0.2921054639704014</v>
       </c>
+      <c r="AD119">
+        <v>126.9081252932563</v>
+      </c>
+      <c r="AE119">
+        <v>-0.07243055950668931</v>
+      </c>
+      <c r="AF119">
+        <v>136.2745831499826</v>
+      </c>
     </row>
-    <row r="120" spans="1:29">
+    <row r="120" spans="1:32">
       <c r="A120">
         <v>11</v>
       </c>
       <c r="B120" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C120">
         <v>2019</v>
@@ -10981,13 +12061,22 @@
       <c r="AC120">
         <v>-0.2187319122304725</v>
       </c>
+      <c r="AD120">
+        <v>130.3216224122787</v>
+      </c>
+      <c r="AE120">
+        <v>0.02689738825732868</v>
+      </c>
+      <c r="AF120">
+        <v>136.2745831499826</v>
+      </c>
     </row>
-    <row r="121" spans="1:29">
+    <row r="121" spans="1:32">
       <c r="A121">
         <v>11</v>
       </c>
       <c r="B121" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C121">
         <v>2020</v>
@@ -11070,13 +12159,22 @@
       <c r="AC121">
         <v>0.2071399702405163</v>
       </c>
+      <c r="AD121">
+        <v>138.2110303772799</v>
+      </c>
+      <c r="AE121">
+        <v>0.06053798148739009</v>
+      </c>
+      <c r="AF121">
+        <v>136.2745831499826</v>
+      </c>
     </row>
-    <row r="122" spans="1:29">
+    <row r="122" spans="1:32">
       <c r="A122">
         <v>11</v>
       </c>
       <c r="B122" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C122">
         <v>2021</v>
@@ -11159,13 +12257,22 @@
       <c r="AC122">
         <v>0.4015497709303537</v>
       </c>
+      <c r="AD122">
+        <v>140.4204874674513</v>
+      </c>
+      <c r="AE122">
+        <v>0.01598611257104565</v>
+      </c>
+      <c r="AF122">
+        <v>136.2745831499826</v>
+      </c>
     </row>
-    <row r="123" spans="1:29">
+    <row r="123" spans="1:32">
       <c r="A123">
         <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C123">
         <v>2011</v>
@@ -11230,13 +12337,22 @@
       <c r="AC123">
         <v>0.1110926797345084</v>
       </c>
+      <c r="AD123">
+        <v>141.410877662712</v>
+      </c>
+      <c r="AE123">
+        <v>0.03708822165527437</v>
+      </c>
+      <c r="AF123">
+        <v>134.6294600499599</v>
+      </c>
     </row>
-    <row r="124" spans="1:29">
+    <row r="124" spans="1:32">
       <c r="A124">
         <v>12</v>
       </c>
       <c r="B124" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C124">
         <v>2012</v>
@@ -11319,13 +12435,22 @@
       <c r="AC124">
         <v>-0.09200566444494207</v>
       </c>
+      <c r="AD124">
+        <v>147.1807742037649</v>
+      </c>
+      <c r="AE124">
+        <v>0.04080235294780588</v>
+      </c>
+      <c r="AF124">
+        <v>134.6294600499599</v>
+      </c>
     </row>
-    <row r="125" spans="1:29">
+    <row r="125" spans="1:32">
       <c r="A125">
         <v>12</v>
       </c>
       <c r="B125" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C125">
         <v>2013</v>
@@ -11408,13 +12533,22 @@
       <c r="AC125">
         <v>-0.004566488671456814</v>
       </c>
+      <c r="AD125">
+        <v>129.2389566991934</v>
+      </c>
+      <c r="AE125">
+        <v>-0.1219032689672632</v>
+      </c>
+      <c r="AF125">
+        <v>134.6294600499599</v>
+      </c>
     </row>
-    <row r="126" spans="1:29">
+    <row r="126" spans="1:32">
       <c r="A126">
         <v>12</v>
       </c>
       <c r="B126" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C126">
         <v>2014</v>
@@ -11497,13 +12631,22 @@
       <c r="AC126">
         <v>-0.2053481059795229</v>
       </c>
+      <c r="AD126">
+        <v>127.6034681503818</v>
+      </c>
+      <c r="AE126">
+        <v>-0.01265476440372548</v>
+      </c>
+      <c r="AF126">
+        <v>134.6294600499599</v>
+      </c>
     </row>
-    <row r="127" spans="1:29">
+    <row r="127" spans="1:32">
       <c r="A127">
         <v>12</v>
       </c>
       <c r="B127" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C127">
         <v>2015</v>
@@ -11586,13 +12729,22 @@
       <c r="AC127">
         <v>0.02406365959104861</v>
       </c>
+      <c r="AD127">
+        <v>126.9880415966722</v>
+      </c>
+      <c r="AE127">
+        <v>-0.004822961026296646</v>
+      </c>
+      <c r="AF127">
+        <v>134.6294600499599</v>
+      </c>
     </row>
-    <row r="128" spans="1:29">
+    <row r="128" spans="1:32">
       <c r="A128">
         <v>12</v>
       </c>
       <c r="B128" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C128">
         <v>2016</v>
@@ -11675,13 +12827,22 @@
       <c r="AC128">
         <v>0.04334464401082339</v>
       </c>
+      <c r="AD128">
+        <v>129.5669416886971</v>
+      </c>
+      <c r="AE128">
+        <v>0.02030821217178702</v>
+      </c>
+      <c r="AF128">
+        <v>134.6294600499599</v>
+      </c>
     </row>
-    <row r="129" spans="1:29">
+    <row r="129" spans="1:32">
       <c r="A129">
         <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C129">
         <v>2017</v>
@@ -11764,13 +12925,22 @@
       <c r="AC129">
         <v>0.1678323515325071</v>
       </c>
+      <c r="AD129">
+        <v>134.2964736527875</v>
+      </c>
+      <c r="AE129">
+        <v>0.03650261326267712</v>
+      </c>
+      <c r="AF129">
+        <v>134.6294600499599</v>
+      </c>
     </row>
-    <row r="130" spans="1:29">
+    <row r="130" spans="1:32">
       <c r="A130">
         <v>12</v>
       </c>
       <c r="B130" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C130">
         <v>2018</v>
@@ -11853,13 +13023,22 @@
       <c r="AC130">
         <v>-0.2700477428706514</v>
       </c>
+      <c r="AD130">
+        <v>127.0313434770258</v>
+      </c>
+      <c r="AE130">
+        <v>-0.0540976987567453</v>
+      </c>
+      <c r="AF130">
+        <v>134.6294600499599</v>
+      </c>
     </row>
-    <row r="131" spans="1:29">
+    <row r="131" spans="1:32">
       <c r="A131">
         <v>12</v>
       </c>
       <c r="B131" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C131">
         <v>2019</v>
@@ -11942,13 +13121,22 @@
       <c r="AC131">
         <v>-0.2001107856869041</v>
       </c>
+      <c r="AD131">
+        <v>133.0569145434906</v>
+      </c>
+      <c r="AE131">
+        <v>0.04743373486839153</v>
+      </c>
+      <c r="AF131">
+        <v>134.6294600499599</v>
+      </c>
     </row>
-    <row r="132" spans="1:29">
+    <row r="132" spans="1:32">
       <c r="A132">
         <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C132">
         <v>2020</v>
@@ -12031,13 +13219,22 @@
       <c r="AC132">
         <v>0.2473222568624713</v>
       </c>
+      <c r="AD132">
+        <v>138.2965350788341</v>
+      </c>
+      <c r="AE132">
+        <v>0.03937879179988713</v>
+      </c>
+      <c r="AF132">
+        <v>134.6294600499599</v>
+      </c>
     </row>
-    <row r="133" spans="1:29">
+    <row r="133" spans="1:32">
       <c r="A133">
         <v>12</v>
       </c>
       <c r="B133" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C133">
         <v>2021</v>
@@ -12119,6 +13316,15 @@
       </c>
       <c r="AC133">
         <v>0.5905395464668235</v>
+      </c>
+      <c r="AD133">
+        <v>146.253733796</v>
+      </c>
+      <c r="AE133">
+        <v>0.05753722399935723</v>
+      </c>
+      <c r="AF133">
+        <v>134.6294600499599</v>
       </c>
     </row>
   </sheetData>
